--- a/BackTest/2020-01-11 BackTest CON.xlsx
+++ b/BackTest/2020-01-11 BackTest CON.xlsx
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -12459,7 +12459,7 @@
         <v>0</v>
       </c>
       <c r="I345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
@@ -12494,7 +12494,7 @@
         <v>0</v>
       </c>
       <c r="I346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>0</v>
       </c>
       <c r="I347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
@@ -12564,7 +12564,7 @@
         <v>0</v>
       </c>
       <c r="I348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
@@ -12599,7 +12599,7 @@
         <v>0</v>
       </c>
       <c r="I349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
@@ -15469,7 +15469,7 @@
         <v>0</v>
       </c>
       <c r="I431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr"/>
@@ -15504,7 +15504,7 @@
         <v>0</v>
       </c>
       <c r="I432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr"/>
@@ -15539,7 +15539,7 @@
         <v>0</v>
       </c>
       <c r="I433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr"/>
@@ -15574,7 +15574,7 @@
         <v>0</v>
       </c>
       <c r="I434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr"/>
@@ -15609,7 +15609,7 @@
         <v>0</v>
       </c>
       <c r="I435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr"/>
@@ -15644,7 +15644,7 @@
         <v>0</v>
       </c>
       <c r="I436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr"/>
@@ -15679,7 +15679,7 @@
         <v>0</v>
       </c>
       <c r="I437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr"/>
@@ -15714,7 +15714,7 @@
         <v>0</v>
       </c>
       <c r="I438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr"/>
@@ -15749,7 +15749,7 @@
         <v>0</v>
       </c>
       <c r="I439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr"/>
@@ -15784,7 +15784,7 @@
         <v>0</v>
       </c>
       <c r="I440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr"/>
@@ -15819,7 +15819,7 @@
         <v>0</v>
       </c>
       <c r="I441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr"/>
@@ -15854,7 +15854,7 @@
         <v>0</v>
       </c>
       <c r="I442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr"/>
@@ -28451,13 +28451,17 @@
         <v>3.53165</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I802" t="n">
         <v>0</v>
       </c>
-      <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="J802" t="n">
+        <v>3.467</v>
+      </c>
+      <c r="K802" t="n">
+        <v>3.467</v>
+      </c>
       <c r="L802" t="inlineStr"/>
       <c r="M802" t="n">
         <v>1</v>
@@ -28486,14 +28490,22 @@
         <v>3.53085</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I803" t="n">
         <v>0</v>
       </c>
-      <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
-      <c r="L803" t="inlineStr"/>
+      <c r="J803" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K803" t="n">
+        <v>3.467</v>
+      </c>
+      <c r="L803" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M803" t="n">
         <v>1</v>
       </c>
@@ -28527,8 +28539,14 @@
         <v>0</v>
       </c>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
-      <c r="L804" t="inlineStr"/>
+      <c r="K804" t="n">
+        <v>3.467</v>
+      </c>
+      <c r="L804" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M804" t="n">
         <v>1</v>
       </c>
@@ -29466,17 +29484,13 @@
         <v>3.493949999999999</v>
       </c>
       <c r="H831" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I831" t="n">
         <v>0</v>
       </c>
-      <c r="J831" t="n">
-        <v>3.458</v>
-      </c>
-      <c r="K831" t="n">
-        <v>3.458</v>
-      </c>
+      <c r="J831" t="inlineStr"/>
+      <c r="K831" t="inlineStr"/>
       <c r="L831" t="inlineStr"/>
       <c r="M831" t="n">
         <v>1</v>
@@ -29505,22 +29519,14 @@
         <v>3.493183333333333</v>
       </c>
       <c r="H832" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I832" t="n">
         <v>0</v>
       </c>
-      <c r="J832" t="n">
-        <v>3.467</v>
-      </c>
-      <c r="K832" t="n">
-        <v>3.458</v>
-      </c>
-      <c r="L832" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J832" t="inlineStr"/>
+      <c r="K832" t="inlineStr"/>
+      <c r="L832" t="inlineStr"/>
       <c r="M832" t="n">
         <v>1</v>
       </c>
@@ -29548,22 +29554,14 @@
         <v>3.492466666666666</v>
       </c>
       <c r="H833" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I833" t="n">
         <v>0</v>
       </c>
-      <c r="J833" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="K833" t="n">
-        <v>3.458</v>
-      </c>
-      <c r="L833" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J833" t="inlineStr"/>
+      <c r="K833" t="inlineStr"/>
+      <c r="L833" t="inlineStr"/>
       <c r="M833" t="n">
         <v>1</v>
       </c>
@@ -29591,17 +29589,13 @@
         <v>3.491799999999999</v>
       </c>
       <c r="H834" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I834" t="n">
         <v>0</v>
       </c>
-      <c r="J834" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="K834" t="n">
-        <v>3.474</v>
-      </c>
+      <c r="J834" t="inlineStr"/>
+      <c r="K834" t="inlineStr"/>
       <c r="L834" t="inlineStr"/>
       <c r="M834" t="n">
         <v>1</v>
@@ -29630,22 +29624,14 @@
         <v>3.491049999999999</v>
       </c>
       <c r="H835" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I835" t="n">
         <v>0</v>
       </c>
-      <c r="J835" t="n">
-        <v>3.475</v>
-      </c>
-      <c r="K835" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L835" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J835" t="inlineStr"/>
+      <c r="K835" t="inlineStr"/>
+      <c r="L835" t="inlineStr"/>
       <c r="M835" t="n">
         <v>1</v>
       </c>
@@ -29673,22 +29659,14 @@
         <v>3.490299999999999</v>
       </c>
       <c r="H836" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I836" t="n">
         <v>0</v>
       </c>
-      <c r="J836" t="n">
-        <v>3.468</v>
-      </c>
-      <c r="K836" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L836" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J836" t="inlineStr"/>
+      <c r="K836" t="inlineStr"/>
+      <c r="L836" t="inlineStr"/>
       <c r="M836" t="n">
         <v>1</v>
       </c>
@@ -29716,22 +29694,14 @@
         <v>3.489449999999998</v>
       </c>
       <c r="H837" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I837" t="n">
         <v>0</v>
       </c>
-      <c r="J837" t="n">
-        <v>3.465</v>
-      </c>
-      <c r="K837" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L837" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J837" t="inlineStr"/>
+      <c r="K837" t="inlineStr"/>
+      <c r="L837" t="inlineStr"/>
       <c r="M837" t="n">
         <v>1</v>
       </c>
@@ -29759,22 +29729,14 @@
         <v>3.488216666666665</v>
       </c>
       <c r="H838" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I838" t="n">
         <v>0</v>
       </c>
-      <c r="J838" t="n">
-        <v>3.467</v>
-      </c>
-      <c r="K838" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L838" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J838" t="inlineStr"/>
+      <c r="K838" t="inlineStr"/>
+      <c r="L838" t="inlineStr"/>
       <c r="M838" t="n">
         <v>1</v>
       </c>
@@ -29802,22 +29764,14 @@
         <v>3.487366666666666</v>
       </c>
       <c r="H839" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I839" t="n">
         <v>0</v>
       </c>
-      <c r="J839" t="n">
-        <v>3.461</v>
-      </c>
-      <c r="K839" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L839" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J839" t="inlineStr"/>
+      <c r="K839" t="inlineStr"/>
+      <c r="L839" t="inlineStr"/>
       <c r="M839" t="n">
         <v>1</v>
       </c>
@@ -29845,22 +29799,14 @@
         <v>3.486483333333332</v>
       </c>
       <c r="H840" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I840" t="n">
         <v>0</v>
       </c>
-      <c r="J840" t="n">
-        <v>3.457</v>
-      </c>
-      <c r="K840" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L840" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J840" t="inlineStr"/>
+      <c r="K840" t="inlineStr"/>
+      <c r="L840" t="inlineStr"/>
       <c r="M840" t="n">
         <v>1</v>
       </c>
@@ -29888,22 +29834,14 @@
         <v>3.485183333333333</v>
       </c>
       <c r="H841" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I841" t="n">
         <v>0</v>
       </c>
-      <c r="J841" t="n">
-        <v>3.456</v>
-      </c>
-      <c r="K841" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L841" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J841" t="inlineStr"/>
+      <c r="K841" t="inlineStr"/>
+      <c r="L841" t="inlineStr"/>
       <c r="M841" t="n">
         <v>1</v>
       </c>
@@ -29931,22 +29869,14 @@
         <v>3.483966666666666</v>
       </c>
       <c r="H842" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I842" t="n">
         <v>0</v>
       </c>
-      <c r="J842" t="n">
-        <v>3.454</v>
-      </c>
-      <c r="K842" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L842" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J842" t="inlineStr"/>
+      <c r="K842" t="inlineStr"/>
+      <c r="L842" t="inlineStr"/>
       <c r="M842" t="n">
         <v>1</v>
       </c>
@@ -29974,22 +29904,14 @@
         <v>3.482566666666666</v>
       </c>
       <c r="H843" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I843" t="n">
         <v>0</v>
       </c>
-      <c r="J843" t="n">
-        <v>3.453</v>
-      </c>
-      <c r="K843" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L843" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J843" t="inlineStr"/>
+      <c r="K843" t="inlineStr"/>
+      <c r="L843" t="inlineStr"/>
       <c r="M843" t="n">
         <v>1</v>
       </c>
@@ -30017,22 +29939,14 @@
         <v>3.481599999999999</v>
       </c>
       <c r="H844" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I844" t="n">
         <v>0</v>
       </c>
-      <c r="J844" t="n">
-        <v>3.451</v>
-      </c>
-      <c r="K844" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L844" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J844" t="inlineStr"/>
+      <c r="K844" t="inlineStr"/>
+      <c r="L844" t="inlineStr"/>
       <c r="M844" t="n">
         <v>1</v>
       </c>
@@ -30060,22 +29974,14 @@
         <v>3.480766666666666</v>
       </c>
       <c r="H845" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I845" t="n">
         <v>0</v>
       </c>
-      <c r="J845" t="n">
-        <v>3.449</v>
-      </c>
-      <c r="K845" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L845" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J845" t="inlineStr"/>
+      <c r="K845" t="inlineStr"/>
+      <c r="L845" t="inlineStr"/>
       <c r="M845" t="n">
         <v>1</v>
       </c>
@@ -30103,22 +30009,14 @@
         <v>3.48</v>
       </c>
       <c r="H846" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I846" t="n">
         <v>0</v>
       </c>
-      <c r="J846" t="n">
-        <v>3.453</v>
-      </c>
-      <c r="K846" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L846" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J846" t="inlineStr"/>
+      <c r="K846" t="inlineStr"/>
+      <c r="L846" t="inlineStr"/>
       <c r="M846" t="n">
         <v>1</v>
       </c>
@@ -30146,22 +30044,14 @@
         <v>3.479116666666667</v>
       </c>
       <c r="H847" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I847" t="n">
         <v>0</v>
       </c>
-      <c r="J847" t="n">
-        <v>3.457</v>
-      </c>
-      <c r="K847" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L847" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J847" t="inlineStr"/>
+      <c r="K847" t="inlineStr"/>
+      <c r="L847" t="inlineStr"/>
       <c r="M847" t="n">
         <v>1</v>
       </c>
@@ -30189,22 +30079,14 @@
         <v>3.478349999999999</v>
       </c>
       <c r="H848" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I848" t="n">
         <v>0</v>
       </c>
-      <c r="J848" t="n">
-        <v>3.456</v>
-      </c>
-      <c r="K848" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L848" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J848" t="inlineStr"/>
+      <c r="K848" t="inlineStr"/>
+      <c r="L848" t="inlineStr"/>
       <c r="M848" t="n">
         <v>1</v>
       </c>
@@ -30232,22 +30114,14 @@
         <v>3.4774</v>
       </c>
       <c r="H849" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I849" t="n">
         <v>0</v>
       </c>
-      <c r="J849" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="K849" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L849" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J849" t="inlineStr"/>
+      <c r="K849" t="inlineStr"/>
+      <c r="L849" t="inlineStr"/>
       <c r="M849" t="n">
         <v>1</v>
       </c>
@@ -30275,22 +30149,14 @@
         <v>3.476599999999999</v>
       </c>
       <c r="H850" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I850" t="n">
         <v>0</v>
       </c>
-      <c r="J850" t="n">
-        <v>3.466</v>
-      </c>
-      <c r="K850" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L850" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J850" t="inlineStr"/>
+      <c r="K850" t="inlineStr"/>
+      <c r="L850" t="inlineStr"/>
       <c r="M850" t="n">
         <v>1</v>
       </c>
@@ -30318,22 +30184,14 @@
         <v>3.476149999999999</v>
       </c>
       <c r="H851" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I851" t="n">
         <v>0</v>
       </c>
-      <c r="J851" t="n">
-        <v>3.469</v>
-      </c>
-      <c r="K851" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L851" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J851" t="inlineStr"/>
+      <c r="K851" t="inlineStr"/>
+      <c r="L851" t="inlineStr"/>
       <c r="M851" t="n">
         <v>1</v>
       </c>
@@ -30361,22 +30219,14 @@
         <v>3.475583333333333</v>
       </c>
       <c r="H852" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I852" t="n">
         <v>0</v>
       </c>
-      <c r="J852" t="n">
-        <v>3.467</v>
-      </c>
-      <c r="K852" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L852" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J852" t="inlineStr"/>
+      <c r="K852" t="inlineStr"/>
+      <c r="L852" t="inlineStr"/>
       <c r="M852" t="n">
         <v>1</v>
       </c>
@@ -30404,22 +30254,14 @@
         <v>3.475066666666666</v>
       </c>
       <c r="H853" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I853" t="n">
         <v>0</v>
       </c>
-      <c r="J853" t="n">
-        <v>3.467</v>
-      </c>
-      <c r="K853" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L853" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J853" t="inlineStr"/>
+      <c r="K853" t="inlineStr"/>
+      <c r="L853" t="inlineStr"/>
       <c r="M853" t="n">
         <v>1</v>
       </c>
@@ -30447,22 +30289,14 @@
         <v>3.474916666666667</v>
       </c>
       <c r="H854" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I854" t="n">
         <v>0</v>
       </c>
-      <c r="J854" t="n">
-        <v>3.467</v>
-      </c>
-      <c r="K854" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L854" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J854" t="inlineStr"/>
+      <c r="K854" t="inlineStr"/>
+      <c r="L854" t="inlineStr"/>
       <c r="M854" t="n">
         <v>1</v>
       </c>
@@ -30490,22 +30324,14 @@
         <v>3.475133333333333</v>
       </c>
       <c r="H855" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I855" t="n">
         <v>0</v>
       </c>
-      <c r="J855" t="n">
-        <v>3.463</v>
-      </c>
-      <c r="K855" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L855" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J855" t="inlineStr"/>
+      <c r="K855" t="inlineStr"/>
+      <c r="L855" t="inlineStr"/>
       <c r="M855" t="n">
         <v>1</v>
       </c>
@@ -30533,22 +30359,14 @@
         <v>3.47525</v>
       </c>
       <c r="H856" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I856" t="n">
         <v>0</v>
       </c>
-      <c r="J856" t="n">
-        <v>3.469</v>
-      </c>
-      <c r="K856" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L856" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J856" t="inlineStr"/>
+      <c r="K856" t="inlineStr"/>
+      <c r="L856" t="inlineStr"/>
       <c r="M856" t="n">
         <v>1</v>
       </c>
@@ -30576,22 +30394,14 @@
         <v>3.47505</v>
       </c>
       <c r="H857" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I857" t="n">
         <v>0</v>
       </c>
-      <c r="J857" t="n">
-        <v>3.479</v>
-      </c>
-      <c r="K857" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L857" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J857" t="inlineStr"/>
+      <c r="K857" t="inlineStr"/>
+      <c r="L857" t="inlineStr"/>
       <c r="M857" t="n">
         <v>1</v>
       </c>
@@ -30619,22 +30429,14 @@
         <v>3.475116666666667</v>
       </c>
       <c r="H858" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I858" t="n">
         <v>0</v>
       </c>
-      <c r="J858" t="n">
-        <v>3.475</v>
-      </c>
-      <c r="K858" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L858" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J858" t="inlineStr"/>
+      <c r="K858" t="inlineStr"/>
+      <c r="L858" t="inlineStr"/>
       <c r="M858" t="n">
         <v>1</v>
       </c>
@@ -30662,22 +30464,14 @@
         <v>3.475216666666667</v>
       </c>
       <c r="H859" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I859" t="n">
         <v>0</v>
       </c>
-      <c r="J859" t="n">
-        <v>3.473</v>
-      </c>
-      <c r="K859" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L859" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J859" t="inlineStr"/>
+      <c r="K859" t="inlineStr"/>
+      <c r="L859" t="inlineStr"/>
       <c r="M859" t="n">
         <v>1</v>
       </c>
@@ -30705,22 +30499,14 @@
         <v>3.4754</v>
       </c>
       <c r="H860" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I860" t="n">
         <v>0</v>
       </c>
-      <c r="J860" t="n">
-        <v>3.468</v>
-      </c>
-      <c r="K860" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L860" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J860" t="inlineStr"/>
+      <c r="K860" t="inlineStr"/>
+      <c r="L860" t="inlineStr"/>
       <c r="M860" t="n">
         <v>1</v>
       </c>
@@ -30748,22 +30534,14 @@
         <v>3.475416666666666</v>
       </c>
       <c r="H861" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I861" t="n">
         <v>0</v>
       </c>
-      <c r="J861" t="n">
-        <v>3.468</v>
-      </c>
-      <c r="K861" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L861" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J861" t="inlineStr"/>
+      <c r="K861" t="inlineStr"/>
+      <c r="L861" t="inlineStr"/>
       <c r="M861" t="n">
         <v>1</v>
       </c>
@@ -30791,22 +30569,14 @@
         <v>3.474816666666666</v>
       </c>
       <c r="H862" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I862" t="n">
         <v>0</v>
       </c>
-      <c r="J862" t="n">
-        <v>3.464</v>
-      </c>
-      <c r="K862" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L862" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J862" t="inlineStr"/>
+      <c r="K862" t="inlineStr"/>
+      <c r="L862" t="inlineStr"/>
       <c r="M862" t="n">
         <v>1</v>
       </c>
@@ -30834,22 +30604,14 @@
         <v>3.474016666666666</v>
       </c>
       <c r="H863" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I863" t="n">
         <v>0</v>
       </c>
-      <c r="J863" t="n">
-        <v>3.468</v>
-      </c>
-      <c r="K863" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L863" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J863" t="inlineStr"/>
+      <c r="K863" t="inlineStr"/>
+      <c r="L863" t="inlineStr"/>
       <c r="M863" t="n">
         <v>1</v>
       </c>
@@ -30877,22 +30639,14 @@
         <v>3.473199999999999</v>
       </c>
       <c r="H864" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I864" t="n">
         <v>0</v>
       </c>
-      <c r="J864" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="K864" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L864" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J864" t="inlineStr"/>
+      <c r="K864" t="inlineStr"/>
+      <c r="L864" t="inlineStr"/>
       <c r="M864" t="n">
         <v>1</v>
       </c>
@@ -30920,22 +30674,14 @@
         <v>3.472566666666666</v>
       </c>
       <c r="H865" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I865" t="n">
         <v>0</v>
       </c>
-      <c r="J865" t="n">
-        <v>3.472</v>
-      </c>
-      <c r="K865" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L865" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J865" t="inlineStr"/>
+      <c r="K865" t="inlineStr"/>
+      <c r="L865" t="inlineStr"/>
       <c r="M865" t="n">
         <v>1</v>
       </c>
@@ -30963,22 +30709,14 @@
         <v>3.471966666666666</v>
       </c>
       <c r="H866" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I866" t="n">
         <v>0</v>
       </c>
-      <c r="J866" t="n">
-        <v>3.476</v>
-      </c>
-      <c r="K866" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L866" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J866" t="inlineStr"/>
+      <c r="K866" t="inlineStr"/>
+      <c r="L866" t="inlineStr"/>
       <c r="M866" t="n">
         <v>1</v>
       </c>
@@ -31006,22 +30744,14 @@
         <v>3.4711</v>
       </c>
       <c r="H867" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I867" t="n">
         <v>0</v>
       </c>
-      <c r="J867" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="K867" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L867" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J867" t="inlineStr"/>
+      <c r="K867" t="inlineStr"/>
+      <c r="L867" t="inlineStr"/>
       <c r="M867" t="n">
         <v>1</v>
       </c>
@@ -31049,22 +30779,14 @@
         <v>3.470283333333334</v>
       </c>
       <c r="H868" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I868" t="n">
         <v>0</v>
       </c>
-      <c r="J868" t="n">
-        <v>3.466</v>
-      </c>
-      <c r="K868" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L868" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J868" t="inlineStr"/>
+      <c r="K868" t="inlineStr"/>
+      <c r="L868" t="inlineStr"/>
       <c r="M868" t="n">
         <v>1</v>
       </c>
@@ -31092,22 +30814,14 @@
         <v>3.469316666666667</v>
       </c>
       <c r="H869" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I869" t="n">
         <v>0</v>
       </c>
-      <c r="J869" t="n">
-        <v>3.461</v>
-      </c>
-      <c r="K869" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L869" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J869" t="inlineStr"/>
+      <c r="K869" t="inlineStr"/>
+      <c r="L869" t="inlineStr"/>
       <c r="M869" t="n">
         <v>1</v>
       </c>
@@ -31135,22 +30849,14 @@
         <v>3.468566666666667</v>
       </c>
       <c r="H870" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I870" t="n">
         <v>0</v>
       </c>
-      <c r="J870" t="n">
-        <v>3.455</v>
-      </c>
-      <c r="K870" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L870" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J870" t="inlineStr"/>
+      <c r="K870" t="inlineStr"/>
+      <c r="L870" t="inlineStr"/>
       <c r="M870" t="n">
         <v>1</v>
       </c>
@@ -31178,22 +30884,14 @@
         <v>3.467666666666667</v>
       </c>
       <c r="H871" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I871" t="n">
         <v>0</v>
       </c>
-      <c r="J871" t="n">
-        <v>3.456</v>
-      </c>
-      <c r="K871" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L871" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J871" t="inlineStr"/>
+      <c r="K871" t="inlineStr"/>
+      <c r="L871" t="inlineStr"/>
       <c r="M871" t="n">
         <v>1</v>
       </c>
@@ -31221,22 +30919,14 @@
         <v>3.466766666666667</v>
       </c>
       <c r="H872" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I872" t="n">
         <v>0</v>
       </c>
-      <c r="J872" t="n">
-        <v>3.455</v>
-      </c>
-      <c r="K872" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L872" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J872" t="inlineStr"/>
+      <c r="K872" t="inlineStr"/>
+      <c r="L872" t="inlineStr"/>
       <c r="M872" t="n">
         <v>1</v>
       </c>
@@ -31264,22 +30954,14 @@
         <v>3.466050000000001</v>
       </c>
       <c r="H873" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I873" t="n">
         <v>0</v>
       </c>
-      <c r="J873" t="n">
-        <v>3.461</v>
-      </c>
-      <c r="K873" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L873" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J873" t="inlineStr"/>
+      <c r="K873" t="inlineStr"/>
+      <c r="L873" t="inlineStr"/>
       <c r="M873" t="n">
         <v>1</v>
       </c>
@@ -31307,22 +30989,14 @@
         <v>3.465750000000001</v>
       </c>
       <c r="H874" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I874" t="n">
         <v>0</v>
       </c>
-      <c r="J874" t="n">
-        <v>3.477</v>
-      </c>
-      <c r="K874" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L874" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J874" t="inlineStr"/>
+      <c r="K874" t="inlineStr"/>
+      <c r="L874" t="inlineStr"/>
       <c r="M874" t="n">
         <v>1</v>
       </c>
@@ -31350,22 +31024,14 @@
         <v>3.465283333333335</v>
       </c>
       <c r="H875" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I875" t="n">
         <v>0</v>
       </c>
-      <c r="J875" t="n">
-        <v>3.481</v>
-      </c>
-      <c r="K875" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L875" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J875" t="inlineStr"/>
+      <c r="K875" t="inlineStr"/>
+      <c r="L875" t="inlineStr"/>
       <c r="M875" t="n">
         <v>1</v>
       </c>
@@ -31393,22 +31059,14 @@
         <v>3.464900000000001</v>
       </c>
       <c r="H876" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I876" t="n">
         <v>0</v>
       </c>
-      <c r="J876" t="n">
-        <v>3.467</v>
-      </c>
-      <c r="K876" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L876" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J876" t="inlineStr"/>
+      <c r="K876" t="inlineStr"/>
+      <c r="L876" t="inlineStr"/>
       <c r="M876" t="n">
         <v>1</v>
       </c>
@@ -31436,22 +31094,14 @@
         <v>3.464566666666668</v>
       </c>
       <c r="H877" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I877" t="n">
         <v>0</v>
       </c>
-      <c r="J877" t="n">
-        <v>3.462</v>
-      </c>
-      <c r="K877" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L877" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J877" t="inlineStr"/>
+      <c r="K877" t="inlineStr"/>
+      <c r="L877" t="inlineStr"/>
       <c r="M877" t="n">
         <v>1</v>
       </c>
@@ -31479,22 +31129,14 @@
         <v>3.464716666666668</v>
       </c>
       <c r="H878" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I878" t="n">
         <v>0</v>
       </c>
-      <c r="J878" t="n">
-        <v>3.461</v>
-      </c>
-      <c r="K878" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L878" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J878" t="inlineStr"/>
+      <c r="K878" t="inlineStr"/>
+      <c r="L878" t="inlineStr"/>
       <c r="M878" t="n">
         <v>1</v>
       </c>
@@ -31522,22 +31164,14 @@
         <v>3.464900000000001</v>
       </c>
       <c r="H879" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I879" t="n">
         <v>0</v>
       </c>
-      <c r="J879" t="n">
-        <v>3.462</v>
-      </c>
-      <c r="K879" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L879" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J879" t="inlineStr"/>
+      <c r="K879" t="inlineStr"/>
+      <c r="L879" t="inlineStr"/>
       <c r="M879" t="n">
         <v>1</v>
       </c>
@@ -31565,22 +31199,14 @@
         <v>3.464916666666668</v>
       </c>
       <c r="H880" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I880" t="n">
         <v>0</v>
       </c>
-      <c r="J880" t="n">
-        <v>3.472</v>
-      </c>
-      <c r="K880" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L880" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J880" t="inlineStr"/>
+      <c r="K880" t="inlineStr"/>
+      <c r="L880" t="inlineStr"/>
       <c r="M880" t="n">
         <v>1</v>
       </c>
@@ -31608,22 +31234,14 @@
         <v>3.464816666666668</v>
       </c>
       <c r="H881" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I881" t="n">
         <v>0</v>
       </c>
-      <c r="J881" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="K881" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L881" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J881" t="inlineStr"/>
+      <c r="K881" t="inlineStr"/>
+      <c r="L881" t="inlineStr"/>
       <c r="M881" t="n">
         <v>1</v>
       </c>
@@ -31651,22 +31269,14 @@
         <v>3.464833333333335</v>
       </c>
       <c r="H882" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I882" t="n">
         <v>0</v>
       </c>
-      <c r="J882" t="n">
-        <v>3.469</v>
-      </c>
-      <c r="K882" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L882" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J882" t="inlineStr"/>
+      <c r="K882" t="inlineStr"/>
+      <c r="L882" t="inlineStr"/>
       <c r="M882" t="n">
         <v>1</v>
       </c>
@@ -31694,22 +31304,14 @@
         <v>3.464800000000002</v>
       </c>
       <c r="H883" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I883" t="n">
         <v>0</v>
       </c>
-      <c r="J883" t="n">
-        <v>3.475</v>
-      </c>
-      <c r="K883" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L883" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J883" t="inlineStr"/>
+      <c r="K883" t="inlineStr"/>
+      <c r="L883" t="inlineStr"/>
       <c r="M883" t="n">
         <v>1</v>
       </c>
@@ -31737,22 +31339,14 @@
         <v>3.464800000000002</v>
       </c>
       <c r="H884" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I884" t="n">
         <v>0</v>
       </c>
-      <c r="J884" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="K884" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L884" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J884" t="inlineStr"/>
+      <c r="K884" t="inlineStr"/>
+      <c r="L884" t="inlineStr"/>
       <c r="M884" t="n">
         <v>1</v>
       </c>
@@ -31780,22 +31374,14 @@
         <v>3.465133333333335</v>
       </c>
       <c r="H885" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I885" t="n">
         <v>0</v>
       </c>
-      <c r="J885" t="n">
-        <v>3.461</v>
-      </c>
-      <c r="K885" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L885" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J885" t="inlineStr"/>
+      <c r="K885" t="inlineStr"/>
+      <c r="L885" t="inlineStr"/>
       <c r="M885" t="n">
         <v>1</v>
       </c>
@@ -31823,22 +31409,14 @@
         <v>3.464933333333335</v>
       </c>
       <c r="H886" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I886" t="n">
         <v>0</v>
       </c>
-      <c r="J886" t="n">
-        <v>3.462</v>
-      </c>
-      <c r="K886" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L886" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J886" t="inlineStr"/>
+      <c r="K886" t="inlineStr"/>
+      <c r="L886" t="inlineStr"/>
       <c r="M886" t="n">
         <v>1</v>
       </c>
@@ -31866,22 +31444,14 @@
         <v>3.465316666666668</v>
       </c>
       <c r="H887" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I887" t="n">
         <v>0</v>
       </c>
-      <c r="J887" t="n">
-        <v>3.477</v>
-      </c>
-      <c r="K887" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L887" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J887" t="inlineStr"/>
+      <c r="K887" t="inlineStr"/>
+      <c r="L887" t="inlineStr"/>
       <c r="M887" t="n">
         <v>1</v>
       </c>
@@ -31909,22 +31479,14 @@
         <v>3.465416666666668</v>
       </c>
       <c r="H888" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I888" t="n">
         <v>0</v>
       </c>
-      <c r="J888" t="n">
-        <v>3.466</v>
-      </c>
-      <c r="K888" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L888" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J888" t="inlineStr"/>
+      <c r="K888" t="inlineStr"/>
+      <c r="L888" t="inlineStr"/>
       <c r="M888" t="n">
         <v>1</v>
       </c>
@@ -31952,22 +31514,14 @@
         <v>3.465466666666667</v>
       </c>
       <c r="H889" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I889" t="n">
         <v>0</v>
       </c>
-      <c r="J889" t="n">
-        <v>3.462</v>
-      </c>
-      <c r="K889" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L889" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J889" t="inlineStr"/>
+      <c r="K889" t="inlineStr"/>
+      <c r="L889" t="inlineStr"/>
       <c r="M889" t="n">
         <v>1</v>
       </c>
@@ -31995,22 +31549,14 @@
         <v>3.465616666666668</v>
       </c>
       <c r="H890" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I890" t="n">
         <v>0</v>
       </c>
-      <c r="J890" t="n">
-        <v>3.473</v>
-      </c>
-      <c r="K890" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L890" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J890" t="inlineStr"/>
+      <c r="K890" t="inlineStr"/>
+      <c r="L890" t="inlineStr"/>
       <c r="M890" t="n">
         <v>1</v>
       </c>
@@ -32038,22 +31584,14 @@
         <v>3.465833333333335</v>
       </c>
       <c r="H891" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I891" t="n">
         <v>0</v>
       </c>
-      <c r="J891" t="n">
-        <v>3.471</v>
-      </c>
-      <c r="K891" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L891" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J891" t="inlineStr"/>
+      <c r="K891" t="inlineStr"/>
+      <c r="L891" t="inlineStr"/>
       <c r="M891" t="n">
         <v>1</v>
       </c>
@@ -32081,22 +31619,14 @@
         <v>3.465650000000001</v>
       </c>
       <c r="H892" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I892" t="n">
         <v>0</v>
       </c>
-      <c r="J892" t="n">
-        <v>3.468</v>
-      </c>
-      <c r="K892" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L892" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J892" t="inlineStr"/>
+      <c r="K892" t="inlineStr"/>
+      <c r="L892" t="inlineStr"/>
       <c r="M892" t="n">
         <v>1</v>
       </c>
@@ -32124,22 +31654,14 @@
         <v>3.465683333333334</v>
       </c>
       <c r="H893" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I893" t="n">
         <v>0</v>
       </c>
-      <c r="J893" t="n">
-        <v>3.481</v>
-      </c>
-      <c r="K893" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L893" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J893" t="inlineStr"/>
+      <c r="K893" t="inlineStr"/>
+      <c r="L893" t="inlineStr"/>
       <c r="M893" t="n">
         <v>1</v>
       </c>
@@ -32167,22 +31689,14 @@
         <v>3.465933333333334</v>
       </c>
       <c r="H894" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I894" t="n">
         <v>0</v>
       </c>
-      <c r="J894" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="K894" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L894" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J894" t="inlineStr"/>
+      <c r="K894" t="inlineStr"/>
+      <c r="L894" t="inlineStr"/>
       <c r="M894" t="n">
         <v>1</v>
       </c>
@@ -32210,22 +31724,14 @@
         <v>3.466033333333334</v>
       </c>
       <c r="H895" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I895" t="n">
         <v>0</v>
       </c>
-      <c r="J895" t="n">
-        <v>3.481</v>
-      </c>
-      <c r="K895" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="L895" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J895" t="inlineStr"/>
+      <c r="K895" t="inlineStr"/>
+      <c r="L895" t="inlineStr"/>
       <c r="M895" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-11 BackTest CON.xlsx
+++ b/BackTest/2020-01-11 BackTest CON.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>-4128024.295165898</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-3594833.595565897</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-3450656.475565897</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-3450656.475565897</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-3354538.395565898</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-3286454.755565898</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-3321497.805565897</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-3491939.190565898</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-3491939.190565898</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-3545004.380565898</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-3472415.205565898</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-3406334.025565898</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-3352267.605565898</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-3397823.570565898</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-3453892.450565897</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-3583183.282565897</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-3529617.477565897</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-3497077.502565897</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-3560655.607565897</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-3623733.097565897</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-3558152.532565897</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-3506088.572565897</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-3555649.457565897</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-3597701.117565897</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-3521107.022565897</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-3590692.507565897</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-3639252.162565897</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-3606211.572565897</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-3694319.812565897</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-3693799.172565897</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-3773396.957565897</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-3632724.142565897</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-3671772.112565897</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-3600684.782565897</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-3657254.277565897</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-3616203.847565897</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-3575654.032565897</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-3647241.977565897</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-3689794.252565897</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-3654250.587565897</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-3690795.482565897</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-3734348.987565897</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-3804935.702565897</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-3862005.812565897</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-3825961.532565897</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-3901554.397565897</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-3831844.759565897</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-3754249.434565897</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-3738730.369565897</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-3689670.099565897</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-3736727.909565897</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-3736727.909565897</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-3736727.909565897</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-3795299.864565897</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-3833462.747565897</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-3781899.402565897</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-3719322.527565897</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-3719322.527565897</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-3719322.527565897</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-3719322.527565897</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-3765379.107565897</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-3732354.537565897</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-3763392.667565897</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-3640741.992565897</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-3640741.992565897</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-3680791.192565897</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-3680791.192565897</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-3616712.472565897</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-3582170.037565897</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-3619215.547565897</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-3576162.657565897</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-3648251.217565897</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-3648773.244565897</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-3600714.204565897</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-3600714.204565897</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-3600714.204565897</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-3600714.204565897</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-3669298.459565897</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-3666997.287465896</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-3724568.012465897</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-3679512.662465896</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-3637761.617465897</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-3690326.192465897</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-3628249.932465897</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-3594208.112465897</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-3662291.752465897</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-3627248.702465897</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-3627771.202565897</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-3488457.194685003</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-3414366.174685003</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-3489854.911685003</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-3443297.716685004</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-3504372.746685003</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-3428279.266685003</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-3396740.521685003</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-3538915.181685003</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-3474335.846685003</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-3529904.111685004</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-3589477.296685004</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-3536412.106685004</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-3463822.931685004</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-3529904.111685004</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-3475837.691685004</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-3429732.011685004</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-3485800.891685004</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-3536363.006685004</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-3458267.066685004</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-3404701.261685004</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-3372161.286685004</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-3498816.881685004</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-3433236.316685004</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-3381172.356685004</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-3430733.241685004</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-3549378.996685004</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-3479793.511685004</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-3430825.354685004</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-3463865.944685004</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-3513927.444685004</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-3425218.262685003</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-3389173.982685003</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-3313581.117685003</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-3383322.794685003</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-3383322.794685003</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-3338768.059685003</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-3284201.024685003</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-3393335.094685003</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-3346277.284685003</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-3489953.789685003</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-3464422.424685003</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-3541517.134685003</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-3593080.479685003</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-3518633.021685003</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-3581209.896685003</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-3516129.946685003</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-3589219.736685003</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-3648292.306685003</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-3752420.226685002</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-3720380.866685003</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-3806486.646685002</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-3738903.621685002</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-3687240.153685003</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-3727289.353685003</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-3660707.558685003</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-3630170.043685003</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-3596628.838685003</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-3631171.273685003</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-3594125.763685003</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-3637178.653685003</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-3565090.093685003</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-3613149.133685003</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-3691745.688685003</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-3771844.088685003</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-3732295.503685003</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-3800879.758685003</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-3740366.824685003</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-3695311.474685003</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-3807358.896285003</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-3754794.321285003</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-3816870.581285003</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-3782828.761285003</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-3885955.451285003</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-3841901.331285003</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-3841317.834285003</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-3901892.249285003</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-4050574.904285002</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-4004017.709285003</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-4065092.739285002</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-3816031.029785003</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-3847569.774785003</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-3772477.524785003</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-3904139.269785003</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-3959707.534785003</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-4019280.719785003</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-3966215.529785003</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-3893626.354785003</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-3959707.534785003</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-4013773.954785003</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-4065766.291285004</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-4121835.171285003</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-5362005.183585003</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-5440101.123585003</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-5386535.318585004</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-5353995.343585004</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-5417573.448585005</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-5354495.958585004</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-5288226.547585004</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-5340290.507585004</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-5290729.622585004</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-5332781.282585004</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-5256187.187585005</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-5325772.672585005</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-5276913.017585005</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-5276913.017585005</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-5309953.607585005</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-5259892.107585005</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-5368024.947585004</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-5288427.162585004</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-5415539.318585004</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-5415539.318585004</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-5333939.073585004</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-5262351.128585003</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-5304903.403585004</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-5269359.738585004</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-5269871.648585004</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-5233326.753585004</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-5158622.441985005</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-5227707.311985005</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-5150111.986985005</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-5158450.620485005</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-5291001.457485004</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-5162343.402485005</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-5005150.292485004</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-4947078.952485004</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-4979118.312485005</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-4947607.601485005</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-5070258.276485004</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-5121321.006485005</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-5161370.206485005</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-5094788.411485005</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-5125325.926485005</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-5158867.131485005</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-5211826.985485005</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-5131728.585485005</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-5059640.025485005</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-5107699.065485005</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-5187797.465485006</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-5147784.309485005</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-5415948.249285005</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-5414740.163885005</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-5312114.088885005</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-5353665.133885005</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-5406229.708885005</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-5344153.448885005</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-5378195.268885005</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-5306607.323885005</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-5156716.583485005</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-5156716.583485005</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-5164056.493585005</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-5185742.946085005</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-5206440.597785005</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-5245158.720585005</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-5245158.720585005</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-5245158.720585005</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-5245158.720585005</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-5192731.353085006</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-5113634.183085006</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-5113634.183085006</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-5113634.183085006</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-5113634.183085006</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-5113634.183085006</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-5125534.489985006</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-5197122.434985006</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-5154570.159985006</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-5154570.159985006</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-5154570.159985006</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-5154570.159985006</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-5225156.874985006</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-5225156.874985006</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-5225156.874985006</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-5149564.009985005</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-5218648.879985006</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-5218648.879985006</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-5218648.879985006</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-5218648.879985006</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-5218648.879985006</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-5218648.879985006</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-5218648.879985006</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-5217687.698985006</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-5281766.418985005</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-5281766.418985005</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-5281766.418985005</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-5281766.418985005</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-5281466.418985005</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-5355056.823985006</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-5355056.823985006</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-5355056.823985006</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-5355056.823985006</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-5355056.823985006</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-5308840.863485006</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-5366912.203485006</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-5366912.203485006</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-5366912.203485006</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-5366912.203485006</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-5366912.203485006</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-5366912.203485006</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-5344442.586685006</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-5441561.896685005</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-5441561.896685005</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-5441561.896685005</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-5441561.896685005</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-5441561.896685005</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-5441561.896685005</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-5441561.896685005</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-5441561.896685005</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-5401450.725685005</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-5527605.705685006</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-5482250.355685006</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-5526581.495285006</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-5526581.495285006</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-5526581.495285006</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-5526581.495285006</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-5014167.948585006</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-4342236.454385007</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-4298182.334385007</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-4298182.334385007</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>-4224091.314385007</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-4298682.949385007</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-4252125.754385007</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-4313200.784385007</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-4237107.304385006</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-4513047.517185006</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-4690121.243185006</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-4623038.833185006</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-4628600.556585005</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-4777700.936985006</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-4722132.671985006</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-4662559.486985006</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-4715624.676985007</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-4701751.157785007</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-4774340.332785007</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-4841302.594785007</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-4741680.209785007</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-5390271.368385007</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-5390271.368385007</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>-5312175.428385006</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>-5365741.233385006</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-5398281.208385006</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-5405672.153585006</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-5342094.048585005</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-5279016.558585005</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-5192610.778585005</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-5289753.557385005</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>-5243696.977385005</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>-5243696.977385005</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>-5306774.467385005</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-5251706.817385005</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-5251706.817385005</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>-5302769.547385005</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>-5196138.552385005</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>-5196138.552385005</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>-5196138.552385005</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>-5230680.987385005</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>-5231473.961385005</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-5194428.451385005</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-5237481.341385005</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-5237481.341385005</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-5237481.341385005</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-5078786.386385005</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-5118334.971385005</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-5049750.716385005</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-4963494.395985005</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-5021065.120985005</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-4976009.770985005</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-5017560.815985005</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-4964996.240985005</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-4964996.240985005</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-5068074.871985005</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-5068074.871985005</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-5024020.751985005</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-5084595.166985005</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-5010504.146985006</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>-5085095.781985005</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>-5038538.586985005</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-4341164.915785005</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>-4417258.395785006</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>-4310627.400785006</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-4310627.400785006</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>-4375483.850985005</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>-4319915.585985006</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>-4260342.400985006</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>-4207277.210985006</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>-4207277.210985006</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>-4273358.390985006</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>-4219291.970985006</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-4264847.935985005</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>-4320916.815985005</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>-4371863.406585005</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>-4450237.232585005</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>-4554839.219285006</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>-4587707.597285005</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>-4524129.492285005</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-4587206.982285005</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>-4521626.417285005</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>-5101172.414485005</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>-4257292.448985005</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>-4299344.108985005</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-4381330.874285005</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>-4306213.460585005</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-4369205.749385005</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>-4047051.940385005</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>-4632402.054285005</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>-4594155.314285005</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>-4524069.214285005</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>-4524069.214285005</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>-4459741.023179858</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>-4577886.163179858</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>-4649173.493179858</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>-4705742.988179858</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>-4664692.558179858</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>-4705242.373179859</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>-4776830.318179859</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>-4734278.043179858</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>-4769821.708179859</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>-4733276.813179859</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>-4776830.318179859</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>-4649173.493179859</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>-4685217.773179859</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18469,7 +18469,7 @@
         <v>-4829895.508179859</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
         <v>-4752300.183179859</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>-4796854.918179859</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>-4742287.883179859</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>-4633153.813179859</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>-4633353.813179859</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>-4680411.623179859</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>-4642865.498179859</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>-4701437.453179859</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>-4637358.733179859</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>-4675906.088179859</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>-4804564.143179859</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18865,7 +18865,7 @@
         <v>-4730773.738179859</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -18898,7 +18898,7 @@
         <v>-4793350.613179859</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -18931,7 +18931,7 @@
         <v>-4793350.613179859</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -18964,7 +18964,7 @@
         <v>-4728070.663179859</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
         <v>-4595908.303179858</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19030,7 +19030,7 @@
         <v>-4596108.303179858</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19063,7 +19063,7 @@
         <v>-4550051.723179858</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19096,7 +19096,7 @@
         <v>-4550051.723179858</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>-4550051.723179858</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>-4581089.853179858</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>-4446022.203179858</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>-4446022.203179858</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19261,7 +19261,7 @@
         <v>-4497084.933179858</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19294,7 +19294,7 @@
         <v>-4497084.933179858</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         <v>-4418084.933179858</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
         <v>-4448622.448179858</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19393,7 +19393,7 @@
         <v>-4448622.448179858</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19426,7 +19426,7 @@
         <v>-4483364.883179857</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19459,7 +19459,7 @@
         <v>-4520410.393179857</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
         <v>-4477357.503179858</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19525,7 +19525,7 @@
         <v>-4549446.063179857</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19558,7 +19558,7 @@
         <v>-4501387.023179857</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19591,7 +19591,7 @@
         <v>-4660081.978179857</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -19624,7 +19624,7 @@
         <v>-4699630.563179857</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
         <v>-4631046.308179857</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -19690,7 +19690,7 @@
         <v>-4573475.583179858</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -19723,7 +19723,7 @@
         <v>-4618530.933179857</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -19756,7 +19756,7 @@
         <v>-4576979.888179857</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -19789,7 +19789,7 @@
         <v>-4630049.083179858</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
         <v>-4630049.083179858</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -19855,7 +19855,7 @@
         <v>-4567972.823179858</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -19888,7 +19888,7 @@
         <v>-4533417.707279858</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -19921,7 +19921,7 @@
         <v>-4636544.397279859</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -19954,7 +19954,7 @@
         <v>-4592490.277279858</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
         <v>-4653064.692279859</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
         <v>-4578973.672279859</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20053,7 +20053,7 @@
         <v>-4504029.604279859</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20086,7 +20086,7 @@
         <v>-4550586.799279859</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20119,7 +20119,7 @@
         <v>-4489511.769279859</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
         <v>-4565605.249279859</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20185,7 +20185,7 @@
         <v>-4534066.504279859</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>-4534066.504279859</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
         <v>-4601148.91427986</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20284,7 +20284,7 @@
         <v>-4536569.57927986</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>-4592137.844279859</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20350,7 +20350,7 @@
         <v>-4532564.65927986</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>-4585629.84927986</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20416,7 +20416,7 @@
         <v>-4585629.84927986</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20449,7 +20449,7 @@
         <v>-4519548.66927986</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
         <v>-4573615.08927986</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20515,7 +20515,7 @@
         <v>-4528059.12427986</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20548,7 +20548,7 @@
         <v>-4584128.00427986</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20581,7 +20581,7 @@
         <v>-4634690.119279861</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20614,7 +20614,7 @@
         <v>-4634966.39147986</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
         <v>-4556870.45147986</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20680,7 +20680,7 @@
         <v>-4610436.256479859</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20713,7 +20713,7 @@
         <v>-4577896.28147986</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20746,7 +20746,7 @@
         <v>-4641474.38647986</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -20779,7 +20779,7 @@
         <v>-4578396.89647986</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
         <v>-4643977.46147986</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -20845,7 +20845,7 @@
         <v>-4643977.46147986</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -20878,7 +20878,7 @@
         <v>-4594416.576479861</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -20911,7 +20911,7 @@
         <v>-4636468.236479861</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -20944,7 +20944,7 @@
         <v>-4559874.141479861</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
         <v>-4629459.626479861</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21010,7 +21010,7 @@
         <v>-4629459.626479861</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21043,7 +21043,7 @@
         <v>-4662500.216479861</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21076,7 +21076,7 @@
         <v>-4672500.216479861</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21109,7 +21109,7 @@
         <v>-4622438.716479861</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
         <v>-4584391.976479861</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21175,7 +21175,7 @@
         <v>-4514305.876479861</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21208,7 +21208,7 @@
         <v>-4564305.876479861</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21241,7 +21241,7 @@
         <v>-4423132.446479862</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21274,7 +21274,7 @@
         <v>-4423132.446479862</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
         <v>-4502229.616479862</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21340,7 +21340,7 @@
         <v>-4502229.616479862</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21373,7 +21373,7 @@
         <v>-4502229.616479862</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>-4502229.616479862</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21439,7 +21439,7 @@
         <v>-4502229.616479862</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21472,7 +21472,7 @@
         <v>-4502229.616479862</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21505,7 +21505,7 @@
         <v>-4367923.982579862</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -21538,7 +21538,7 @@
         <v>-4368123.982579862</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -21571,7 +21571,7 @@
         <v>-4325571.707579861</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -21604,7 +21604,7 @@
         <v>-4361115.372579861</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -21637,7 +21637,7 @@
         <v>-4361115.372579861</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -21670,7 +21670,7 @@
         <v>-4361115.372579861</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -21703,7 +21703,7 @@
         <v>-4418631.125779862</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -21736,7 +21736,7 @@
         <v>-4454675.405779862</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -21769,7 +21769,7 @@
         <v>-4456121.321079862</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -21802,7 +21802,7 @@
         <v>-4456121.321079862</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -21835,7 +21835,7 @@
         <v>-4459705.813179863</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -21868,7 +21868,7 @@
         <v>-4535744.729779863</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -21901,7 +21901,7 @@
         <v>-4535744.729779863</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -21934,7 +21934,7 @@
         <v>-4458149.404779863</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -21967,7 +21967,7 @@
         <v>-4502704.139779863</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22000,7 +22000,7 @@
         <v>-4388063.304779863</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22033,7 +22033,7 @@
         <v>-4437123.574779863</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22066,7 +22066,7 @@
         <v>-4437123.574779863</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22099,7 +22099,7 @@
         <v>-4399577.449779863</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22132,7 +22132,7 @@
         <v>-4352019.024779863</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22165,7 +22165,7 @@
         <v>-4410590.979779863</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22198,7 +22198,7 @@
         <v>-4475206.358779863</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22231,7 +22231,7 @@
         <v>-4436659.003779862</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -22264,7 +22264,7 @@
         <v>-4436659.003779862</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -22297,7 +22297,7 @@
         <v>-4488222.348779862</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -22330,7 +22330,7 @@
         <v>-4414631.943779862</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -22363,7 +22363,7 @@
         <v>-4477208.818779862</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -22396,7 +22396,7 @@
         <v>-4477208.818779862</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -22429,7 +22429,7 @@
         <v>-4477208.818779862</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -22462,7 +22462,7 @@
         <v>-4431152.238779861</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -22495,7 +22495,7 @@
         <v>-4431152.238779861</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -22528,7 +22528,7 @@
         <v>-4494229.728779862</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -22561,7 +22561,7 @@
         <v>-4595172.484479861</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -22594,7 +22594,7 @@
         <v>-4527589.459479861</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -22627,7 +22627,7 @@
         <v>-4579129.304679861</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -22660,7 +22660,7 @@
         <v>-4491608.522079862</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -22693,7 +22693,7 @@
         <v>-4558190.317079862</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -22726,7 +22726,7 @@
         <v>-4594763.253779862</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -22759,7 +22759,7 @@
         <v>-4628304.458779862</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -22792,7 +22792,7 @@
         <v>-4628304.458779862</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -22825,7 +22825,7 @@
         <v>-4628304.458779862</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -22858,7 +22858,7 @@
         <v>-4585251.568779862</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -22891,7 +22891,7 @@
         <v>-4735729.223079862</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -22924,7 +22924,7 @@
         <v>-4663640.663079862</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -22957,7 +22957,7 @@
         <v>-4711699.703079863</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -22990,7 +22990,7 @@
         <v>-4712628.844079862</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -23023,7 +23023,7 @@
         <v>-4634032.289079863</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -23056,7 +23056,7 @@
         <v>-4634032.289079863</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -23089,7 +23089,7 @@
         <v>-4594483.704079863</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -23122,7 +23122,7 @@
         <v>-4663067.959079863</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -23155,7 +23155,7 @@
         <v>-4605497.234079863</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -23188,7 +23188,7 @@
         <v>-4650552.584079863</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -23221,7 +23221,7 @@
         <v>-4692103.629079862</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -23254,7 +23254,7 @@
         <v>-4639339.054079862</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -23287,7 +23287,7 @@
         <v>-4701415.314079862</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -23320,7 +23320,7 @@
         <v>-4667373.494079862</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -23353,7 +23353,7 @@
         <v>-4599289.854079862</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -23386,7 +23386,7 @@
         <v>-4564246.804079862</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -23419,7 +23419,7 @@
         <v>-4608700.924079862</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -23452,7 +23452,7 @@
         <v>-5958597.927279863</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -23485,7 +23485,7 @@
         <v>-5884306.907279863</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -23518,7 +23518,7 @@
         <v>-5884306.907279863</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -23551,7 +23551,7 @@
         <v>-5884651.330279863</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -23584,7 +23584,7 @@
         <v>-5838094.135279863</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -23617,7 +23617,7 @@
         <v>-5700925.625279863</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -23650,7 +23650,7 @@
         <v>-5633689.649779864</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -23683,7 +23683,7 @@
         <v>-5558597.399779864</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -23716,7 +23716,7 @@
         <v>-5690259.144779864</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -23881,7 +23881,7 @@
         <v>-5515544.509779864</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -29722,10 +29722,14 @@
         <v>-16570281.15808046</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
-      </c>
-      <c r="I889" t="inlineStr"/>
-      <c r="J889" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I889" t="n">
+        <v>3.459</v>
+      </c>
+      <c r="J889" t="n">
+        <v>3.459</v>
+      </c>
       <c r="K889" t="inlineStr"/>
       <c r="L889" t="n">
         <v>1</v>
@@ -29758,8 +29762,14 @@
         <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
-      <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+      <c r="J890" t="n">
+        <v>3.459</v>
+      </c>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -29788,11 +29798,19 @@
         <v>-16501691.57868046</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
-      </c>
-      <c r="I891" t="inlineStr"/>
-      <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I891" t="n">
+        <v>3.458</v>
+      </c>
+      <c r="J891" t="n">
+        <v>3.459</v>
+      </c>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -29821,11 +29839,19 @@
         <v>-16501691.57868046</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
-      </c>
-      <c r="I892" t="inlineStr"/>
-      <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I892" t="n">
+        <v>3.479</v>
+      </c>
+      <c r="J892" t="n">
+        <v>3.459</v>
+      </c>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -29854,11 +29880,19 @@
         <v>-16559262.30368046</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
-      </c>
-      <c r="I893" t="inlineStr"/>
-      <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I893" t="n">
+        <v>3.479</v>
+      </c>
+      <c r="J893" t="n">
+        <v>3.459</v>
+      </c>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -29890,8 +29924,14 @@
         <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
-      <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr"/>
+      <c r="J894" t="n">
+        <v>3.459</v>
+      </c>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -29923,8 +29963,14 @@
         <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
-      <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr"/>
+      <c r="J895" t="n">
+        <v>3.459</v>
+      </c>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -29956,8 +30002,14 @@
         <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
-      <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr"/>
+      <c r="J896" t="n">
+        <v>3.459</v>
+      </c>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -29989,8 +30041,14 @@
         <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
-      <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
+      <c r="J897" t="n">
+        <v>3.459</v>
+      </c>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -30019,11 +30077,19 @@
         <v>-16731223.76918046</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
-      </c>
-      <c r="I898" t="inlineStr"/>
-      <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I898" t="n">
+        <v>3.461</v>
+      </c>
+      <c r="J898" t="n">
+        <v>3.459</v>
+      </c>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -30052,11 +30118,19 @@
         <v>-16799307.40918046</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
-      </c>
-      <c r="I899" t="inlineStr"/>
-      <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I899" t="n">
+        <v>3.459</v>
+      </c>
+      <c r="J899" t="n">
+        <v>3.459</v>
+      </c>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -30085,11 +30159,19 @@
         <v>-17109302.07118046</v>
       </c>
       <c r="H900" t="n">
-        <v>0</v>
-      </c>
-      <c r="I900" t="inlineStr"/>
-      <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I900" t="n">
+        <v>3.457</v>
+      </c>
+      <c r="J900" t="n">
+        <v>3.459</v>
+      </c>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -30118,11 +30200,19 @@
         <v>-17773420.12018046</v>
       </c>
       <c r="H901" t="n">
-        <v>0</v>
-      </c>
-      <c r="I901" t="inlineStr"/>
-      <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I901" t="n">
+        <v>3.455</v>
+      </c>
+      <c r="J901" t="n">
+        <v>3.459</v>
+      </c>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -30154,8 +30244,14 @@
         <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
-      <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr"/>
+      <c r="J902" t="n">
+        <v>3.459</v>
+      </c>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -30187,8 +30283,14 @@
         <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
-      <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr"/>
+      <c r="J903" t="n">
+        <v>3.459</v>
+      </c>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -30220,8 +30322,14 @@
         <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
-      <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr"/>
+      <c r="J904" t="n">
+        <v>3.459</v>
+      </c>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -30253,8 +30361,14 @@
         <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
-      <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr"/>
+      <c r="J905" t="n">
+        <v>3.459</v>
+      </c>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -30286,8 +30400,14 @@
         <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
-      <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr"/>
+      <c r="J906" t="n">
+        <v>3.459</v>
+      </c>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -30319,8 +30439,14 @@
         <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
-      <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr"/>
+      <c r="J907" t="n">
+        <v>3.459</v>
+      </c>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -30349,11 +30475,19 @@
         <v>-18462406.37978046</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
-      </c>
-      <c r="I908" t="inlineStr"/>
-      <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I908" t="n">
+        <v>3.456</v>
+      </c>
+      <c r="J908" t="n">
+        <v>3.459</v>
+      </c>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -30382,11 +30516,19 @@
         <v>-18387314.12978046</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
-      </c>
-      <c r="I909" t="inlineStr"/>
-      <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I909" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="J909" t="n">
+        <v>3.459</v>
+      </c>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -30415,11 +30557,19 @@
         <v>-18262561.71978046</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
-      </c>
-      <c r="I910" t="inlineStr"/>
-      <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I910" t="n">
+        <v>3.466</v>
+      </c>
+      <c r="J910" t="n">
+        <v>3.459</v>
+      </c>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -30448,11 +30598,19 @@
         <v>-18327141.05478046</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
-      </c>
-      <c r="I911" t="inlineStr"/>
-      <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I911" t="n">
+        <v>3.475</v>
+      </c>
+      <c r="J911" t="n">
+        <v>3.459</v>
+      </c>
+      <c r="K911" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -30481,11 +30639,19 @@
         <v>-18327141.05478046</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
-      </c>
-      <c r="I912" t="inlineStr"/>
-      <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I912" t="n">
+        <v>3.467</v>
+      </c>
+      <c r="J912" t="n">
+        <v>3.459</v>
+      </c>
+      <c r="K912" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -30514,11 +30680,19 @@
         <v>-18327141.05478046</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
-      </c>
-      <c r="I913" t="inlineStr"/>
-      <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I913" t="n">
+        <v>3.467</v>
+      </c>
+      <c r="J913" t="n">
+        <v>3.459</v>
+      </c>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -30547,11 +30721,19 @@
         <v>-18380206.24478046</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
-      </c>
-      <c r="I914" t="inlineStr"/>
-      <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I914" t="n">
+        <v>3.467</v>
+      </c>
+      <c r="J914" t="n">
+        <v>3.459</v>
+      </c>
+      <c r="K914" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -30580,11 +30762,19 @@
         <v>-18307617.06978046</v>
       </c>
       <c r="H915" t="n">
-        <v>0</v>
-      </c>
-      <c r="I915" t="inlineStr"/>
-      <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I915" t="n">
+        <v>3.463</v>
+      </c>
+      <c r="J915" t="n">
+        <v>3.459</v>
+      </c>
+      <c r="K915" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -30613,11 +30803,19 @@
         <v>-18374186.84978046</v>
       </c>
       <c r="H916" t="n">
-        <v>0</v>
-      </c>
-      <c r="I916" t="inlineStr"/>
-      <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I916" t="n">
+        <v>3.469</v>
+      </c>
+      <c r="J916" t="n">
+        <v>3.459</v>
+      </c>
+      <c r="K916" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -30646,11 +30844,19 @@
         <v>-18320120.42978046</v>
       </c>
       <c r="H917" t="n">
-        <v>0</v>
-      </c>
-      <c r="I917" t="inlineStr"/>
-      <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I917" t="n">
+        <v>3.463</v>
+      </c>
+      <c r="J917" t="n">
+        <v>3.459</v>
+      </c>
+      <c r="K917" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -30682,8 +30888,14 @@
         <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
-      <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr"/>
+      <c r="J918" t="n">
+        <v>3.459</v>
+      </c>
+      <c r="K918" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -30715,8 +30927,14 @@
         <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
-      <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr"/>
+      <c r="J919" t="n">
+        <v>3.459</v>
+      </c>
+      <c r="K919" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -30748,8 +30966,14 @@
         <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
-      <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr"/>
+      <c r="J920" t="n">
+        <v>3.459</v>
+      </c>
+      <c r="K920" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -30781,8 +31005,14 @@
         <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
-      <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr"/>
+      <c r="J921" t="n">
+        <v>3.459</v>
+      </c>
+      <c r="K921" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -30814,8 +31044,14 @@
         <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
-      <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr"/>
+      <c r="J922" t="n">
+        <v>3.459</v>
+      </c>
+      <c r="K922" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -30844,11 +31080,19 @@
         <v>-18413735.43478046</v>
       </c>
       <c r="H923" t="n">
-        <v>0</v>
-      </c>
-      <c r="I923" t="inlineStr"/>
-      <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I923" t="n">
+        <v>3.468</v>
+      </c>
+      <c r="J923" t="n">
+        <v>3.459</v>
+      </c>
+      <c r="K923" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -30877,11 +31121,19 @@
         <v>-18350157.32978046</v>
       </c>
       <c r="H924" t="n">
-        <v>0</v>
-      </c>
-      <c r="I924" t="inlineStr"/>
-      <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I924" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="J924" t="n">
+        <v>3.459</v>
+      </c>
+      <c r="K924" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -30910,11 +31162,19 @@
         <v>-18287079.83978046</v>
       </c>
       <c r="H925" t="n">
-        <v>0</v>
-      </c>
-      <c r="I925" t="inlineStr"/>
-      <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I925" t="n">
+        <v>3.472</v>
+      </c>
+      <c r="J925" t="n">
+        <v>3.459</v>
+      </c>
+      <c r="K925" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -30946,8 +31206,14 @@
         <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
-      <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr"/>
+      <c r="J926" t="n">
+        <v>3.459</v>
+      </c>
+      <c r="K926" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -30979,8 +31245,14 @@
         <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
-      <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr"/>
+      <c r="J927" t="n">
+        <v>3.459</v>
+      </c>
+      <c r="K927" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -31012,8 +31284,14 @@
         <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
-      <c r="J928" t="inlineStr"/>
-      <c r="K928" t="inlineStr"/>
+      <c r="J928" t="n">
+        <v>3.459</v>
+      </c>
+      <c r="K928" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -31045,8 +31323,14 @@
         <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
-      <c r="J929" t="inlineStr"/>
-      <c r="K929" t="inlineStr"/>
+      <c r="J929" t="n">
+        <v>3.459</v>
+      </c>
+      <c r="K929" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -31078,8 +31362,14 @@
         <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
-      <c r="J930" t="inlineStr"/>
-      <c r="K930" t="inlineStr"/>
+      <c r="J930" t="n">
+        <v>3.459</v>
+      </c>
+      <c r="K930" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -31111,8 +31401,14 @@
         <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
-      <c r="J931" t="inlineStr"/>
-      <c r="K931" t="inlineStr"/>
+      <c r="J931" t="n">
+        <v>3.459</v>
+      </c>
+      <c r="K931" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -31141,11 +31437,19 @@
         <v>-18639210.40138045</v>
       </c>
       <c r="H932" t="n">
-        <v>0</v>
-      </c>
-      <c r="I932" t="inlineStr"/>
-      <c r="J932" t="inlineStr"/>
-      <c r="K932" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I932" t="n">
+        <v>3.455</v>
+      </c>
+      <c r="J932" t="n">
+        <v>3.459</v>
+      </c>
+      <c r="K932" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -31174,15 +31478,19 @@
         <v>-18555490.31828045</v>
       </c>
       <c r="H933" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I933" t="n">
         <v>3.461</v>
       </c>
       <c r="J933" t="n">
-        <v>3.461</v>
-      </c>
-      <c r="K933" t="inlineStr"/>
+        <v>3.459</v>
+      </c>
+      <c r="K933" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -31211,17 +31519,17 @@
         <v>-18593537.05828045</v>
       </c>
       <c r="H934" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I934" t="n">
         <v>3.484</v>
       </c>
       <c r="J934" t="n">
-        <v>3.461</v>
+        <v>3.459</v>
       </c>
       <c r="K934" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L934" t="n">
@@ -31252,17 +31560,17 @@
         <v>-18663623.15828045</v>
       </c>
       <c r="H935" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I935" t="n">
         <v>3.481</v>
       </c>
       <c r="J935" t="n">
-        <v>3.461</v>
+        <v>3.459</v>
       </c>
       <c r="K935" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L935" t="n">
@@ -31293,15 +31601,19 @@
         <v>-18691673.15828045</v>
       </c>
       <c r="H936" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I936" t="n">
         <v>3.467</v>
       </c>
       <c r="J936" t="n">
-        <v>3.467</v>
-      </c>
-      <c r="K936" t="inlineStr"/>
+        <v>3.459</v>
+      </c>
+      <c r="K936" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -31330,17 +31642,17 @@
         <v>-18692273.26128045</v>
       </c>
       <c r="H937" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I937" t="n">
         <v>3.462</v>
       </c>
       <c r="J937" t="n">
-        <v>3.467</v>
+        <v>3.459</v>
       </c>
       <c r="K937" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L937" t="n">
@@ -31371,17 +31683,17 @@
         <v>-18663460.40038045</v>
       </c>
       <c r="H938" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I938" t="n">
         <v>3.461</v>
       </c>
       <c r="J938" t="n">
-        <v>3.467</v>
+        <v>3.459</v>
       </c>
       <c r="K938" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L938" t="n">
@@ -31412,17 +31724,17 @@
         <v>-18743823.03018045</v>
       </c>
       <c r="H939" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I939" t="n">
         <v>3.462</v>
       </c>
       <c r="J939" t="n">
-        <v>3.467</v>
+        <v>3.459</v>
       </c>
       <c r="K939" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L939" t="n">
@@ -31453,13 +31765,13 @@
         <v>-18682247.38518045</v>
       </c>
       <c r="H940" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I940" t="n">
         <v>3.461</v>
       </c>
       <c r="J940" t="n">
-        <v>3.467</v>
+        <v>3.459</v>
       </c>
       <c r="K940" t="inlineStr">
         <is>
@@ -31494,13 +31806,13 @@
         <v>-18761344.55518046</v>
       </c>
       <c r="H941" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I941" t="n">
         <v>3.47</v>
       </c>
       <c r="J941" t="n">
-        <v>3.467</v>
+        <v>3.459</v>
       </c>
       <c r="K941" t="inlineStr">
         <is>
@@ -31535,13 +31847,13 @@
         <v>-18722296.58518046</v>
       </c>
       <c r="H942" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I942" t="n">
         <v>3.469</v>
       </c>
       <c r="J942" t="n">
-        <v>3.467</v>
+        <v>3.459</v>
       </c>
       <c r="K942" t="inlineStr">
         <is>
@@ -31576,13 +31888,13 @@
         <v>-18793383.91518046</v>
       </c>
       <c r="H943" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I943" t="n">
         <v>3.475</v>
       </c>
       <c r="J943" t="n">
-        <v>3.467</v>
+        <v>3.459</v>
       </c>
       <c r="K943" t="inlineStr">
         <is>
@@ -31617,13 +31929,13 @@
         <v>-18736478.00718046</v>
       </c>
       <c r="H944" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I944" t="n">
         <v>3.47</v>
       </c>
       <c r="J944" t="n">
-        <v>3.467</v>
+        <v>3.459</v>
       </c>
       <c r="K944" t="inlineStr">
         <is>
@@ -31658,13 +31970,13 @@
         <v>-18818078.25218046</v>
       </c>
       <c r="H945" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I945" t="n">
         <v>3.48</v>
       </c>
       <c r="J945" t="n">
-        <v>3.467</v>
+        <v>3.459</v>
       </c>
       <c r="K945" t="inlineStr">
         <is>
@@ -31699,13 +32011,13 @@
         <v>-18746490.30718046</v>
       </c>
       <c r="H946" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I946" t="n">
         <v>3.463</v>
       </c>
       <c r="J946" t="n">
-        <v>3.467</v>
+        <v>3.459</v>
       </c>
       <c r="K946" t="inlineStr">
         <is>
@@ -31740,13 +32052,13 @@
         <v>-18789042.58218046</v>
       </c>
       <c r="H947" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I947" t="n">
         <v>3.477</v>
       </c>
       <c r="J947" t="n">
-        <v>3.467</v>
+        <v>3.459</v>
       </c>
       <c r="K947" t="inlineStr">
         <is>
@@ -31781,13 +32093,13 @@
         <v>-18824586.24718045</v>
       </c>
       <c r="H948" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I948" t="n">
         <v>3.466</v>
       </c>
       <c r="J948" t="n">
-        <v>3.467</v>
+        <v>3.459</v>
       </c>
       <c r="K948" t="inlineStr">
         <is>
@@ -31822,13 +32134,13 @@
         <v>-18788041.35218045</v>
       </c>
       <c r="H949" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I949" t="n">
         <v>3.462</v>
       </c>
       <c r="J949" t="n">
-        <v>3.467</v>
+        <v>3.459</v>
       </c>
       <c r="K949" t="inlineStr">
         <is>
@@ -31863,13 +32175,13 @@
         <v>-18831594.85718045</v>
       </c>
       <c r="H950" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I950" t="n">
         <v>3.473</v>
       </c>
       <c r="J950" t="n">
-        <v>3.467</v>
+        <v>3.459</v>
       </c>
       <c r="K950" t="inlineStr">
         <is>
@@ -31908,7 +32220,7 @@
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="n">
-        <v>3.467</v>
+        <v>3.459</v>
       </c>
       <c r="K951" t="inlineStr">
         <is>
@@ -31947,7 +32259,7 @@
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="n">
-        <v>3.467</v>
+        <v>3.459</v>
       </c>
       <c r="K952" t="inlineStr">
         <is>
@@ -31982,11 +32294,13 @@
         <v>-18808610.62118046</v>
       </c>
       <c r="H953" t="n">
-        <v>0</v>
-      </c>
-      <c r="I953" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I953" t="n">
+        <v>3.481</v>
+      </c>
       <c r="J953" t="n">
-        <v>3.467</v>
+        <v>3.459</v>
       </c>
       <c r="K953" t="inlineStr">
         <is>
@@ -32025,7 +32339,7 @@
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="n">
-        <v>3.467</v>
+        <v>3.459</v>
       </c>
       <c r="K954" t="inlineStr">
         <is>
@@ -32064,7 +32378,7 @@
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="n">
-        <v>3.467</v>
+        <v>3.459</v>
       </c>
       <c r="K955" t="inlineStr">
         <is>
@@ -32103,7 +32417,7 @@
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="n">
-        <v>3.467</v>
+        <v>3.459</v>
       </c>
       <c r="K956" t="inlineStr">
         <is>
@@ -32138,11 +32452,13 @@
         <v>-18986328.94618046</v>
       </c>
       <c r="H957" t="n">
-        <v>0</v>
-      </c>
-      <c r="I957" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I957" t="n">
+        <v>3.472</v>
+      </c>
       <c r="J957" t="n">
-        <v>3.467</v>
+        <v>3.459</v>
       </c>
       <c r="K957" t="inlineStr">
         <is>
@@ -32177,13 +32493,13 @@
         <v>-18931761.91118046</v>
       </c>
       <c r="H958" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I958" t="n">
         <v>3.474</v>
       </c>
       <c r="J958" t="n">
-        <v>3.467</v>
+        <v>3.459</v>
       </c>
       <c r="K958" t="inlineStr">
         <is>
@@ -32218,13 +32534,13 @@
         <v>-19040895.98118046</v>
       </c>
       <c r="H959" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I959" t="n">
         <v>3.485</v>
       </c>
       <c r="J959" t="n">
-        <v>3.467</v>
+        <v>3.459</v>
       </c>
       <c r="K959" t="inlineStr">
         <is>
@@ -32259,13 +32575,13 @@
         <v>-18993838.17118046</v>
       </c>
       <c r="H960" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I960" t="n">
         <v>3.478</v>
       </c>
       <c r="J960" t="n">
-        <v>3.467</v>
+        <v>3.459</v>
       </c>
       <c r="K960" t="inlineStr">
         <is>
@@ -32300,13 +32616,11 @@
         <v>-19031384.29618046</v>
       </c>
       <c r="H961" t="n">
-        <v>2</v>
-      </c>
-      <c r="I961" t="n">
-        <v>3.508</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I961" t="inlineStr"/>
       <c r="J961" t="n">
-        <v>3.467</v>
+        <v>3.459</v>
       </c>
       <c r="K961" t="inlineStr">
         <is>
@@ -32345,7 +32659,7 @@
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="n">
-        <v>3.467</v>
+        <v>3.459</v>
       </c>
       <c r="K962" t="inlineStr">
         <is>
@@ -32384,7 +32698,7 @@
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="n">
-        <v>3.467</v>
+        <v>3.459</v>
       </c>
       <c r="K963" t="inlineStr">
         <is>
@@ -32423,7 +32737,7 @@
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="n">
-        <v>3.467</v>
+        <v>3.459</v>
       </c>
       <c r="K964" t="inlineStr">
         <is>
@@ -32436,6 +32750,6 @@
       <c r="M964" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest CON.xlsx
+++ b/BackTest/2020-01-11 BackTest CON.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>-4128024.295165898</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-3594833.595565897</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-3450656.475565897</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-3450656.475565897</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-3277443.685565897</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-3338018.100565897</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-3412109.120565897</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-3533257.950565897</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-3472182.920565898</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-3396089.440565898</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-3491939.190565898</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-3491939.190565898</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-3545004.380565898</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-3472415.205565898</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-3406334.025565898</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-3352267.605565898</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-3397823.570565898</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-3453892.450565897</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-3583183.282565897</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-3529617.477565897</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-3497077.502565897</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-3560655.607565897</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-3623733.097565897</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-3506088.572565897</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-3555649.457565897</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-3597701.117565897</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-3521107.022565897</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-3590692.507565897</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-3639252.162565897</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-3606211.572565897</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-3694319.812565897</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-3657254.277565897</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-3616203.847565897</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-3575654.032565897</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-3647241.977565897</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-3689794.252565897</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-3654250.587565897</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-3690795.482565897</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-3734348.987565897</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-3804935.702565897</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-3862005.812565897</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-3825961.532565897</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-3901554.397565897</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-3831844.759565897</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-3754249.434565897</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-3738730.369565897</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-3689670.099565897</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-3736727.909565897</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-3736727.909565897</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-3736727.909565897</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-3795299.864565897</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-3833462.747565897</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-3781899.402565897</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-3719322.527565897</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-3719322.527565897</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-3719322.527565897</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-3719322.527565897</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-3765379.107565897</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-3732354.537565897</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-3763392.667565897</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-3640741.992565897</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-3640741.992565897</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-3680791.192565897</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-3680791.192565897</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-3616712.472565897</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-3582170.037565897</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-3619215.547565897</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-3576162.657565897</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-3648251.217565897</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-3648773.244565897</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-3600714.204565897</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-3600714.204565897</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-3600714.204565897</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-3600714.204565897</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-3669298.459565897</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-3666997.287465896</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-3724568.012465897</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-3679512.662465896</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-3637761.617465897</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-3690326.192465897</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-3628249.932465897</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-3594208.112465897</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-3662291.752465897</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-3627248.702465897</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-3627771.202565897</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-3488457.194685003</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-3414366.174685003</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-3489854.911685003</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-3443297.716685004</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-3504372.746685003</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-3428279.266685003</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-3396740.521685003</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-3538915.181685003</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-3474335.846685003</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-3529904.111685004</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-3589477.296685004</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-3536412.106685004</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-3463822.931685004</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-3529904.111685004</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-3475837.691685004</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-3429732.011685004</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-3485800.891685004</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-3536363.006685004</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-3458267.066685004</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-3404701.261685004</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-3372161.286685004</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-3498816.881685004</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-3433236.316685004</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-3381172.356685004</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-3430733.241685004</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-3549378.996685004</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-3479793.511685004</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-3430825.354685004</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-3463865.944685004</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-3475880.704685003</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-3425218.262685003</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-3389173.982685003</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-3313581.117685003</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-3383322.794685003</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-3383322.794685003</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-3338768.059685003</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-3284201.024685003</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-3393335.094685003</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-3346277.284685003</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-3489953.789685003</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-3464422.424685003</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-3541517.134685003</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-3593080.479685003</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-3518633.021685003</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-3581209.896685003</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-3516129.946685003</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-3589219.736685003</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-3648292.306685003</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-3752420.226685002</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-3720380.866685003</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-3806486.646685002</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-3738903.621685002</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-3687240.153685003</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-3727289.353685003</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-3660707.558685003</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-3630170.043685003</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-3596628.838685003</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-3631171.273685003</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-3594125.763685003</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-3637178.653685003</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-3565090.093685003</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-3613149.133685003</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-3691745.688685003</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-3771844.088685003</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-3732295.503685003</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-3800879.758685003</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-3740366.824685003</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-3695311.474685003</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-3807358.896285003</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-3754794.321285003</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-3816870.581285003</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-3782828.761285003</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-3885955.451285003</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-3841901.331285003</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-3841317.834285003</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-3901892.249285003</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-4050574.904285002</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-4004017.709285003</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-4065092.739285002</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-3816031.029785003</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-3847569.774785003</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-3772477.524785003</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-3904139.269785003</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-3959707.534785003</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-4019280.719785003</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-3966215.529785003</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-3893626.354785003</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-3959707.534785003</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-4013773.954785003</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-4065766.291285004</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-4121835.171285003</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-5362005.183585003</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-5440101.123585003</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-5386535.318585004</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-5353995.343585004</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-5417573.448585005</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-5354495.958585004</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-5288226.547585004</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-5340290.507585004</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-5290729.622585004</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-5332781.282585004</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-5256187.187585005</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-5325772.672585005</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-5276913.017585005</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-5276913.017585005</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-5309953.607585005</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-5259892.107585005</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-5368024.947585004</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-5288427.162585004</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-5415539.318585004</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-5415539.318585004</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-5333939.073585004</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-5262351.128585003</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-5304903.403585004</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-5269359.738585004</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-5269871.648585004</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-5233326.753585004</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-5158622.441985005</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-5227707.311985005</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-5150111.986985005</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-5158450.620485005</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-5291001.457485004</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-5162343.402485005</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-5005150.292485004</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-4947078.952485004</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-4979118.312485005</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-4947607.601485005</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-5070258.276485004</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-5121321.006485005</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-5161370.206485005</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-5094788.411485005</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-5125325.926485005</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-5158867.131485005</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-5211826.985485005</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-5131728.585485005</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-5059640.025485005</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-5107699.065485005</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-5187797.465485006</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-5147784.309485005</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-5415948.249285005</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-5414740.163885005</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-5312114.088885005</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-5353665.133885005</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-5406229.708885005</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-5344153.448885005</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-5378195.268885005</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-5306607.323885005</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-5156716.583485005</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-5156716.583485005</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-5164056.493585005</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-5185742.946085005</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-5206440.597785005</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-5245158.720585005</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-5245158.720585005</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-5245158.720585005</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-5245158.720585005</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-5192731.353085006</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-5113634.183085006</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-5113634.183085006</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-5154570.159985006</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-5154570.159985006</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-5225156.874985006</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-5225156.874985006</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-5225156.874985006</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-5149564.009985005</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-5218648.879985006</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-5218648.879985006</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-5218648.879985006</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-5218648.879985006</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-5218648.879985006</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-5218648.879985006</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-5218648.879985006</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-5217687.698985006</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-5281766.418985005</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-5281766.418985005</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-5281766.418985005</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-5281766.418985005</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-5281466.418985005</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-5355056.823985006</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-5355056.823985006</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-5355056.823985006</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-5355056.823985006</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-5355056.823985006</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-5308840.863485006</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-5366912.203485006</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-5366912.203485006</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-5366912.203485006</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-5366912.203485006</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-5366912.203485006</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-5366912.203485006</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-5344442.586685006</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-5441561.896685005</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-5441561.896685005</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-5441561.896685005</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-5441561.896685005</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-5441561.896685005</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-5441561.896685005</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-5441561.896685005</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-5527605.705685006</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-5482250.355685006</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-5526581.495285006</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-5526581.495285006</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-5526581.495285006</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-5526581.495285006</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-4342236.454385007</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-4298182.334385007</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-4298182.334385007</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>-4224091.314385007</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-4298682.949385007</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-4252125.754385007</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-4313200.784385007</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-4237107.304385006</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-4513047.517185006</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-4690121.243185006</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-4623038.833185006</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-4628600.556585005</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-4841302.594785007</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-5390271.368385007</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-5344597.123585005</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-5292233.163585005</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-5341794.048585005</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-5383845.708585005</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-5307251.613585006</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-5237666.128585005</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-5189106.473585005</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-5222147.063585005</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-5272208.563585005</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-5272208.563585005</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-5272208.563585005</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>-5192610.778585005</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-5271707.948585005</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-5310755.918585004</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-5239668.588585004</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-5296238.083585004</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-5255187.653585005</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-5295737.468585005</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-5420961.165185005</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-5420961.165185005</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>-5385417.500185005</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>-5633619.882185006</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-5735456.700385005</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-5678386.590385005</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-5678386.590385005</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-5298347.799785005</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-5229262.929785005</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-5306858.254785005</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-5306858.254785005</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-5306858.254785005</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-5246784.454785005</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-5246215.755785005</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-5342333.835785005</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-5342333.835785005</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-5294775.410785005</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-5353347.365785006</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-5284275.621385005</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>-5245728.266385005</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>-5168633.556385005</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>-5168633.556385005</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>-5168104.112385005</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-5230680.987385005</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>-5230680.987385005</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-5230680.987385005</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-5237481.341385005</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-5237481.341385005</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>-5085095.781985005</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>-5038538.586985005</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-4341164.915785005</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>-4417258.395785006</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>-4310627.400785006</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-4310627.400785006</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>-4375483.850985005</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>-4319915.585985006</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>-4260342.400985006</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>-4207277.210985006</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>-4207277.210985006</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>-4273358.390985006</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>-4219291.970985006</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-4264847.935985005</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>-4320916.815985005</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>-4371863.406585005</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>-4450237.232585005</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>-4554839.219285006</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>-4587707.597285005</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>-4524129.492285005</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-4587206.982285005</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>-4521626.417285005</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>-5101172.414485005</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>-4257292.448985005</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>-4299344.108985005</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-4381330.874285005</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>-4306213.460585005</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-4369205.749385005</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>-4047051.940385005</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>-4632402.054285005</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>-4594155.314285005</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>-4524069.214285005</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>-4524069.214285005</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>-4459741.023179858</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>-4577886.163179858</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>-4649173.493179858</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>-4705742.988179858</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>-4664692.558179858</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>-4705242.373179859</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>-4776830.318179859</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>-4734278.043179858</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>-4769821.708179859</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>-4733276.813179859</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>-4776830.318179859</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>-4649173.493179859</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>-4685217.773179859</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18469,7 +18469,7 @@
         <v>-4829895.508179859</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
         <v>-4752300.183179859</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>-4796854.918179859</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>-4742287.883179859</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>-4633153.813179859</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>-4633353.813179859</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>-4680411.623179859</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>-4642865.498179859</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18931,7 +18931,7 @@
         <v>-4793350.613179859</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -18964,7 +18964,7 @@
         <v>-4728070.663179859</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
         <v>-4595908.303179858</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19030,7 +19030,7 @@
         <v>-4596108.303179858</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19063,7 +19063,7 @@
         <v>-4550051.723179858</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19096,7 +19096,7 @@
         <v>-4550051.723179858</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>-4550051.723179858</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>-4581089.853179858</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>-4446022.203179858</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>-4446022.203179858</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19261,7 +19261,7 @@
         <v>-4497084.933179858</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19294,7 +19294,7 @@
         <v>-4497084.933179858</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         <v>-4418084.933179858</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
         <v>-4448622.448179858</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19393,7 +19393,7 @@
         <v>-4448622.448179858</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19426,7 +19426,7 @@
         <v>-4483364.883179857</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19459,7 +19459,7 @@
         <v>-4520410.393179857</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
         <v>-4477357.503179858</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19525,7 +19525,7 @@
         <v>-4549446.063179857</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19558,7 +19558,7 @@
         <v>-4501387.023179857</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19591,7 +19591,7 @@
         <v>-4660081.978179857</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -19624,7 +19624,7 @@
         <v>-4699630.563179857</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
         <v>-4631046.308179857</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -19690,7 +19690,7 @@
         <v>-4573475.583179858</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -19723,7 +19723,7 @@
         <v>-4618530.933179857</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -19756,7 +19756,7 @@
         <v>-4576979.888179857</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -19789,7 +19789,7 @@
         <v>-4630049.083179858</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
         <v>-4630049.083179858</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -19855,7 +19855,7 @@
         <v>-4567972.823179858</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -19888,7 +19888,7 @@
         <v>-4533417.707279858</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -19921,7 +19921,7 @@
         <v>-4636544.397279859</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -19954,7 +19954,7 @@
         <v>-4592490.277279858</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
         <v>-4653064.692279859</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
         <v>-4578973.672279859</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20053,7 +20053,7 @@
         <v>-4504029.604279859</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20086,7 +20086,7 @@
         <v>-4550586.799279859</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20119,7 +20119,7 @@
         <v>-4489511.769279859</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
         <v>-4565605.249279859</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20185,7 +20185,7 @@
         <v>-4534066.504279859</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>-4534066.504279859</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
         <v>-4601148.91427986</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20284,7 +20284,7 @@
         <v>-4536569.57927986</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>-4592137.844279859</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20350,7 +20350,7 @@
         <v>-4532564.65927986</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>-4585629.84927986</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20416,7 +20416,7 @@
         <v>-4585629.84927986</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20449,7 +20449,7 @@
         <v>-4519548.66927986</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
         <v>-4573615.08927986</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20515,7 +20515,7 @@
         <v>-4528059.12427986</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20548,7 +20548,7 @@
         <v>-4584128.00427986</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20581,7 +20581,7 @@
         <v>-4634690.119279861</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20614,7 +20614,7 @@
         <v>-4634966.39147986</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
         <v>-4556870.45147986</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20680,7 +20680,7 @@
         <v>-4610436.256479859</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20713,7 +20713,7 @@
         <v>-4577896.28147986</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20746,7 +20746,7 @@
         <v>-4641474.38647986</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -20779,7 +20779,7 @@
         <v>-4578396.89647986</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
         <v>-4643977.46147986</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -20845,7 +20845,7 @@
         <v>-4643977.46147986</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -20878,7 +20878,7 @@
         <v>-4594416.576479861</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -20911,7 +20911,7 @@
         <v>-4636468.236479861</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -20944,7 +20944,7 @@
         <v>-4559874.141479861</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
         <v>-4629459.626479861</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21010,7 +21010,7 @@
         <v>-4629459.626479861</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21043,7 +21043,7 @@
         <v>-4662500.216479861</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21076,7 +21076,7 @@
         <v>-4672500.216479861</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21109,7 +21109,7 @@
         <v>-4622438.716479861</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
         <v>-4584391.976479861</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21175,7 +21175,7 @@
         <v>-4514305.876479861</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21208,7 +21208,7 @@
         <v>-4564305.876479861</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21241,7 +21241,7 @@
         <v>-4423132.446479862</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21274,7 +21274,7 @@
         <v>-4423132.446479862</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
         <v>-4502229.616479862</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21340,7 +21340,7 @@
         <v>-4502229.616479862</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21373,7 +21373,7 @@
         <v>-4502229.616479862</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>-4502229.616479862</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21439,7 +21439,7 @@
         <v>-4502229.616479862</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21472,7 +21472,7 @@
         <v>-4502229.616479862</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21505,7 +21505,7 @@
         <v>-4367923.982579862</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -21538,7 +21538,7 @@
         <v>-4368123.982579862</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -21571,7 +21571,7 @@
         <v>-4325571.707579861</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -21604,7 +21604,7 @@
         <v>-4361115.372579861</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -21637,7 +21637,7 @@
         <v>-4361115.372579861</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -21670,7 +21670,7 @@
         <v>-4361115.372579861</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -21703,7 +21703,7 @@
         <v>-4418631.125779862</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -21736,7 +21736,7 @@
         <v>-4454675.405779862</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -21769,7 +21769,7 @@
         <v>-4456121.321079862</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -21802,7 +21802,7 @@
         <v>-4456121.321079862</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -21835,7 +21835,7 @@
         <v>-4459705.813179863</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -21868,7 +21868,7 @@
         <v>-4535744.729779863</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -21901,7 +21901,7 @@
         <v>-4535744.729779863</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -21934,7 +21934,7 @@
         <v>-4458149.404779863</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -21967,7 +21967,7 @@
         <v>-4502704.139779863</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22000,7 +22000,7 @@
         <v>-4388063.304779863</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22033,7 +22033,7 @@
         <v>-4437123.574779863</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22066,7 +22066,7 @@
         <v>-4437123.574779863</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22099,7 +22099,7 @@
         <v>-4399577.449779863</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22132,7 +22132,7 @@
         <v>-4352019.024779863</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22165,7 +22165,7 @@
         <v>-4410590.979779863</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22198,7 +22198,7 @@
         <v>-4475206.358779863</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22231,7 +22231,7 @@
         <v>-4436659.003779862</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -22264,7 +22264,7 @@
         <v>-4436659.003779862</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -22297,7 +22297,7 @@
         <v>-4488222.348779862</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -22330,7 +22330,7 @@
         <v>-4414631.943779862</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -22363,7 +22363,7 @@
         <v>-4477208.818779862</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -22396,7 +22396,7 @@
         <v>-4477208.818779862</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -22429,7 +22429,7 @@
         <v>-4477208.818779862</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -22462,7 +22462,7 @@
         <v>-4431152.238779861</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -22495,7 +22495,7 @@
         <v>-4431152.238779861</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -22528,7 +22528,7 @@
         <v>-4494229.728779862</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -22561,7 +22561,7 @@
         <v>-4595172.484479861</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -22594,7 +22594,7 @@
         <v>-4527589.459479861</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -22627,7 +22627,7 @@
         <v>-4579129.304679861</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -22660,7 +22660,7 @@
         <v>-4491608.522079862</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -22693,7 +22693,7 @@
         <v>-4558190.317079862</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -22726,7 +22726,7 @@
         <v>-4594763.253779862</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -22759,7 +22759,7 @@
         <v>-4628304.458779862</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -22792,7 +22792,7 @@
         <v>-4628304.458779862</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -22825,7 +22825,7 @@
         <v>-4628304.458779862</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -22858,7 +22858,7 @@
         <v>-4585251.568779862</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -22891,7 +22891,7 @@
         <v>-4735729.223079862</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -22924,7 +22924,7 @@
         <v>-4663640.663079862</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -22957,7 +22957,7 @@
         <v>-4711699.703079863</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -22990,7 +22990,7 @@
         <v>-4712628.844079862</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -23023,7 +23023,7 @@
         <v>-4634032.289079863</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -23056,7 +23056,7 @@
         <v>-4634032.289079863</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -23089,7 +23089,7 @@
         <v>-4594483.704079863</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -23122,7 +23122,7 @@
         <v>-4663067.959079863</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -23155,7 +23155,7 @@
         <v>-4605497.234079863</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -23188,7 +23188,7 @@
         <v>-4650552.584079863</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -23221,7 +23221,7 @@
         <v>-4692103.629079862</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -23254,7 +23254,7 @@
         <v>-4639339.054079862</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -23287,7 +23287,7 @@
         <v>-4701415.314079862</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -23320,7 +23320,7 @@
         <v>-4667373.494079862</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -23353,7 +23353,7 @@
         <v>-4599289.854079862</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -23386,7 +23386,7 @@
         <v>-4564246.804079862</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -23419,7 +23419,7 @@
         <v>-4608700.924079862</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -23452,7 +23452,7 @@
         <v>-5958597.927279863</v>
       </c>
       <c r="H699" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -23485,7 +23485,7 @@
         <v>-5884306.907279863</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -23518,7 +23518,7 @@
         <v>-5884306.907279863</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -23551,7 +23551,7 @@
         <v>-5884651.330279863</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -23584,7 +23584,7 @@
         <v>-5838094.135279863</v>
       </c>
       <c r="H703" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -23683,7 +23683,7 @@
         <v>-5558597.399779864</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -23716,7 +23716,7 @@
         <v>-5690259.144779864</v>
       </c>
       <c r="H707" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -23848,7 +23848,7 @@
         <v>-5449463.329779864</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -23914,7 +23914,7 @@
         <v>-5514973.742779864</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -23947,7 +23947,7 @@
         <v>-5569040.162779864</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -24079,7 +24079,7 @@
         <v>-5649639.177779865</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -24112,7 +24112,7 @@
         <v>-5697179.152779864</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -24145,7 +24145,7 @@
         <v>-5847257.257779865</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -24178,7 +24178,7 @@
         <v>-5755349.767779864</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -24211,7 +24211,7 @@
         <v>-5689769.202779864</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -24244,7 +24244,7 @@
         <v>-5781540.633679864</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -24277,7 +24277,7 @@
         <v>-5731979.748679864</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -24310,7 +24310,7 @@
         <v>-5774031.408679864</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -24343,7 +24343,7 @@
         <v>-5697437.313679865</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -24376,7 +24376,7 @@
         <v>-5767022.798679865</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -24409,7 +24409,7 @@
         <v>-5595422.553679865</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -24442,7 +24442,7 @@
         <v>-5645484.053679865</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -24475,7 +24475,7 @@
         <v>-5683530.793679865</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -24508,7 +24508,7 @@
         <v>-5763616.893679865</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -24574,7 +24574,7 @@
         <v>-5684379.551679865</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -24607,7 +24607,7 @@
         <v>-5622803.906679865</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -24640,7 +24640,7 @@
         <v>-5701901.076679865</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -24673,7 +24673,7 @@
         <v>-5812036.376679865</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -24706,7 +24706,7 @@
         <v>-5868605.871679865</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -24739,7 +24739,7 @@
         <v>-5909656.301679865</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -24772,7 +24772,7 @@
         <v>-5869106.486679864</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -24805,7 +24805,7 @@
         <v>-5754966.266679864</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -24838,7 +24838,7 @@
         <v>-5719422.601679864</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -24871,7 +24871,7 @@
         <v>-5755967.496679864</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -24904,7 +24904,7 @@
         <v>-5755967.496679864</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -24937,7 +24937,7 @@
         <v>-5813430.088679864</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -24970,7 +24970,7 @@
         <v>-5849474.368679864</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -25003,7 +25003,7 @@
         <v>-5925067.233679865</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -25036,7 +25036,7 @@
         <v>-5925067.233679865</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -25069,7 +25069,7 @@
         <v>-5844166.178279865</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -25102,7 +25102,7 @@
         <v>-5844166.178279865</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -25135,7 +25135,7 @@
         <v>-5784092.378279865</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -25168,7 +25168,7 @@
         <v>-5735032.108279865</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -25201,7 +25201,7 @@
         <v>-5782089.918279865</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -25234,7 +25234,7 @@
         <v>-5819636.043279865</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -25267,7 +25267,7 @@
         <v>-5772077.618279865</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -25300,7 +25300,7 @@
         <v>-5830649.573279865</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -25333,7 +25333,7 @@
         <v>-5830649.573279865</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -25366,7 +25366,7 @@
         <v>-5830649.573279865</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -25399,7 +25399,7 @@
         <v>-5907744.283279865</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -25432,7 +25432,7 @@
         <v>-5907744.283279865</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -25465,7 +25465,7 @@
         <v>-5997278.388279865</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -25498,7 +25498,7 @@
         <v>-5997278.388279865</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -25531,7 +25531,7 @@
         <v>-6081085.059279866</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -25564,7 +25564,7 @@
         <v>-6081085.059279866</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -25597,7 +25597,7 @@
         <v>-6361125.970379866</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -25630,7 +25630,7 @@
         <v>-6296046.020379866</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -25663,7 +25663,7 @@
         <v>-6296046.020379866</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -25696,7 +25696,7 @@
         <v>-6355118.590379866</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -25729,7 +25729,7 @@
         <v>-6309062.010379866</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -25762,7 +25762,7 @@
         <v>-6250990.670379866</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -25795,7 +25795,7 @@
         <v>-6283030.030379866</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -25828,7 +25828,7 @@
         <v>-6251991.900379866</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -25861,7 +25861,7 @@
         <v>-6251991.900379866</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -25894,7 +25894,7 @@
         <v>-6319574.925379867</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -25927,7 +25927,7 @@
         <v>-6268512.195379866</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -25960,7 +25960,7 @@
         <v>-6227710.070379866</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -25993,7 +25993,7 @@
         <v>-6355145.389579866</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -26026,7 +26026,7 @@
         <v>-6388686.594579866</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -26059,7 +26059,7 @@
         <v>-6354144.159579867</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -26092,7 +26092,7 @@
         <v>-6391189.669579866</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -26125,7 +26125,7 @@
         <v>-6434242.559579866</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -26158,7 +26158,7 @@
         <v>-6344291.415579866</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -26191,7 +26191,7 @@
         <v>-6296232.375579866</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -26224,7 +26224,7 @@
         <v>-6296232.375579866</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -26257,7 +26257,7 @@
         <v>-6216133.975579865</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -26290,7 +26290,7 @@
         <v>-6255682.560579865</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -26323,7 +26323,7 @@
         <v>-6324266.815579865</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -26356,7 +26356,7 @@
         <v>-6266696.090579866</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -26389,7 +26389,7 @@
         <v>-6311751.440579865</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -26422,7 +26422,7 @@
         <v>-6353743.026579865</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -26455,7 +26455,7 @@
         <v>-6301178.451579865</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -26488,7 +26488,7 @@
         <v>-6239102.191579865</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -26521,7 +26521,7 @@
         <v>-6464102.439079865</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -26554,7 +26554,7 @@
         <v>-6361976.979079865</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -26587,7 +26587,7 @@
         <v>-6326933.929079865</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -26620,7 +26620,7 @@
         <v>-6370988.049079865</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -26653,7 +26653,7 @@
         <v>-6446562.464079865</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -26686,7 +26686,7 @@
         <v>-6372471.444079866</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -26719,7 +26719,7 @@
         <v>-6453327.601479866</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -26752,7 +26752,7 @@
         <v>-6499884.796479866</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -26785,7 +26785,7 @@
         <v>-6723055.697779866</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -26818,7 +26818,7 @@
         <v>-6661980.667779866</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -26851,7 +26851,7 @@
         <v>-6738074.147779866</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -26884,7 +26884,7 @@
         <v>-6706535.402779866</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -26917,7 +26917,7 @@
         <v>-6631443.152779866</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -26950,7 +26950,7 @@
         <v>-6564360.742779866</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -26983,7 +26983,7 @@
         <v>-6499781.407779866</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -27016,7 +27016,7 @@
         <v>-6555349.672779866</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -27049,7 +27049,7 @@
         <v>-6502284.482779865</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -27082,7 +27082,7 @@
         <v>-6574873.657779865</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -27115,7 +27115,7 @@
         <v>-6640954.837779865</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -27148,7 +27148,7 @@
         <v>-6586888.417779865</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -27181,7 +27181,7 @@
         <v>-6633349.494779864</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -27214,7 +27214,7 @@
         <v>-6631952.846735172</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -27247,7 +27247,7 @@
         <v>-6688021.726735172</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -27280,7 +27280,7 @@
         <v>-6637459.611735172</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -27313,7 +27313,7 @@
         <v>-6715555.551735172</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -27346,7 +27346,7 @@
         <v>-6769121.356735172</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -27379,7 +27379,7 @@
         <v>-6673003.276735172</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -27412,7 +27412,7 @@
         <v>-6607132.490645786</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -27445,7 +27445,7 @@
         <v>-7283506.521235172</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -27478,7 +27478,7 @@
         <v>-7584265.241935172</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -27511,7 +27511,7 @@
         <v>-7875163.534835172</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -27544,7 +27544,7 @@
         <v>-6771114.966835172</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -27577,7 +27577,7 @@
         <v>-6636202.126835172</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -27610,7 +27610,7 @@
         <v>-6797193.839135172</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -27643,7 +27643,7 @@
         <v>-6943935.84883146</v>
       </c>
       <c r="H826" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -27676,7 +27676,7 @@
         <v>-6895376.19383146</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -27709,7 +27709,7 @@
         <v>-7463647.019131459</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -27742,7 +27742,7 @@
         <v>-7413585.519131459</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -27775,7 +27775,7 @@
         <v>-7523270.08033146</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -27808,7 +27808,7 @@
         <v>-7842765.107331459</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -29722,14 +29722,10 @@
         <v>-16570281.15808046</v>
       </c>
       <c r="H889" t="n">
-        <v>1</v>
-      </c>
-      <c r="I889" t="n">
-        <v>3.459</v>
-      </c>
-      <c r="J889" t="n">
-        <v>3.459</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I889" t="inlineStr"/>
+      <c r="J889" t="inlineStr"/>
       <c r="K889" t="inlineStr"/>
       <c r="L889" t="n">
         <v>1</v>
@@ -29762,1981 +29758,1685 @@
         <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
-      <c r="J890" t="n">
+      <c r="J890" t="inlineStr"/>
+      <c r="K890" t="inlineStr"/>
+      <c r="L890" t="n">
+        <v>1</v>
+      </c>
+      <c r="M890" t="inlineStr"/>
+    </row>
+    <row r="891">
+      <c r="A891" s="1" t="n">
+        <v>889</v>
+      </c>
+      <c r="B891" t="n">
+        <v>3.467</v>
+      </c>
+      <c r="C891" t="n">
+        <v>3.479</v>
+      </c>
+      <c r="D891" t="n">
+        <v>3.479</v>
+      </c>
+      <c r="E891" t="n">
+        <v>3.467</v>
+      </c>
+      <c r="F891" t="n">
+        <v>148687.9794</v>
+      </c>
+      <c r="G891" t="n">
+        <v>-16501691.57868046</v>
+      </c>
+      <c r="H891" t="n">
+        <v>0</v>
+      </c>
+      <c r="I891" t="inlineStr"/>
+      <c r="J891" t="inlineStr"/>
+      <c r="K891" t="inlineStr"/>
+      <c r="L891" t="n">
+        <v>1</v>
+      </c>
+      <c r="M891" t="inlineStr"/>
+    </row>
+    <row r="892">
+      <c r="A892" s="1" t="n">
+        <v>890</v>
+      </c>
+      <c r="B892" t="n">
+        <v>3.474</v>
+      </c>
+      <c r="C892" t="n">
+        <v>3.479</v>
+      </c>
+      <c r="D892" t="n">
+        <v>3.479</v>
+      </c>
+      <c r="E892" t="n">
+        <v>3.474</v>
+      </c>
+      <c r="F892" t="n">
+        <v>98584.255</v>
+      </c>
+      <c r="G892" t="n">
+        <v>-16501691.57868046</v>
+      </c>
+      <c r="H892" t="n">
+        <v>0</v>
+      </c>
+      <c r="I892" t="inlineStr"/>
+      <c r="J892" t="inlineStr"/>
+      <c r="K892" t="inlineStr"/>
+      <c r="L892" t="n">
+        <v>1</v>
+      </c>
+      <c r="M892" t="inlineStr"/>
+    </row>
+    <row r="893">
+      <c r="A893" s="1" t="n">
+        <v>891</v>
+      </c>
+      <c r="B893" t="n">
+        <v>3.474</v>
+      </c>
+      <c r="C893" t="n">
+        <v>3.474</v>
+      </c>
+      <c r="D893" t="n">
+        <v>3.474</v>
+      </c>
+      <c r="E893" t="n">
+        <v>3.474</v>
+      </c>
+      <c r="F893" t="n">
+        <v>57570.725</v>
+      </c>
+      <c r="G893" t="n">
+        <v>-16559262.30368046</v>
+      </c>
+      <c r="H893" t="n">
+        <v>0</v>
+      </c>
+      <c r="I893" t="inlineStr"/>
+      <c r="J893" t="inlineStr"/>
+      <c r="K893" t="inlineStr"/>
+      <c r="L893" t="n">
+        <v>1</v>
+      </c>
+      <c r="M893" t="inlineStr"/>
+    </row>
+    <row r="894">
+      <c r="A894" s="1" t="n">
+        <v>892</v>
+      </c>
+      <c r="B894" t="n">
+        <v>3.475</v>
+      </c>
+      <c r="C894" t="n">
+        <v>3.475</v>
+      </c>
+      <c r="D894" t="n">
+        <v>3.475</v>
+      </c>
+      <c r="E894" t="n">
+        <v>3.475</v>
+      </c>
+      <c r="F894" t="n">
+        <v>45055.35</v>
+      </c>
+      <c r="G894" t="n">
+        <v>-16514206.95368046</v>
+      </c>
+      <c r="H894" t="n">
+        <v>0</v>
+      </c>
+      <c r="I894" t="inlineStr"/>
+      <c r="J894" t="inlineStr"/>
+      <c r="K894" t="inlineStr"/>
+      <c r="L894" t="n">
+        <v>1</v>
+      </c>
+      <c r="M894" t="inlineStr"/>
+    </row>
+    <row r="895">
+      <c r="A895" s="1" t="n">
+        <v>893</v>
+      </c>
+      <c r="B895" t="n">
+        <v>3.468</v>
+      </c>
+      <c r="C895" t="n">
+        <v>3.468</v>
+      </c>
+      <c r="D895" t="n">
+        <v>3.468</v>
+      </c>
+      <c r="E895" t="n">
+        <v>3.468</v>
+      </c>
+      <c r="F895" t="n">
+        <v>41551.045</v>
+      </c>
+      <c r="G895" t="n">
+        <v>-16555757.99868046</v>
+      </c>
+      <c r="H895" t="n">
+        <v>0</v>
+      </c>
+      <c r="I895" t="inlineStr"/>
+      <c r="J895" t="inlineStr"/>
+      <c r="K895" t="inlineStr"/>
+      <c r="L895" t="n">
+        <v>1</v>
+      </c>
+      <c r="M895" t="inlineStr"/>
+    </row>
+    <row r="896">
+      <c r="A896" s="1" t="n">
+        <v>894</v>
+      </c>
+      <c r="B896" t="n">
+        <v>3.465</v>
+      </c>
+      <c r="C896" t="n">
+        <v>3.462</v>
+      </c>
+      <c r="D896" t="n">
+        <v>3.465</v>
+      </c>
+      <c r="E896" t="n">
+        <v>3.462</v>
+      </c>
+      <c r="F896" t="n">
+        <v>69347.6905</v>
+      </c>
+      <c r="G896" t="n">
+        <v>-16625105.68918046</v>
+      </c>
+      <c r="H896" t="n">
+        <v>0</v>
+      </c>
+      <c r="I896" t="inlineStr"/>
+      <c r="J896" t="inlineStr"/>
+      <c r="K896" t="inlineStr"/>
+      <c r="L896" t="n">
+        <v>1</v>
+      </c>
+      <c r="M896" t="inlineStr"/>
+    </row>
+    <row r="897">
+      <c r="A897" s="1" t="n">
+        <v>895</v>
+      </c>
+      <c r="B897" t="n">
+        <v>3.467</v>
+      </c>
+      <c r="C897" t="n">
+        <v>3.461</v>
+      </c>
+      <c r="D897" t="n">
+        <v>3.467</v>
+      </c>
+      <c r="E897" t="n">
+        <v>3.461</v>
+      </c>
+      <c r="F897" t="n">
+        <v>62837.195</v>
+      </c>
+      <c r="G897" t="n">
+        <v>-16687942.88418046</v>
+      </c>
+      <c r="H897" t="n">
+        <v>0</v>
+      </c>
+      <c r="I897" t="inlineStr"/>
+      <c r="J897" t="inlineStr"/>
+      <c r="K897" t="inlineStr"/>
+      <c r="L897" t="n">
+        <v>1</v>
+      </c>
+      <c r="M897" t="inlineStr"/>
+    </row>
+    <row r="898">
+      <c r="A898" s="1" t="n">
+        <v>896</v>
+      </c>
+      <c r="B898" t="n">
+        <v>3.461</v>
+      </c>
+      <c r="C898" t="n">
         <v>3.459</v>
       </c>
-      <c r="K890" t="inlineStr">
+      <c r="D898" t="n">
+        <v>3.461</v>
+      </c>
+      <c r="E898" t="n">
+        <v>3.459</v>
+      </c>
+      <c r="F898" t="n">
+        <v>43280.885</v>
+      </c>
+      <c r="G898" t="n">
+        <v>-16731223.76918046</v>
+      </c>
+      <c r="H898" t="n">
+        <v>0</v>
+      </c>
+      <c r="I898" t="inlineStr"/>
+      <c r="J898" t="inlineStr"/>
+      <c r="K898" t="inlineStr"/>
+      <c r="L898" t="n">
+        <v>1</v>
+      </c>
+      <c r="M898" t="inlineStr"/>
+    </row>
+    <row r="899">
+      <c r="A899" s="1" t="n">
+        <v>897</v>
+      </c>
+      <c r="B899" t="n">
+        <v>3.457</v>
+      </c>
+      <c r="C899" t="n">
+        <v>3.457</v>
+      </c>
+      <c r="D899" t="n">
+        <v>3.457</v>
+      </c>
+      <c r="E899" t="n">
+        <v>3.457</v>
+      </c>
+      <c r="F899" t="n">
+        <v>68083.64</v>
+      </c>
+      <c r="G899" t="n">
+        <v>-16799307.40918046</v>
+      </c>
+      <c r="H899" t="n">
+        <v>0</v>
+      </c>
+      <c r="I899" t="inlineStr"/>
+      <c r="J899" t="inlineStr"/>
+      <c r="K899" t="inlineStr"/>
+      <c r="L899" t="n">
+        <v>1</v>
+      </c>
+      <c r="M899" t="inlineStr"/>
+    </row>
+    <row r="900">
+      <c r="A900" s="1" t="n">
+        <v>898</v>
+      </c>
+      <c r="B900" t="n">
+        <v>3.456</v>
+      </c>
+      <c r="C900" t="n">
+        <v>3.455</v>
+      </c>
+      <c r="D900" t="n">
+        <v>3.456</v>
+      </c>
+      <c r="E900" t="n">
+        <v>3.455</v>
+      </c>
+      <c r="F900" t="n">
+        <v>309994.662</v>
+      </c>
+      <c r="G900" t="n">
+        <v>-17109302.07118046</v>
+      </c>
+      <c r="H900" t="n">
+        <v>0</v>
+      </c>
+      <c r="I900" t="inlineStr"/>
+      <c r="J900" t="inlineStr"/>
+      <c r="K900" t="inlineStr"/>
+      <c r="L900" t="n">
+        <v>1</v>
+      </c>
+      <c r="M900" t="inlineStr"/>
+    </row>
+    <row r="901">
+      <c r="A901" s="1" t="n">
+        <v>899</v>
+      </c>
+      <c r="B901" t="n">
+        <v>3.454</v>
+      </c>
+      <c r="C901" t="n">
+        <v>3.451</v>
+      </c>
+      <c r="D901" t="n">
+        <v>3.454</v>
+      </c>
+      <c r="E901" t="n">
+        <v>3.451</v>
+      </c>
+      <c r="F901" t="n">
+        <v>664118.049</v>
+      </c>
+      <c r="G901" t="n">
+        <v>-17773420.12018046</v>
+      </c>
+      <c r="H901" t="n">
+        <v>0</v>
+      </c>
+      <c r="I901" t="inlineStr"/>
+      <c r="J901" t="inlineStr"/>
+      <c r="K901" t="inlineStr"/>
+      <c r="L901" t="n">
+        <v>1</v>
+      </c>
+      <c r="M901" t="inlineStr"/>
+    </row>
+    <row r="902">
+      <c r="A902" s="1" t="n">
+        <v>900</v>
+      </c>
+      <c r="B902" t="n">
+        <v>3.453</v>
+      </c>
+      <c r="C902" t="n">
+        <v>3.451</v>
+      </c>
+      <c r="D902" t="n">
+        <v>3.453</v>
+      </c>
+      <c r="E902" t="n">
+        <v>3.451</v>
+      </c>
+      <c r="F902" t="n">
+        <v>171273.3376</v>
+      </c>
+      <c r="G902" t="n">
+        <v>-17773420.12018046</v>
+      </c>
+      <c r="H902" t="n">
+        <v>0</v>
+      </c>
+      <c r="I902" t="inlineStr"/>
+      <c r="J902" t="inlineStr"/>
+      <c r="K902" t="inlineStr"/>
+      <c r="L902" t="n">
+        <v>1</v>
+      </c>
+      <c r="M902" t="inlineStr"/>
+    </row>
+    <row r="903">
+      <c r="A903" s="1" t="n">
+        <v>901</v>
+      </c>
+      <c r="B903" t="n">
+        <v>3.451</v>
+      </c>
+      <c r="C903" t="n">
+        <v>3.449</v>
+      </c>
+      <c r="D903" t="n">
+        <v>3.451</v>
+      </c>
+      <c r="E903" t="n">
+        <v>3.449</v>
+      </c>
+      <c r="F903" t="n">
+        <v>630043.1568999999</v>
+      </c>
+      <c r="G903" t="n">
+        <v>-18403463.27708046</v>
+      </c>
+      <c r="H903" t="n">
+        <v>0</v>
+      </c>
+      <c r="I903" t="inlineStr"/>
+      <c r="J903" t="inlineStr"/>
+      <c r="K903" t="inlineStr"/>
+      <c r="L903" t="n">
+        <v>1</v>
+      </c>
+      <c r="M903" t="inlineStr"/>
+    </row>
+    <row r="904">
+      <c r="A904" s="1" t="n">
+        <v>902</v>
+      </c>
+      <c r="B904" t="n">
+        <v>3.449</v>
+      </c>
+      <c r="C904" t="n">
+        <v>3.459</v>
+      </c>
+      <c r="D904" t="n">
+        <v>3.459</v>
+      </c>
+      <c r="E904" t="n">
+        <v>3.449</v>
+      </c>
+      <c r="F904" t="n">
+        <v>82293.33500000001</v>
+      </c>
+      <c r="G904" t="n">
+        <v>-18321169.94208046</v>
+      </c>
+      <c r="H904" t="n">
+        <v>0</v>
+      </c>
+      <c r="I904" t="inlineStr"/>
+      <c r="J904" t="inlineStr"/>
+      <c r="K904" t="inlineStr"/>
+      <c r="L904" t="n">
+        <v>1</v>
+      </c>
+      <c r="M904" t="inlineStr"/>
+    </row>
+    <row r="905">
+      <c r="A905" s="1" t="n">
+        <v>903</v>
+      </c>
+      <c r="B905" t="n">
+        <v>3.453</v>
+      </c>
+      <c r="C905" t="n">
+        <v>3.458</v>
+      </c>
+      <c r="D905" t="n">
+        <v>3.458</v>
+      </c>
+      <c r="E905" t="n">
+        <v>3.453</v>
+      </c>
+      <c r="F905" t="n">
+        <v>121148.83</v>
+      </c>
+      <c r="G905" t="n">
+        <v>-18442318.77208046</v>
+      </c>
+      <c r="H905" t="n">
+        <v>0</v>
+      </c>
+      <c r="I905" t="inlineStr"/>
+      <c r="J905" t="inlineStr"/>
+      <c r="K905" t="inlineStr"/>
+      <c r="L905" t="n">
+        <v>1</v>
+      </c>
+      <c r="M905" t="inlineStr"/>
+    </row>
+    <row r="906">
+      <c r="A906" s="1" t="n">
+        <v>904</v>
+      </c>
+      <c r="B906" t="n">
+        <v>3.457</v>
+      </c>
+      <c r="C906" t="n">
+        <v>3.449</v>
+      </c>
+      <c r="D906" t="n">
+        <v>3.457</v>
+      </c>
+      <c r="E906" t="n">
+        <v>3.449</v>
+      </c>
+      <c r="F906" t="n">
+        <v>127719.8327</v>
+      </c>
+      <c r="G906" t="n">
+        <v>-18570038.60478046</v>
+      </c>
+      <c r="H906" t="n">
+        <v>0</v>
+      </c>
+      <c r="I906" t="inlineStr"/>
+      <c r="J906" t="inlineStr"/>
+      <c r="K906" t="inlineStr"/>
+      <c r="L906" t="n">
+        <v>1</v>
+      </c>
+      <c r="M906" t="inlineStr"/>
+    </row>
+    <row r="907">
+      <c r="A907" s="1" t="n">
+        <v>905</v>
+      </c>
+      <c r="B907" t="n">
+        <v>3.456</v>
+      </c>
+      <c r="C907" t="n">
+        <v>3.456</v>
+      </c>
+      <c r="D907" t="n">
+        <v>3.456</v>
+      </c>
+      <c r="E907" t="n">
+        <v>3.456</v>
+      </c>
+      <c r="F907" t="n">
+        <v>76093.48</v>
+      </c>
+      <c r="G907" t="n">
+        <v>-18493945.12478046</v>
+      </c>
+      <c r="H907" t="n">
+        <v>0</v>
+      </c>
+      <c r="I907" t="inlineStr"/>
+      <c r="J907" t="inlineStr"/>
+      <c r="K907" t="inlineStr"/>
+      <c r="L907" t="n">
+        <v>1</v>
+      </c>
+      <c r="M907" t="inlineStr"/>
+    </row>
+    <row r="908">
+      <c r="A908" s="1" t="n">
+        <v>906</v>
+      </c>
+      <c r="B908" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="C908" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="D908" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="E908" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="F908" t="n">
+        <v>31538.745</v>
+      </c>
+      <c r="G908" t="n">
+        <v>-18462406.37978046</v>
+      </c>
+      <c r="H908" t="n">
+        <v>0</v>
+      </c>
+      <c r="I908" t="inlineStr"/>
+      <c r="J908" t="inlineStr"/>
+      <c r="K908" t="inlineStr"/>
+      <c r="L908" t="n">
+        <v>1</v>
+      </c>
+      <c r="M908" t="inlineStr"/>
+    </row>
+    <row r="909">
+      <c r="A909" s="1" t="n">
+        <v>907</v>
+      </c>
+      <c r="B909" t="n">
+        <v>3.466</v>
+      </c>
+      <c r="C909" t="n">
+        <v>3.466</v>
+      </c>
+      <c r="D909" t="n">
+        <v>3.466</v>
+      </c>
+      <c r="E909" t="n">
+        <v>3.466</v>
+      </c>
+      <c r="F909" t="n">
+        <v>75092.25</v>
+      </c>
+      <c r="G909" t="n">
+        <v>-18387314.12978046</v>
+      </c>
+      <c r="H909" t="n">
+        <v>0</v>
+      </c>
+      <c r="I909" t="inlineStr"/>
+      <c r="J909" t="inlineStr"/>
+      <c r="K909" t="inlineStr"/>
+      <c r="L909" t="n">
+        <v>1</v>
+      </c>
+      <c r="M909" t="inlineStr"/>
+    </row>
+    <row r="910">
+      <c r="A910" s="1" t="n">
+        <v>908</v>
+      </c>
+      <c r="B910" t="n">
+        <v>3.469</v>
+      </c>
+      <c r="C910" t="n">
+        <v>3.475</v>
+      </c>
+      <c r="D910" t="n">
+        <v>3.475</v>
+      </c>
+      <c r="E910" t="n">
+        <v>3.469</v>
+      </c>
+      <c r="F910" t="n">
+        <v>124752.41</v>
+      </c>
+      <c r="G910" t="n">
+        <v>-18262561.71978046</v>
+      </c>
+      <c r="H910" t="n">
+        <v>0</v>
+      </c>
+      <c r="I910" t="inlineStr"/>
+      <c r="J910" t="inlineStr"/>
+      <c r="K910" t="inlineStr"/>
+      <c r="L910" t="n">
+        <v>1</v>
+      </c>
+      <c r="M910" t="inlineStr"/>
+    </row>
+    <row r="911">
+      <c r="A911" s="1" t="n">
+        <v>909</v>
+      </c>
+      <c r="B911" t="n">
+        <v>3.467</v>
+      </c>
+      <c r="C911" t="n">
+        <v>3.467</v>
+      </c>
+      <c r="D911" t="n">
+        <v>3.467</v>
+      </c>
+      <c r="E911" t="n">
+        <v>3.467</v>
+      </c>
+      <c r="F911" t="n">
+        <v>64579.335</v>
+      </c>
+      <c r="G911" t="n">
+        <v>-18327141.05478046</v>
+      </c>
+      <c r="H911" t="n">
+        <v>0</v>
+      </c>
+      <c r="I911" t="inlineStr"/>
+      <c r="J911" t="inlineStr"/>
+      <c r="K911" t="inlineStr"/>
+      <c r="L911" t="n">
+        <v>1</v>
+      </c>
+      <c r="M911" t="inlineStr"/>
+    </row>
+    <row r="912">
+      <c r="A912" s="1" t="n">
+        <v>910</v>
+      </c>
+      <c r="B912" t="n">
+        <v>3.467</v>
+      </c>
+      <c r="C912" t="n">
+        <v>3.467</v>
+      </c>
+      <c r="D912" t="n">
+        <v>3.467</v>
+      </c>
+      <c r="E912" t="n">
+        <v>3.467</v>
+      </c>
+      <c r="F912" t="n">
+        <v>55568.265</v>
+      </c>
+      <c r="G912" t="n">
+        <v>-18327141.05478046</v>
+      </c>
+      <c r="H912" t="n">
+        <v>0</v>
+      </c>
+      <c r="I912" t="inlineStr"/>
+      <c r="J912" t="inlineStr"/>
+      <c r="K912" t="inlineStr"/>
+      <c r="L912" t="n">
+        <v>1</v>
+      </c>
+      <c r="M912" t="inlineStr"/>
+    </row>
+    <row r="913">
+      <c r="A913" s="1" t="n">
+        <v>911</v>
+      </c>
+      <c r="B913" t="n">
+        <v>3.467</v>
+      </c>
+      <c r="C913" t="n">
+        <v>3.467</v>
+      </c>
+      <c r="D913" t="n">
+        <v>3.467</v>
+      </c>
+      <c r="E913" t="n">
+        <v>3.467</v>
+      </c>
+      <c r="F913" t="n">
+        <v>59573.185</v>
+      </c>
+      <c r="G913" t="n">
+        <v>-18327141.05478046</v>
+      </c>
+      <c r="H913" t="n">
+        <v>0</v>
+      </c>
+      <c r="I913" t="inlineStr"/>
+      <c r="J913" t="inlineStr"/>
+      <c r="K913" t="inlineStr"/>
+      <c r="L913" t="n">
+        <v>1</v>
+      </c>
+      <c r="M913" t="inlineStr"/>
+    </row>
+    <row r="914">
+      <c r="A914" s="1" t="n">
+        <v>912</v>
+      </c>
+      <c r="B914" t="n">
+        <v>3.463</v>
+      </c>
+      <c r="C914" t="n">
+        <v>3.463</v>
+      </c>
+      <c r="D914" t="n">
+        <v>3.463</v>
+      </c>
+      <c r="E914" t="n">
+        <v>3.463</v>
+      </c>
+      <c r="F914" t="n">
+        <v>53065.19</v>
+      </c>
+      <c r="G914" t="n">
+        <v>-18380206.24478046</v>
+      </c>
+      <c r="H914" t="n">
+        <v>0</v>
+      </c>
+      <c r="I914" t="inlineStr"/>
+      <c r="J914" t="inlineStr"/>
+      <c r="K914" t="inlineStr"/>
+      <c r="L914" t="n">
+        <v>1</v>
+      </c>
+      <c r="M914" t="inlineStr"/>
+    </row>
+    <row r="915">
+      <c r="A915" s="1" t="n">
+        <v>913</v>
+      </c>
+      <c r="B915" t="n">
+        <v>3.469</v>
+      </c>
+      <c r="C915" t="n">
+        <v>3.469</v>
+      </c>
+      <c r="D915" t="n">
+        <v>3.469</v>
+      </c>
+      <c r="E915" t="n">
+        <v>3.469</v>
+      </c>
+      <c r="F915" t="n">
+        <v>72589.175</v>
+      </c>
+      <c r="G915" t="n">
+        <v>-18307617.06978046</v>
+      </c>
+      <c r="H915" t="n">
+        <v>0</v>
+      </c>
+      <c r="I915" t="inlineStr"/>
+      <c r="J915" t="inlineStr"/>
+      <c r="K915" t="inlineStr"/>
+      <c r="L915" t="n">
+        <v>1</v>
+      </c>
+      <c r="M915" t="inlineStr"/>
+    </row>
+    <row r="916">
+      <c r="A916" s="1" t="n">
+        <v>914</v>
+      </c>
+      <c r="B916" t="n">
+        <v>3.479</v>
+      </c>
+      <c r="C916" t="n">
+        <v>3.463</v>
+      </c>
+      <c r="D916" t="n">
+        <v>3.479</v>
+      </c>
+      <c r="E916" t="n">
+        <v>3.463</v>
+      </c>
+      <c r="F916" t="n">
+        <v>66569.78</v>
+      </c>
+      <c r="G916" t="n">
+        <v>-18374186.84978046</v>
+      </c>
+      <c r="H916" t="n">
+        <v>0</v>
+      </c>
+      <c r="I916" t="inlineStr"/>
+      <c r="J916" t="inlineStr"/>
+      <c r="K916" t="inlineStr"/>
+      <c r="L916" t="n">
+        <v>1</v>
+      </c>
+      <c r="M916" t="inlineStr"/>
+    </row>
+    <row r="917">
+      <c r="A917" s="1" t="n">
+        <v>915</v>
+      </c>
+      <c r="B917" t="n">
+        <v>3.475</v>
+      </c>
+      <c r="C917" t="n">
+        <v>3.475</v>
+      </c>
+      <c r="D917" t="n">
+        <v>3.475</v>
+      </c>
+      <c r="E917" t="n">
+        <v>3.475</v>
+      </c>
+      <c r="F917" t="n">
+        <v>54066.42</v>
+      </c>
+      <c r="G917" t="n">
+        <v>-18320120.42978046</v>
+      </c>
+      <c r="H917" t="n">
+        <v>0</v>
+      </c>
+      <c r="I917" t="inlineStr"/>
+      <c r="J917" t="inlineStr"/>
+      <c r="K917" t="inlineStr"/>
+      <c r="L917" t="n">
+        <v>1</v>
+      </c>
+      <c r="M917" t="inlineStr"/>
+    </row>
+    <row r="918">
+      <c r="A918" s="1" t="n">
+        <v>916</v>
+      </c>
+      <c r="B918" t="n">
+        <v>3.473</v>
+      </c>
+      <c r="C918" t="n">
+        <v>3.473</v>
+      </c>
+      <c r="D918" t="n">
+        <v>3.473</v>
+      </c>
+      <c r="E918" t="n">
+        <v>3.473</v>
+      </c>
+      <c r="F918" t="n">
+        <v>45555.965</v>
+      </c>
+      <c r="G918" t="n">
+        <v>-18365676.39478046</v>
+      </c>
+      <c r="H918" t="n">
+        <v>0</v>
+      </c>
+      <c r="I918" t="inlineStr"/>
+      <c r="J918" t="inlineStr"/>
+      <c r="K918" t="inlineStr"/>
+      <c r="L918" t="n">
+        <v>1</v>
+      </c>
+      <c r="M918" t="inlineStr"/>
+    </row>
+    <row r="919">
+      <c r="A919" s="1" t="n">
+        <v>917</v>
+      </c>
+      <c r="B919" t="n">
+        <v>3.468</v>
+      </c>
+      <c r="C919" t="n">
+        <v>3.468</v>
+      </c>
+      <c r="D919" t="n">
+        <v>3.468</v>
+      </c>
+      <c r="E919" t="n">
+        <v>3.468</v>
+      </c>
+      <c r="F919" t="n">
+        <v>56068.88</v>
+      </c>
+      <c r="G919" t="n">
+        <v>-18421745.27478046</v>
+      </c>
+      <c r="H919" t="n">
+        <v>0</v>
+      </c>
+      <c r="I919" t="inlineStr"/>
+      <c r="J919" t="inlineStr"/>
+      <c r="K919" t="inlineStr"/>
+      <c r="L919" t="n">
+        <v>1</v>
+      </c>
+      <c r="M919" t="inlineStr"/>
+    </row>
+    <row r="920">
+      <c r="A920" s="1" t="n">
+        <v>918</v>
+      </c>
+      <c r="B920" t="n">
+        <v>3.468</v>
+      </c>
+      <c r="C920" t="n">
+        <v>3.468</v>
+      </c>
+      <c r="D920" t="n">
+        <v>3.468</v>
+      </c>
+      <c r="E920" t="n">
+        <v>3.468</v>
+      </c>
+      <c r="F920" t="n">
+        <v>50562.115</v>
+      </c>
+      <c r="G920" t="n">
+        <v>-18421745.27478046</v>
+      </c>
+      <c r="H920" t="n">
+        <v>0</v>
+      </c>
+      <c r="I920" t="inlineStr"/>
+      <c r="J920" t="inlineStr"/>
+      <c r="K920" t="inlineStr"/>
+      <c r="L920" t="n">
+        <v>1</v>
+      </c>
+      <c r="M920" t="inlineStr"/>
+    </row>
+    <row r="921">
+      <c r="A921" s="1" t="n">
+        <v>919</v>
+      </c>
+      <c r="B921" t="n">
+        <v>3.464</v>
+      </c>
+      <c r="C921" t="n">
+        <v>3.464</v>
+      </c>
+      <c r="D921" t="n">
+        <v>3.464</v>
+      </c>
+      <c r="E921" t="n">
+        <v>3.464</v>
+      </c>
+      <c r="F921" t="n">
+        <v>78095.94</v>
+      </c>
+      <c r="G921" t="n">
+        <v>-18499841.21478046</v>
+      </c>
+      <c r="H921" t="n">
+        <v>0</v>
+      </c>
+      <c r="I921" t="inlineStr"/>
+      <c r="J921" t="inlineStr"/>
+      <c r="K921" t="inlineStr"/>
+      <c r="L921" t="n">
+        <v>1</v>
+      </c>
+      <c r="M921" t="inlineStr"/>
+    </row>
+    <row r="922">
+      <c r="A922" s="1" t="n">
+        <v>920</v>
+      </c>
+      <c r="B922" t="n">
+        <v>3.468</v>
+      </c>
+      <c r="C922" t="n">
+        <v>3.468</v>
+      </c>
+      <c r="D922" t="n">
+        <v>3.468</v>
+      </c>
+      <c r="E922" t="n">
+        <v>3.468</v>
+      </c>
+      <c r="F922" t="n">
+        <v>53565.805</v>
+      </c>
+      <c r="G922" t="n">
+        <v>-18446275.40978046</v>
+      </c>
+      <c r="H922" t="n">
+        <v>0</v>
+      </c>
+      <c r="I922" t="inlineStr"/>
+      <c r="J922" t="inlineStr"/>
+      <c r="K922" t="inlineStr"/>
+      <c r="L922" t="n">
+        <v>1</v>
+      </c>
+      <c r="M922" t="inlineStr"/>
+    </row>
+    <row r="923">
+      <c r="A923" s="1" t="n">
+        <v>921</v>
+      </c>
+      <c r="B923" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="C923" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="D923" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="E923" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="F923" t="n">
+        <v>32539.975</v>
+      </c>
+      <c r="G923" t="n">
+        <v>-18413735.43478046</v>
+      </c>
+      <c r="H923" t="n">
+        <v>0</v>
+      </c>
+      <c r="I923" t="inlineStr"/>
+      <c r="J923" t="inlineStr"/>
+      <c r="K923" t="inlineStr"/>
+      <c r="L923" t="n">
+        <v>1</v>
+      </c>
+      <c r="M923" t="inlineStr"/>
+    </row>
+    <row r="924">
+      <c r="A924" s="1" t="n">
+        <v>922</v>
+      </c>
+      <c r="B924" t="n">
+        <v>3.472</v>
+      </c>
+      <c r="C924" t="n">
+        <v>3.472</v>
+      </c>
+      <c r="D924" t="n">
+        <v>3.472</v>
+      </c>
+      <c r="E924" t="n">
+        <v>3.472</v>
+      </c>
+      <c r="F924" t="n">
+        <v>63578.105</v>
+      </c>
+      <c r="G924" t="n">
+        <v>-18350157.32978046</v>
+      </c>
+      <c r="H924" t="n">
+        <v>0</v>
+      </c>
+      <c r="I924" t="inlineStr"/>
+      <c r="J924" t="inlineStr"/>
+      <c r="K924" t="inlineStr"/>
+      <c r="L924" t="n">
+        <v>1</v>
+      </c>
+      <c r="M924" t="inlineStr"/>
+    </row>
+    <row r="925">
+      <c r="A925" s="1" t="n">
+        <v>923</v>
+      </c>
+      <c r="B925" t="n">
+        <v>3.476</v>
+      </c>
+      <c r="C925" t="n">
+        <v>3.476</v>
+      </c>
+      <c r="D925" t="n">
+        <v>3.476</v>
+      </c>
+      <c r="E925" t="n">
+        <v>3.476</v>
+      </c>
+      <c r="F925" t="n">
+        <v>63077.49</v>
+      </c>
+      <c r="G925" t="n">
+        <v>-18287079.83978046</v>
+      </c>
+      <c r="H925" t="n">
+        <v>0</v>
+      </c>
+      <c r="I925" t="inlineStr"/>
+      <c r="J925" t="inlineStr"/>
+      <c r="K925" t="inlineStr"/>
+      <c r="L925" t="n">
+        <v>1</v>
+      </c>
+      <c r="M925" t="inlineStr"/>
+    </row>
+    <row r="926">
+      <c r="A926" s="1" t="n">
+        <v>924</v>
+      </c>
+      <c r="B926" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="C926" t="n">
+        <v>3.471</v>
+      </c>
+      <c r="D926" t="n">
+        <v>3.471</v>
+      </c>
+      <c r="E926" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="F926" t="n">
+        <v>66493.68700000001</v>
+      </c>
+      <c r="G926" t="n">
+        <v>-18353573.52678046</v>
+      </c>
+      <c r="H926" t="n">
+        <v>0</v>
+      </c>
+      <c r="I926" t="inlineStr"/>
+      <c r="J926" t="inlineStr"/>
+      <c r="K926" t="inlineStr"/>
+      <c r="L926" t="n">
+        <v>1</v>
+      </c>
+      <c r="M926" t="inlineStr"/>
+    </row>
+    <row r="927">
+      <c r="A927" s="1" t="n">
+        <v>925</v>
+      </c>
+      <c r="B927" t="n">
+        <v>3.466</v>
+      </c>
+      <c r="C927" t="n">
+        <v>3.467</v>
+      </c>
+      <c r="D927" t="n">
+        <v>3.467</v>
+      </c>
+      <c r="E927" t="n">
+        <v>3.466</v>
+      </c>
+      <c r="F927" t="n">
+        <v>101624.845</v>
+      </c>
+      <c r="G927" t="n">
+        <v>-18455198.37178046</v>
+      </c>
+      <c r="H927" t="n">
+        <v>0</v>
+      </c>
+      <c r="I927" t="inlineStr"/>
+      <c r="J927" t="inlineStr"/>
+      <c r="K927" t="inlineStr"/>
+      <c r="L927" t="n">
+        <v>1</v>
+      </c>
+      <c r="M927" t="inlineStr"/>
+    </row>
+    <row r="928">
+      <c r="A928" s="1" t="n">
+        <v>926</v>
+      </c>
+      <c r="B928" t="n">
+        <v>3.461</v>
+      </c>
+      <c r="C928" t="n">
+        <v>3.461</v>
+      </c>
+      <c r="D928" t="n">
+        <v>3.461</v>
+      </c>
+      <c r="E928" t="n">
+        <v>3.461</v>
+      </c>
+      <c r="F928" t="n">
+        <v>27920</v>
+      </c>
+      <c r="G928" t="n">
+        <v>-18483118.37178046</v>
+      </c>
+      <c r="H928" t="n">
+        <v>0</v>
+      </c>
+      <c r="I928" t="inlineStr"/>
+      <c r="J928" t="inlineStr"/>
+      <c r="K928" t="inlineStr"/>
+      <c r="L928" t="n">
+        <v>1</v>
+      </c>
+      <c r="M928" t="inlineStr"/>
+    </row>
+    <row r="929">
+      <c r="A929" s="1" t="n">
+        <v>927</v>
+      </c>
+      <c r="B929" t="n">
+        <v>3.455</v>
+      </c>
+      <c r="C929" t="n">
+        <v>3.455</v>
+      </c>
+      <c r="D929" t="n">
+        <v>3.455</v>
+      </c>
+      <c r="E929" t="n">
+        <v>3.455</v>
+      </c>
+      <c r="F929" t="n">
+        <v>76594.095</v>
+      </c>
+      <c r="G929" t="n">
+        <v>-18559712.46678045</v>
+      </c>
+      <c r="H929" t="n">
+        <v>0</v>
+      </c>
+      <c r="I929" t="inlineStr"/>
+      <c r="J929" t="inlineStr"/>
+      <c r="K929" t="inlineStr"/>
+      <c r="L929" t="n">
+        <v>1</v>
+      </c>
+      <c r="M929" t="inlineStr"/>
+    </row>
+    <row r="930">
+      <c r="A930" s="1" t="n">
+        <v>928</v>
+      </c>
+      <c r="B930" t="n">
+        <v>3.456</v>
+      </c>
+      <c r="C930" t="n">
+        <v>3.453</v>
+      </c>
+      <c r="D930" t="n">
+        <v>3.456</v>
+      </c>
+      <c r="E930" t="n">
+        <v>3.453</v>
+      </c>
+      <c r="F930" t="n">
+        <v>118145.14</v>
+      </c>
+      <c r="G930" t="n">
+        <v>-18677857.60678045</v>
+      </c>
+      <c r="H930" t="n">
+        <v>0</v>
+      </c>
+      <c r="I930" t="inlineStr"/>
+      <c r="J930" t="inlineStr"/>
+      <c r="K930" t="inlineStr"/>
+      <c r="L930" t="n">
+        <v>1</v>
+      </c>
+      <c r="M930" t="inlineStr"/>
+    </row>
+    <row r="931">
+      <c r="A931" s="1" t="n">
+        <v>929</v>
+      </c>
+      <c r="B931" t="n">
+        <v>3.455</v>
+      </c>
+      <c r="C931" t="n">
+        <v>3.455</v>
+      </c>
+      <c r="D931" t="n">
+        <v>3.455</v>
+      </c>
+      <c r="E931" t="n">
+        <v>3.455</v>
+      </c>
+      <c r="F931" t="n">
+        <v>33040.59</v>
+      </c>
+      <c r="G931" t="n">
+        <v>-18644817.01678045</v>
+      </c>
+      <c r="H931" t="n">
+        <v>1</v>
+      </c>
+      <c r="I931" t="n">
+        <v>3.453</v>
+      </c>
+      <c r="J931" t="n">
+        <v>3.453</v>
+      </c>
+      <c r="K931" t="inlineStr"/>
+      <c r="L931" t="n">
+        <v>1</v>
+      </c>
+      <c r="M931" t="inlineStr"/>
+    </row>
+    <row r="932">
+      <c r="A932" s="1" t="n">
+        <v>930</v>
+      </c>
+      <c r="B932" t="n">
+        <v>3.461</v>
+      </c>
+      <c r="C932" t="n">
+        <v>3.461</v>
+      </c>
+      <c r="D932" t="n">
+        <v>3.461</v>
+      </c>
+      <c r="E932" t="n">
+        <v>3.461</v>
+      </c>
+      <c r="F932" t="n">
+        <v>5606.6154</v>
+      </c>
+      <c r="G932" t="n">
+        <v>-18639210.40138045</v>
+      </c>
+      <c r="H932" t="n">
+        <v>1</v>
+      </c>
+      <c r="I932" t="n">
+        <v>3.455</v>
+      </c>
+      <c r="J932" t="n">
+        <v>3.453</v>
+      </c>
+      <c r="K932" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L890" t="n">
-        <v>1</v>
-      </c>
-      <c r="M890" t="inlineStr"/>
-    </row>
-    <row r="891">
-      <c r="A891" s="1" t="n">
-        <v>889</v>
-      </c>
-      <c r="B891" t="n">
-        <v>3.467</v>
-      </c>
-      <c r="C891" t="n">
-        <v>3.479</v>
-      </c>
-      <c r="D891" t="n">
-        <v>3.479</v>
-      </c>
-      <c r="E891" t="n">
-        <v>3.467</v>
-      </c>
-      <c r="F891" t="n">
-        <v>148687.9794</v>
-      </c>
-      <c r="G891" t="n">
-        <v>-16501691.57868046</v>
-      </c>
-      <c r="H891" t="n">
-        <v>1</v>
-      </c>
-      <c r="I891" t="n">
-        <v>3.458</v>
-      </c>
-      <c r="J891" t="n">
-        <v>3.459</v>
-      </c>
-      <c r="K891" t="inlineStr">
+      <c r="L932" t="n">
+        <v>1</v>
+      </c>
+      <c r="M932" t="inlineStr"/>
+    </row>
+    <row r="933">
+      <c r="A933" s="1" t="n">
+        <v>931</v>
+      </c>
+      <c r="B933" t="n">
+        <v>3.477</v>
+      </c>
+      <c r="C933" t="n">
+        <v>3.484</v>
+      </c>
+      <c r="D933" t="n">
+        <v>3.484</v>
+      </c>
+      <c r="E933" t="n">
+        <v>3.477</v>
+      </c>
+      <c r="F933" t="n">
+        <v>83720.0831</v>
+      </c>
+      <c r="G933" t="n">
+        <v>-18555490.31828045</v>
+      </c>
+      <c r="H933" t="n">
+        <v>1</v>
+      </c>
+      <c r="I933" t="n">
+        <v>3.461</v>
+      </c>
+      <c r="J933" t="n">
+        <v>3.453</v>
+      </c>
+      <c r="K933" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L891" t="n">
-        <v>1</v>
-      </c>
-      <c r="M891" t="inlineStr"/>
-    </row>
-    <row r="892">
-      <c r="A892" s="1" t="n">
-        <v>890</v>
-      </c>
-      <c r="B892" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="C892" t="n">
-        <v>3.479</v>
-      </c>
-      <c r="D892" t="n">
-        <v>3.479</v>
-      </c>
-      <c r="E892" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="F892" t="n">
-        <v>98584.255</v>
-      </c>
-      <c r="G892" t="n">
-        <v>-16501691.57868046</v>
-      </c>
-      <c r="H892" t="n">
-        <v>1</v>
-      </c>
-      <c r="I892" t="n">
-        <v>3.479</v>
-      </c>
-      <c r="J892" t="n">
-        <v>3.459</v>
-      </c>
-      <c r="K892" t="inlineStr">
+      <c r="L933" t="n">
+        <v>1</v>
+      </c>
+      <c r="M933" t="inlineStr"/>
+    </row>
+    <row r="934">
+      <c r="A934" s="1" t="n">
+        <v>932</v>
+      </c>
+      <c r="B934" t="n">
+        <v>3.481</v>
+      </c>
+      <c r="C934" t="n">
+        <v>3.481</v>
+      </c>
+      <c r="D934" t="n">
+        <v>3.481</v>
+      </c>
+      <c r="E934" t="n">
+        <v>3.481</v>
+      </c>
+      <c r="F934" t="n">
+        <v>38046.74</v>
+      </c>
+      <c r="G934" t="n">
+        <v>-18593537.05828045</v>
+      </c>
+      <c r="H934" t="n">
+        <v>1</v>
+      </c>
+      <c r="I934" t="n">
+        <v>3.484</v>
+      </c>
+      <c r="J934" t="n">
+        <v>3.484</v>
+      </c>
+      <c r="K934" t="inlineStr"/>
+      <c r="L934" t="n">
+        <v>1</v>
+      </c>
+      <c r="M934" t="inlineStr"/>
+    </row>
+    <row r="935">
+      <c r="A935" s="1" t="n">
+        <v>933</v>
+      </c>
+      <c r="B935" t="n">
+        <v>3.467</v>
+      </c>
+      <c r="C935" t="n">
+        <v>3.467</v>
+      </c>
+      <c r="D935" t="n">
+        <v>3.467</v>
+      </c>
+      <c r="E935" t="n">
+        <v>3.467</v>
+      </c>
+      <c r="F935" t="n">
+        <v>70086.10000000001</v>
+      </c>
+      <c r="G935" t="n">
+        <v>-18663623.15828045</v>
+      </c>
+      <c r="H935" t="n">
+        <v>1</v>
+      </c>
+      <c r="I935" t="n">
+        <v>3.481</v>
+      </c>
+      <c r="J935" t="n">
+        <v>3.484</v>
+      </c>
+      <c r="K935" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L935" t="n">
+        <v>1</v>
+      </c>
+      <c r="M935" t="inlineStr"/>
+    </row>
+    <row r="936">
+      <c r="A936" s="1" t="n">
+        <v>934</v>
+      </c>
+      <c r="B936" t="n">
+        <v>3.462</v>
+      </c>
+      <c r="C936" t="n">
+        <v>3.462</v>
+      </c>
+      <c r="D936" t="n">
+        <v>3.462</v>
+      </c>
+      <c r="E936" t="n">
+        <v>3.462</v>
+      </c>
+      <c r="F936" t="n">
+        <v>28050</v>
+      </c>
+      <c r="G936" t="n">
+        <v>-18691673.15828045</v>
+      </c>
+      <c r="H936" t="n">
+        <v>1</v>
+      </c>
+      <c r="I936" t="n">
+        <v>3.467</v>
+      </c>
+      <c r="J936" t="n">
+        <v>3.484</v>
+      </c>
+      <c r="K936" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L936" t="n">
+        <v>1</v>
+      </c>
+      <c r="M936" t="inlineStr"/>
+    </row>
+    <row r="937">
+      <c r="A937" s="1" t="n">
+        <v>935</v>
+      </c>
+      <c r="B937" t="n">
+        <v>3.461</v>
+      </c>
+      <c r="C937" t="n">
+        <v>3.461</v>
+      </c>
+      <c r="D937" t="n">
+        <v>3.461</v>
+      </c>
+      <c r="E937" t="n">
+        <v>3.461</v>
+      </c>
+      <c r="F937" t="n">
+        <v>600.103</v>
+      </c>
+      <c r="G937" t="n">
+        <v>-18692273.26128045</v>
+      </c>
+      <c r="H937" t="n">
+        <v>1</v>
+      </c>
+      <c r="I937" t="n">
+        <v>3.462</v>
+      </c>
+      <c r="J937" t="n">
+        <v>3.462</v>
+      </c>
+      <c r="K937" t="inlineStr"/>
+      <c r="L937" t="n">
+        <v>1</v>
+      </c>
+      <c r="M937" t="inlineStr"/>
+    </row>
+    <row r="938">
+      <c r="A938" s="1" t="n">
+        <v>936</v>
+      </c>
+      <c r="B938" t="n">
+        <v>3.462</v>
+      </c>
+      <c r="C938" t="n">
+        <v>3.462</v>
+      </c>
+      <c r="D938" t="n">
+        <v>3.462</v>
+      </c>
+      <c r="E938" t="n">
+        <v>3.462</v>
+      </c>
+      <c r="F938" t="n">
+        <v>28812.8609</v>
+      </c>
+      <c r="G938" t="n">
+        <v>-18663460.40038045</v>
+      </c>
+      <c r="H938" t="n">
+        <v>1</v>
+      </c>
+      <c r="I938" t="n">
+        <v>3.461</v>
+      </c>
+      <c r="J938" t="n">
+        <v>3.462</v>
+      </c>
+      <c r="K938" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L938" t="n">
+        <v>1</v>
+      </c>
+      <c r="M938" t="inlineStr"/>
+    </row>
+    <row r="939">
+      <c r="A939" s="1" t="n">
+        <v>937</v>
+      </c>
+      <c r="B939" t="n">
+        <v>3.472</v>
+      </c>
+      <c r="C939" t="n">
+        <v>3.461</v>
+      </c>
+      <c r="D939" t="n">
+        <v>3.472</v>
+      </c>
+      <c r="E939" t="n">
+        <v>3.461</v>
+      </c>
+      <c r="F939" t="n">
+        <v>80362.6298</v>
+      </c>
+      <c r="G939" t="n">
+        <v>-18743823.03018045</v>
+      </c>
+      <c r="H939" t="n">
+        <v>1</v>
+      </c>
+      <c r="I939" t="n">
+        <v>3.462</v>
+      </c>
+      <c r="J939" t="n">
+        <v>3.462</v>
+      </c>
+      <c r="K939" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L892" t="n">
-        <v>1</v>
-      </c>
-      <c r="M892" t="inlineStr"/>
-    </row>
-    <row r="893">
-      <c r="A893" s="1" t="n">
-        <v>891</v>
-      </c>
-      <c r="B893" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="C893" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="D893" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="E893" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="F893" t="n">
-        <v>57570.725</v>
-      </c>
-      <c r="G893" t="n">
-        <v>-16559262.30368046</v>
-      </c>
-      <c r="H893" t="n">
-        <v>1</v>
-      </c>
-      <c r="I893" t="n">
-        <v>3.479</v>
-      </c>
-      <c r="J893" t="n">
-        <v>3.459</v>
-      </c>
-      <c r="K893" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L893" t="n">
-        <v>1</v>
-      </c>
-      <c r="M893" t="inlineStr"/>
-    </row>
-    <row r="894">
-      <c r="A894" s="1" t="n">
-        <v>892</v>
-      </c>
-      <c r="B894" t="n">
-        <v>3.475</v>
-      </c>
-      <c r="C894" t="n">
-        <v>3.475</v>
-      </c>
-      <c r="D894" t="n">
-        <v>3.475</v>
-      </c>
-      <c r="E894" t="n">
-        <v>3.475</v>
-      </c>
-      <c r="F894" t="n">
-        <v>45055.35</v>
-      </c>
-      <c r="G894" t="n">
-        <v>-16514206.95368046</v>
-      </c>
-      <c r="H894" t="n">
-        <v>0</v>
-      </c>
-      <c r="I894" t="inlineStr"/>
-      <c r="J894" t="n">
-        <v>3.459</v>
-      </c>
-      <c r="K894" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L894" t="n">
-        <v>1</v>
-      </c>
-      <c r="M894" t="inlineStr"/>
-    </row>
-    <row r="895">
-      <c r="A895" s="1" t="n">
-        <v>893</v>
-      </c>
-      <c r="B895" t="n">
-        <v>3.468</v>
-      </c>
-      <c r="C895" t="n">
-        <v>3.468</v>
-      </c>
-      <c r="D895" t="n">
-        <v>3.468</v>
-      </c>
-      <c r="E895" t="n">
-        <v>3.468</v>
-      </c>
-      <c r="F895" t="n">
-        <v>41551.045</v>
-      </c>
-      <c r="G895" t="n">
-        <v>-16555757.99868046</v>
-      </c>
-      <c r="H895" t="n">
-        <v>0</v>
-      </c>
-      <c r="I895" t="inlineStr"/>
-      <c r="J895" t="n">
-        <v>3.459</v>
-      </c>
-      <c r="K895" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L895" t="n">
-        <v>1</v>
-      </c>
-      <c r="M895" t="inlineStr"/>
-    </row>
-    <row r="896">
-      <c r="A896" s="1" t="n">
-        <v>894</v>
-      </c>
-      <c r="B896" t="n">
-        <v>3.465</v>
-      </c>
-      <c r="C896" t="n">
-        <v>3.462</v>
-      </c>
-      <c r="D896" t="n">
-        <v>3.465</v>
-      </c>
-      <c r="E896" t="n">
-        <v>3.462</v>
-      </c>
-      <c r="F896" t="n">
-        <v>69347.6905</v>
-      </c>
-      <c r="G896" t="n">
-        <v>-16625105.68918046</v>
-      </c>
-      <c r="H896" t="n">
-        <v>0</v>
-      </c>
-      <c r="I896" t="inlineStr"/>
-      <c r="J896" t="n">
-        <v>3.459</v>
-      </c>
-      <c r="K896" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L896" t="n">
-        <v>1</v>
-      </c>
-      <c r="M896" t="inlineStr"/>
-    </row>
-    <row r="897">
-      <c r="A897" s="1" t="n">
-        <v>895</v>
-      </c>
-      <c r="B897" t="n">
-        <v>3.467</v>
-      </c>
-      <c r="C897" t="n">
-        <v>3.461</v>
-      </c>
-      <c r="D897" t="n">
-        <v>3.467</v>
-      </c>
-      <c r="E897" t="n">
-        <v>3.461</v>
-      </c>
-      <c r="F897" t="n">
-        <v>62837.195</v>
-      </c>
-      <c r="G897" t="n">
-        <v>-16687942.88418046</v>
-      </c>
-      <c r="H897" t="n">
-        <v>0</v>
-      </c>
-      <c r="I897" t="inlineStr"/>
-      <c r="J897" t="n">
-        <v>3.459</v>
-      </c>
-      <c r="K897" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L897" t="n">
-        <v>1</v>
-      </c>
-      <c r="M897" t="inlineStr"/>
-    </row>
-    <row r="898">
-      <c r="A898" s="1" t="n">
-        <v>896</v>
-      </c>
-      <c r="B898" t="n">
-        <v>3.461</v>
-      </c>
-      <c r="C898" t="n">
-        <v>3.459</v>
-      </c>
-      <c r="D898" t="n">
-        <v>3.461</v>
-      </c>
-      <c r="E898" t="n">
-        <v>3.459</v>
-      </c>
-      <c r="F898" t="n">
-        <v>43280.885</v>
-      </c>
-      <c r="G898" t="n">
-        <v>-16731223.76918046</v>
-      </c>
-      <c r="H898" t="n">
-        <v>1</v>
-      </c>
-      <c r="I898" t="n">
-        <v>3.461</v>
-      </c>
-      <c r="J898" t="n">
-        <v>3.459</v>
-      </c>
-      <c r="K898" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L898" t="n">
-        <v>1</v>
-      </c>
-      <c r="M898" t="inlineStr"/>
-    </row>
-    <row r="899">
-      <c r="A899" s="1" t="n">
-        <v>897</v>
-      </c>
-      <c r="B899" t="n">
-        <v>3.457</v>
-      </c>
-      <c r="C899" t="n">
-        <v>3.457</v>
-      </c>
-      <c r="D899" t="n">
-        <v>3.457</v>
-      </c>
-      <c r="E899" t="n">
-        <v>3.457</v>
-      </c>
-      <c r="F899" t="n">
-        <v>68083.64</v>
-      </c>
-      <c r="G899" t="n">
-        <v>-16799307.40918046</v>
-      </c>
-      <c r="H899" t="n">
-        <v>1</v>
-      </c>
-      <c r="I899" t="n">
-        <v>3.459</v>
-      </c>
-      <c r="J899" t="n">
-        <v>3.459</v>
-      </c>
-      <c r="K899" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L899" t="n">
-        <v>1</v>
-      </c>
-      <c r="M899" t="inlineStr"/>
-    </row>
-    <row r="900">
-      <c r="A900" s="1" t="n">
-        <v>898</v>
-      </c>
-      <c r="B900" t="n">
-        <v>3.456</v>
-      </c>
-      <c r="C900" t="n">
-        <v>3.455</v>
-      </c>
-      <c r="D900" t="n">
-        <v>3.456</v>
-      </c>
-      <c r="E900" t="n">
-        <v>3.455</v>
-      </c>
-      <c r="F900" t="n">
-        <v>309994.662</v>
-      </c>
-      <c r="G900" t="n">
-        <v>-17109302.07118046</v>
-      </c>
-      <c r="H900" t="n">
-        <v>1</v>
-      </c>
-      <c r="I900" t="n">
-        <v>3.457</v>
-      </c>
-      <c r="J900" t="n">
-        <v>3.459</v>
-      </c>
-      <c r="K900" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L900" t="n">
-        <v>1</v>
-      </c>
-      <c r="M900" t="inlineStr"/>
-    </row>
-    <row r="901">
-      <c r="A901" s="1" t="n">
-        <v>899</v>
-      </c>
-      <c r="B901" t="n">
-        <v>3.454</v>
-      </c>
-      <c r="C901" t="n">
-        <v>3.451</v>
-      </c>
-      <c r="D901" t="n">
-        <v>3.454</v>
-      </c>
-      <c r="E901" t="n">
-        <v>3.451</v>
-      </c>
-      <c r="F901" t="n">
-        <v>664118.049</v>
-      </c>
-      <c r="G901" t="n">
-        <v>-17773420.12018046</v>
-      </c>
-      <c r="H901" t="n">
-        <v>1</v>
-      </c>
-      <c r="I901" t="n">
-        <v>3.455</v>
-      </c>
-      <c r="J901" t="n">
-        <v>3.459</v>
-      </c>
-      <c r="K901" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L901" t="n">
-        <v>1</v>
-      </c>
-      <c r="M901" t="inlineStr"/>
-    </row>
-    <row r="902">
-      <c r="A902" s="1" t="n">
-        <v>900</v>
-      </c>
-      <c r="B902" t="n">
-        <v>3.453</v>
-      </c>
-      <c r="C902" t="n">
-        <v>3.451</v>
-      </c>
-      <c r="D902" t="n">
-        <v>3.453</v>
-      </c>
-      <c r="E902" t="n">
-        <v>3.451</v>
-      </c>
-      <c r="F902" t="n">
-        <v>171273.3376</v>
-      </c>
-      <c r="G902" t="n">
-        <v>-17773420.12018046</v>
-      </c>
-      <c r="H902" t="n">
-        <v>0</v>
-      </c>
-      <c r="I902" t="inlineStr"/>
-      <c r="J902" t="n">
-        <v>3.459</v>
-      </c>
-      <c r="K902" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L902" t="n">
-        <v>1</v>
-      </c>
-      <c r="M902" t="inlineStr"/>
-    </row>
-    <row r="903">
-      <c r="A903" s="1" t="n">
-        <v>901</v>
-      </c>
-      <c r="B903" t="n">
-        <v>3.451</v>
-      </c>
-      <c r="C903" t="n">
-        <v>3.449</v>
-      </c>
-      <c r="D903" t="n">
-        <v>3.451</v>
-      </c>
-      <c r="E903" t="n">
-        <v>3.449</v>
-      </c>
-      <c r="F903" t="n">
-        <v>630043.1568999999</v>
-      </c>
-      <c r="G903" t="n">
-        <v>-18403463.27708046</v>
-      </c>
-      <c r="H903" t="n">
-        <v>0</v>
-      </c>
-      <c r="I903" t="inlineStr"/>
-      <c r="J903" t="n">
-        <v>3.459</v>
-      </c>
-      <c r="K903" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L903" t="n">
-        <v>1</v>
-      </c>
-      <c r="M903" t="inlineStr"/>
-    </row>
-    <row r="904">
-      <c r="A904" s="1" t="n">
-        <v>902</v>
-      </c>
-      <c r="B904" t="n">
-        <v>3.449</v>
-      </c>
-      <c r="C904" t="n">
-        <v>3.459</v>
-      </c>
-      <c r="D904" t="n">
-        <v>3.459</v>
-      </c>
-      <c r="E904" t="n">
-        <v>3.449</v>
-      </c>
-      <c r="F904" t="n">
-        <v>82293.33500000001</v>
-      </c>
-      <c r="G904" t="n">
-        <v>-18321169.94208046</v>
-      </c>
-      <c r="H904" t="n">
-        <v>0</v>
-      </c>
-      <c r="I904" t="inlineStr"/>
-      <c r="J904" t="n">
-        <v>3.459</v>
-      </c>
-      <c r="K904" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L904" t="n">
-        <v>1</v>
-      </c>
-      <c r="M904" t="inlineStr"/>
-    </row>
-    <row r="905">
-      <c r="A905" s="1" t="n">
-        <v>903</v>
-      </c>
-      <c r="B905" t="n">
-        <v>3.453</v>
-      </c>
-      <c r="C905" t="n">
-        <v>3.458</v>
-      </c>
-      <c r="D905" t="n">
-        <v>3.458</v>
-      </c>
-      <c r="E905" t="n">
-        <v>3.453</v>
-      </c>
-      <c r="F905" t="n">
-        <v>121148.83</v>
-      </c>
-      <c r="G905" t="n">
-        <v>-18442318.77208046</v>
-      </c>
-      <c r="H905" t="n">
-        <v>0</v>
-      </c>
-      <c r="I905" t="inlineStr"/>
-      <c r="J905" t="n">
-        <v>3.459</v>
-      </c>
-      <c r="K905" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L905" t="n">
-        <v>1</v>
-      </c>
-      <c r="M905" t="inlineStr"/>
-    </row>
-    <row r="906">
-      <c r="A906" s="1" t="n">
-        <v>904</v>
-      </c>
-      <c r="B906" t="n">
-        <v>3.457</v>
-      </c>
-      <c r="C906" t="n">
-        <v>3.449</v>
-      </c>
-      <c r="D906" t="n">
-        <v>3.457</v>
-      </c>
-      <c r="E906" t="n">
-        <v>3.449</v>
-      </c>
-      <c r="F906" t="n">
-        <v>127719.8327</v>
-      </c>
-      <c r="G906" t="n">
-        <v>-18570038.60478046</v>
-      </c>
-      <c r="H906" t="n">
-        <v>0</v>
-      </c>
-      <c r="I906" t="inlineStr"/>
-      <c r="J906" t="n">
-        <v>3.459</v>
-      </c>
-      <c r="K906" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L906" t="n">
-        <v>1</v>
-      </c>
-      <c r="M906" t="inlineStr"/>
-    </row>
-    <row r="907">
-      <c r="A907" s="1" t="n">
-        <v>905</v>
-      </c>
-      <c r="B907" t="n">
-        <v>3.456</v>
-      </c>
-      <c r="C907" t="n">
-        <v>3.456</v>
-      </c>
-      <c r="D907" t="n">
-        <v>3.456</v>
-      </c>
-      <c r="E907" t="n">
-        <v>3.456</v>
-      </c>
-      <c r="F907" t="n">
-        <v>76093.48</v>
-      </c>
-      <c r="G907" t="n">
-        <v>-18493945.12478046</v>
-      </c>
-      <c r="H907" t="n">
-        <v>0</v>
-      </c>
-      <c r="I907" t="inlineStr"/>
-      <c r="J907" t="n">
-        <v>3.459</v>
-      </c>
-      <c r="K907" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L907" t="n">
-        <v>1</v>
-      </c>
-      <c r="M907" t="inlineStr"/>
-    </row>
-    <row r="908">
-      <c r="A908" s="1" t="n">
-        <v>906</v>
-      </c>
-      <c r="B908" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="C908" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="D908" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="E908" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="F908" t="n">
-        <v>31538.745</v>
-      </c>
-      <c r="G908" t="n">
-        <v>-18462406.37978046</v>
-      </c>
-      <c r="H908" t="n">
-        <v>1</v>
-      </c>
-      <c r="I908" t="n">
-        <v>3.456</v>
-      </c>
-      <c r="J908" t="n">
-        <v>3.459</v>
-      </c>
-      <c r="K908" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L908" t="n">
-        <v>1</v>
-      </c>
-      <c r="M908" t="inlineStr"/>
-    </row>
-    <row r="909">
-      <c r="A909" s="1" t="n">
-        <v>907</v>
-      </c>
-      <c r="B909" t="n">
-        <v>3.466</v>
-      </c>
-      <c r="C909" t="n">
-        <v>3.466</v>
-      </c>
-      <c r="D909" t="n">
-        <v>3.466</v>
-      </c>
-      <c r="E909" t="n">
-        <v>3.466</v>
-      </c>
-      <c r="F909" t="n">
-        <v>75092.25</v>
-      </c>
-      <c r="G909" t="n">
-        <v>-18387314.12978046</v>
-      </c>
-      <c r="H909" t="n">
-        <v>1</v>
-      </c>
-      <c r="I909" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="J909" t="n">
-        <v>3.459</v>
-      </c>
-      <c r="K909" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L909" t="n">
-        <v>1</v>
-      </c>
-      <c r="M909" t="inlineStr"/>
-    </row>
-    <row r="910">
-      <c r="A910" s="1" t="n">
-        <v>908</v>
-      </c>
-      <c r="B910" t="n">
-        <v>3.469</v>
-      </c>
-      <c r="C910" t="n">
-        <v>3.475</v>
-      </c>
-      <c r="D910" t="n">
-        <v>3.475</v>
-      </c>
-      <c r="E910" t="n">
-        <v>3.469</v>
-      </c>
-      <c r="F910" t="n">
-        <v>124752.41</v>
-      </c>
-      <c r="G910" t="n">
-        <v>-18262561.71978046</v>
-      </c>
-      <c r="H910" t="n">
-        <v>1</v>
-      </c>
-      <c r="I910" t="n">
-        <v>3.466</v>
-      </c>
-      <c r="J910" t="n">
-        <v>3.459</v>
-      </c>
-      <c r="K910" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L910" t="n">
-        <v>1</v>
-      </c>
-      <c r="M910" t="inlineStr"/>
-    </row>
-    <row r="911">
-      <c r="A911" s="1" t="n">
-        <v>909</v>
-      </c>
-      <c r="B911" t="n">
-        <v>3.467</v>
-      </c>
-      <c r="C911" t="n">
-        <v>3.467</v>
-      </c>
-      <c r="D911" t="n">
-        <v>3.467</v>
-      </c>
-      <c r="E911" t="n">
-        <v>3.467</v>
-      </c>
-      <c r="F911" t="n">
-        <v>64579.335</v>
-      </c>
-      <c r="G911" t="n">
-        <v>-18327141.05478046</v>
-      </c>
-      <c r="H911" t="n">
-        <v>1</v>
-      </c>
-      <c r="I911" t="n">
-        <v>3.475</v>
-      </c>
-      <c r="J911" t="n">
-        <v>3.459</v>
-      </c>
-      <c r="K911" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L911" t="n">
-        <v>1</v>
-      </c>
-      <c r="M911" t="inlineStr"/>
-    </row>
-    <row r="912">
-      <c r="A912" s="1" t="n">
-        <v>910</v>
-      </c>
-      <c r="B912" t="n">
-        <v>3.467</v>
-      </c>
-      <c r="C912" t="n">
-        <v>3.467</v>
-      </c>
-      <c r="D912" t="n">
-        <v>3.467</v>
-      </c>
-      <c r="E912" t="n">
-        <v>3.467</v>
-      </c>
-      <c r="F912" t="n">
-        <v>55568.265</v>
-      </c>
-      <c r="G912" t="n">
-        <v>-18327141.05478046</v>
-      </c>
-      <c r="H912" t="n">
-        <v>1</v>
-      </c>
-      <c r="I912" t="n">
-        <v>3.467</v>
-      </c>
-      <c r="J912" t="n">
-        <v>3.459</v>
-      </c>
-      <c r="K912" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L912" t="n">
-        <v>1</v>
-      </c>
-      <c r="M912" t="inlineStr"/>
-    </row>
-    <row r="913">
-      <c r="A913" s="1" t="n">
-        <v>911</v>
-      </c>
-      <c r="B913" t="n">
-        <v>3.467</v>
-      </c>
-      <c r="C913" t="n">
-        <v>3.467</v>
-      </c>
-      <c r="D913" t="n">
-        <v>3.467</v>
-      </c>
-      <c r="E913" t="n">
-        <v>3.467</v>
-      </c>
-      <c r="F913" t="n">
-        <v>59573.185</v>
-      </c>
-      <c r="G913" t="n">
-        <v>-18327141.05478046</v>
-      </c>
-      <c r="H913" t="n">
-        <v>1</v>
-      </c>
-      <c r="I913" t="n">
-        <v>3.467</v>
-      </c>
-      <c r="J913" t="n">
-        <v>3.459</v>
-      </c>
-      <c r="K913" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L913" t="n">
-        <v>1</v>
-      </c>
-      <c r="M913" t="inlineStr"/>
-    </row>
-    <row r="914">
-      <c r="A914" s="1" t="n">
-        <v>912</v>
-      </c>
-      <c r="B914" t="n">
-        <v>3.463</v>
-      </c>
-      <c r="C914" t="n">
-        <v>3.463</v>
-      </c>
-      <c r="D914" t="n">
-        <v>3.463</v>
-      </c>
-      <c r="E914" t="n">
-        <v>3.463</v>
-      </c>
-      <c r="F914" t="n">
-        <v>53065.19</v>
-      </c>
-      <c r="G914" t="n">
-        <v>-18380206.24478046</v>
-      </c>
-      <c r="H914" t="n">
-        <v>1</v>
-      </c>
-      <c r="I914" t="n">
-        <v>3.467</v>
-      </c>
-      <c r="J914" t="n">
-        <v>3.459</v>
-      </c>
-      <c r="K914" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L914" t="n">
-        <v>1</v>
-      </c>
-      <c r="M914" t="inlineStr"/>
-    </row>
-    <row r="915">
-      <c r="A915" s="1" t="n">
-        <v>913</v>
-      </c>
-      <c r="B915" t="n">
-        <v>3.469</v>
-      </c>
-      <c r="C915" t="n">
-        <v>3.469</v>
-      </c>
-      <c r="D915" t="n">
-        <v>3.469</v>
-      </c>
-      <c r="E915" t="n">
-        <v>3.469</v>
-      </c>
-      <c r="F915" t="n">
-        <v>72589.175</v>
-      </c>
-      <c r="G915" t="n">
-        <v>-18307617.06978046</v>
-      </c>
-      <c r="H915" t="n">
-        <v>1</v>
-      </c>
-      <c r="I915" t="n">
-        <v>3.463</v>
-      </c>
-      <c r="J915" t="n">
-        <v>3.459</v>
-      </c>
-      <c r="K915" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L915" t="n">
-        <v>1</v>
-      </c>
-      <c r="M915" t="inlineStr"/>
-    </row>
-    <row r="916">
-      <c r="A916" s="1" t="n">
-        <v>914</v>
-      </c>
-      <c r="B916" t="n">
-        <v>3.479</v>
-      </c>
-      <c r="C916" t="n">
-        <v>3.463</v>
-      </c>
-      <c r="D916" t="n">
-        <v>3.479</v>
-      </c>
-      <c r="E916" t="n">
-        <v>3.463</v>
-      </c>
-      <c r="F916" t="n">
-        <v>66569.78</v>
-      </c>
-      <c r="G916" t="n">
-        <v>-18374186.84978046</v>
-      </c>
-      <c r="H916" t="n">
-        <v>1</v>
-      </c>
-      <c r="I916" t="n">
-        <v>3.469</v>
-      </c>
-      <c r="J916" t="n">
-        <v>3.459</v>
-      </c>
-      <c r="K916" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L916" t="n">
-        <v>1</v>
-      </c>
-      <c r="M916" t="inlineStr"/>
-    </row>
-    <row r="917">
-      <c r="A917" s="1" t="n">
-        <v>915</v>
-      </c>
-      <c r="B917" t="n">
-        <v>3.475</v>
-      </c>
-      <c r="C917" t="n">
-        <v>3.475</v>
-      </c>
-      <c r="D917" t="n">
-        <v>3.475</v>
-      </c>
-      <c r="E917" t="n">
-        <v>3.475</v>
-      </c>
-      <c r="F917" t="n">
-        <v>54066.42</v>
-      </c>
-      <c r="G917" t="n">
-        <v>-18320120.42978046</v>
-      </c>
-      <c r="H917" t="n">
-        <v>1</v>
-      </c>
-      <c r="I917" t="n">
-        <v>3.463</v>
-      </c>
-      <c r="J917" t="n">
-        <v>3.459</v>
-      </c>
-      <c r="K917" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L917" t="n">
-        <v>1</v>
-      </c>
-      <c r="M917" t="inlineStr"/>
-    </row>
-    <row r="918">
-      <c r="A918" s="1" t="n">
-        <v>916</v>
-      </c>
-      <c r="B918" t="n">
-        <v>3.473</v>
-      </c>
-      <c r="C918" t="n">
-        <v>3.473</v>
-      </c>
-      <c r="D918" t="n">
-        <v>3.473</v>
-      </c>
-      <c r="E918" t="n">
-        <v>3.473</v>
-      </c>
-      <c r="F918" t="n">
-        <v>45555.965</v>
-      </c>
-      <c r="G918" t="n">
-        <v>-18365676.39478046</v>
-      </c>
-      <c r="H918" t="n">
-        <v>0</v>
-      </c>
-      <c r="I918" t="inlineStr"/>
-      <c r="J918" t="n">
-        <v>3.459</v>
-      </c>
-      <c r="K918" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L918" t="n">
-        <v>1</v>
-      </c>
-      <c r="M918" t="inlineStr"/>
-    </row>
-    <row r="919">
-      <c r="A919" s="1" t="n">
-        <v>917</v>
-      </c>
-      <c r="B919" t="n">
-        <v>3.468</v>
-      </c>
-      <c r="C919" t="n">
-        <v>3.468</v>
-      </c>
-      <c r="D919" t="n">
-        <v>3.468</v>
-      </c>
-      <c r="E919" t="n">
-        <v>3.468</v>
-      </c>
-      <c r="F919" t="n">
-        <v>56068.88</v>
-      </c>
-      <c r="G919" t="n">
-        <v>-18421745.27478046</v>
-      </c>
-      <c r="H919" t="n">
-        <v>0</v>
-      </c>
-      <c r="I919" t="inlineStr"/>
-      <c r="J919" t="n">
-        <v>3.459</v>
-      </c>
-      <c r="K919" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L919" t="n">
-        <v>1</v>
-      </c>
-      <c r="M919" t="inlineStr"/>
-    </row>
-    <row r="920">
-      <c r="A920" s="1" t="n">
-        <v>918</v>
-      </c>
-      <c r="B920" t="n">
-        <v>3.468</v>
-      </c>
-      <c r="C920" t="n">
-        <v>3.468</v>
-      </c>
-      <c r="D920" t="n">
-        <v>3.468</v>
-      </c>
-      <c r="E920" t="n">
-        <v>3.468</v>
-      </c>
-      <c r="F920" t="n">
-        <v>50562.115</v>
-      </c>
-      <c r="G920" t="n">
-        <v>-18421745.27478046</v>
-      </c>
-      <c r="H920" t="n">
-        <v>0</v>
-      </c>
-      <c r="I920" t="inlineStr"/>
-      <c r="J920" t="n">
-        <v>3.459</v>
-      </c>
-      <c r="K920" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L920" t="n">
-        <v>1</v>
-      </c>
-      <c r="M920" t="inlineStr"/>
-    </row>
-    <row r="921">
-      <c r="A921" s="1" t="n">
-        <v>919</v>
-      </c>
-      <c r="B921" t="n">
-        <v>3.464</v>
-      </c>
-      <c r="C921" t="n">
-        <v>3.464</v>
-      </c>
-      <c r="D921" t="n">
-        <v>3.464</v>
-      </c>
-      <c r="E921" t="n">
-        <v>3.464</v>
-      </c>
-      <c r="F921" t="n">
-        <v>78095.94</v>
-      </c>
-      <c r="G921" t="n">
-        <v>-18499841.21478046</v>
-      </c>
-      <c r="H921" t="n">
-        <v>0</v>
-      </c>
-      <c r="I921" t="inlineStr"/>
-      <c r="J921" t="n">
-        <v>3.459</v>
-      </c>
-      <c r="K921" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L921" t="n">
-        <v>1</v>
-      </c>
-      <c r="M921" t="inlineStr"/>
-    </row>
-    <row r="922">
-      <c r="A922" s="1" t="n">
-        <v>920</v>
-      </c>
-      <c r="B922" t="n">
-        <v>3.468</v>
-      </c>
-      <c r="C922" t="n">
-        <v>3.468</v>
-      </c>
-      <c r="D922" t="n">
-        <v>3.468</v>
-      </c>
-      <c r="E922" t="n">
-        <v>3.468</v>
-      </c>
-      <c r="F922" t="n">
-        <v>53565.805</v>
-      </c>
-      <c r="G922" t="n">
-        <v>-18446275.40978046</v>
-      </c>
-      <c r="H922" t="n">
-        <v>0</v>
-      </c>
-      <c r="I922" t="inlineStr"/>
-      <c r="J922" t="n">
-        <v>3.459</v>
-      </c>
-      <c r="K922" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L922" t="n">
-        <v>1</v>
-      </c>
-      <c r="M922" t="inlineStr"/>
-    </row>
-    <row r="923">
-      <c r="A923" s="1" t="n">
-        <v>921</v>
-      </c>
-      <c r="B923" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="C923" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="D923" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="E923" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="F923" t="n">
-        <v>32539.975</v>
-      </c>
-      <c r="G923" t="n">
-        <v>-18413735.43478046</v>
-      </c>
-      <c r="H923" t="n">
-        <v>1</v>
-      </c>
-      <c r="I923" t="n">
-        <v>3.468</v>
-      </c>
-      <c r="J923" t="n">
-        <v>3.459</v>
-      </c>
-      <c r="K923" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L923" t="n">
-        <v>1</v>
-      </c>
-      <c r="M923" t="inlineStr"/>
-    </row>
-    <row r="924">
-      <c r="A924" s="1" t="n">
-        <v>922</v>
-      </c>
-      <c r="B924" t="n">
-        <v>3.472</v>
-      </c>
-      <c r="C924" t="n">
-        <v>3.472</v>
-      </c>
-      <c r="D924" t="n">
-        <v>3.472</v>
-      </c>
-      <c r="E924" t="n">
-        <v>3.472</v>
-      </c>
-      <c r="F924" t="n">
-        <v>63578.105</v>
-      </c>
-      <c r="G924" t="n">
-        <v>-18350157.32978046</v>
-      </c>
-      <c r="H924" t="n">
-        <v>1</v>
-      </c>
-      <c r="I924" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="J924" t="n">
-        <v>3.459</v>
-      </c>
-      <c r="K924" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L924" t="n">
-        <v>1</v>
-      </c>
-      <c r="M924" t="inlineStr"/>
-    </row>
-    <row r="925">
-      <c r="A925" s="1" t="n">
-        <v>923</v>
-      </c>
-      <c r="B925" t="n">
-        <v>3.476</v>
-      </c>
-      <c r="C925" t="n">
-        <v>3.476</v>
-      </c>
-      <c r="D925" t="n">
-        <v>3.476</v>
-      </c>
-      <c r="E925" t="n">
-        <v>3.476</v>
-      </c>
-      <c r="F925" t="n">
-        <v>63077.49</v>
-      </c>
-      <c r="G925" t="n">
-        <v>-18287079.83978046</v>
-      </c>
-      <c r="H925" t="n">
-        <v>1</v>
-      </c>
-      <c r="I925" t="n">
-        <v>3.472</v>
-      </c>
-      <c r="J925" t="n">
-        <v>3.459</v>
-      </c>
-      <c r="K925" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L925" t="n">
-        <v>1</v>
-      </c>
-      <c r="M925" t="inlineStr"/>
-    </row>
-    <row r="926">
-      <c r="A926" s="1" t="n">
-        <v>924</v>
-      </c>
-      <c r="B926" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="C926" t="n">
-        <v>3.471</v>
-      </c>
-      <c r="D926" t="n">
-        <v>3.471</v>
-      </c>
-      <c r="E926" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="F926" t="n">
-        <v>66493.68700000001</v>
-      </c>
-      <c r="G926" t="n">
-        <v>-18353573.52678046</v>
-      </c>
-      <c r="H926" t="n">
-        <v>0</v>
-      </c>
-      <c r="I926" t="inlineStr"/>
-      <c r="J926" t="n">
-        <v>3.459</v>
-      </c>
-      <c r="K926" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L926" t="n">
-        <v>1</v>
-      </c>
-      <c r="M926" t="inlineStr"/>
-    </row>
-    <row r="927">
-      <c r="A927" s="1" t="n">
-        <v>925</v>
-      </c>
-      <c r="B927" t="n">
-        <v>3.466</v>
-      </c>
-      <c r="C927" t="n">
-        <v>3.467</v>
-      </c>
-      <c r="D927" t="n">
-        <v>3.467</v>
-      </c>
-      <c r="E927" t="n">
-        <v>3.466</v>
-      </c>
-      <c r="F927" t="n">
-        <v>101624.845</v>
-      </c>
-      <c r="G927" t="n">
-        <v>-18455198.37178046</v>
-      </c>
-      <c r="H927" t="n">
-        <v>0</v>
-      </c>
-      <c r="I927" t="inlineStr"/>
-      <c r="J927" t="n">
-        <v>3.459</v>
-      </c>
-      <c r="K927" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L927" t="n">
-        <v>1</v>
-      </c>
-      <c r="M927" t="inlineStr"/>
-    </row>
-    <row r="928">
-      <c r="A928" s="1" t="n">
-        <v>926</v>
-      </c>
-      <c r="B928" t="n">
-        <v>3.461</v>
-      </c>
-      <c r="C928" t="n">
-        <v>3.461</v>
-      </c>
-      <c r="D928" t="n">
-        <v>3.461</v>
-      </c>
-      <c r="E928" t="n">
-        <v>3.461</v>
-      </c>
-      <c r="F928" t="n">
-        <v>27920</v>
-      </c>
-      <c r="G928" t="n">
-        <v>-18483118.37178046</v>
-      </c>
-      <c r="H928" t="n">
-        <v>0</v>
-      </c>
-      <c r="I928" t="inlineStr"/>
-      <c r="J928" t="n">
-        <v>3.459</v>
-      </c>
-      <c r="K928" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L928" t="n">
-        <v>1</v>
-      </c>
-      <c r="M928" t="inlineStr"/>
-    </row>
-    <row r="929">
-      <c r="A929" s="1" t="n">
-        <v>927</v>
-      </c>
-      <c r="B929" t="n">
-        <v>3.455</v>
-      </c>
-      <c r="C929" t="n">
-        <v>3.455</v>
-      </c>
-      <c r="D929" t="n">
-        <v>3.455</v>
-      </c>
-      <c r="E929" t="n">
-        <v>3.455</v>
-      </c>
-      <c r="F929" t="n">
-        <v>76594.095</v>
-      </c>
-      <c r="G929" t="n">
-        <v>-18559712.46678045</v>
-      </c>
-      <c r="H929" t="n">
-        <v>0</v>
-      </c>
-      <c r="I929" t="inlineStr"/>
-      <c r="J929" t="n">
-        <v>3.459</v>
-      </c>
-      <c r="K929" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L929" t="n">
-        <v>1</v>
-      </c>
-      <c r="M929" t="inlineStr"/>
-    </row>
-    <row r="930">
-      <c r="A930" s="1" t="n">
-        <v>928</v>
-      </c>
-      <c r="B930" t="n">
-        <v>3.456</v>
-      </c>
-      <c r="C930" t="n">
-        <v>3.453</v>
-      </c>
-      <c r="D930" t="n">
-        <v>3.456</v>
-      </c>
-      <c r="E930" t="n">
-        <v>3.453</v>
-      </c>
-      <c r="F930" t="n">
-        <v>118145.14</v>
-      </c>
-      <c r="G930" t="n">
-        <v>-18677857.60678045</v>
-      </c>
-      <c r="H930" t="n">
-        <v>0</v>
-      </c>
-      <c r="I930" t="inlineStr"/>
-      <c r="J930" t="n">
-        <v>3.459</v>
-      </c>
-      <c r="K930" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L930" t="n">
-        <v>1</v>
-      </c>
-      <c r="M930" t="inlineStr"/>
-    </row>
-    <row r="931">
-      <c r="A931" s="1" t="n">
-        <v>929</v>
-      </c>
-      <c r="B931" t="n">
-        <v>3.455</v>
-      </c>
-      <c r="C931" t="n">
-        <v>3.455</v>
-      </c>
-      <c r="D931" t="n">
-        <v>3.455</v>
-      </c>
-      <c r="E931" t="n">
-        <v>3.455</v>
-      </c>
-      <c r="F931" t="n">
-        <v>33040.59</v>
-      </c>
-      <c r="G931" t="n">
-        <v>-18644817.01678045</v>
-      </c>
-      <c r="H931" t="n">
-        <v>0</v>
-      </c>
-      <c r="I931" t="inlineStr"/>
-      <c r="J931" t="n">
-        <v>3.459</v>
-      </c>
-      <c r="K931" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L931" t="n">
-        <v>1</v>
-      </c>
-      <c r="M931" t="inlineStr"/>
-    </row>
-    <row r="932">
-      <c r="A932" s="1" t="n">
-        <v>930</v>
-      </c>
-      <c r="B932" t="n">
-        <v>3.461</v>
-      </c>
-      <c r="C932" t="n">
-        <v>3.461</v>
-      </c>
-      <c r="D932" t="n">
-        <v>3.461</v>
-      </c>
-      <c r="E932" t="n">
-        <v>3.461</v>
-      </c>
-      <c r="F932" t="n">
-        <v>5606.6154</v>
-      </c>
-      <c r="G932" t="n">
-        <v>-18639210.40138045</v>
-      </c>
-      <c r="H932" t="n">
-        <v>1</v>
-      </c>
-      <c r="I932" t="n">
-        <v>3.455</v>
-      </c>
-      <c r="J932" t="n">
-        <v>3.459</v>
-      </c>
-      <c r="K932" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L932" t="n">
-        <v>1</v>
-      </c>
-      <c r="M932" t="inlineStr"/>
-    </row>
-    <row r="933">
-      <c r="A933" s="1" t="n">
-        <v>931</v>
-      </c>
-      <c r="B933" t="n">
-        <v>3.477</v>
-      </c>
-      <c r="C933" t="n">
-        <v>3.484</v>
-      </c>
-      <c r="D933" t="n">
-        <v>3.484</v>
-      </c>
-      <c r="E933" t="n">
-        <v>3.477</v>
-      </c>
-      <c r="F933" t="n">
-        <v>83720.0831</v>
-      </c>
-      <c r="G933" t="n">
-        <v>-18555490.31828045</v>
-      </c>
-      <c r="H933" t="n">
-        <v>1</v>
-      </c>
-      <c r="I933" t="n">
-        <v>3.461</v>
-      </c>
-      <c r="J933" t="n">
-        <v>3.459</v>
-      </c>
-      <c r="K933" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L933" t="n">
-        <v>1</v>
-      </c>
-      <c r="M933" t="inlineStr"/>
-    </row>
-    <row r="934">
-      <c r="A934" s="1" t="n">
-        <v>932</v>
-      </c>
-      <c r="B934" t="n">
-        <v>3.481</v>
-      </c>
-      <c r="C934" t="n">
-        <v>3.481</v>
-      </c>
-      <c r="D934" t="n">
-        <v>3.481</v>
-      </c>
-      <c r="E934" t="n">
-        <v>3.481</v>
-      </c>
-      <c r="F934" t="n">
-        <v>38046.74</v>
-      </c>
-      <c r="G934" t="n">
-        <v>-18593537.05828045</v>
-      </c>
-      <c r="H934" t="n">
-        <v>1</v>
-      </c>
-      <c r="I934" t="n">
-        <v>3.484</v>
-      </c>
-      <c r="J934" t="n">
-        <v>3.459</v>
-      </c>
-      <c r="K934" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L934" t="n">
-        <v>1</v>
-      </c>
-      <c r="M934" t="inlineStr"/>
-    </row>
-    <row r="935">
-      <c r="A935" s="1" t="n">
-        <v>933</v>
-      </c>
-      <c r="B935" t="n">
-        <v>3.467</v>
-      </c>
-      <c r="C935" t="n">
-        <v>3.467</v>
-      </c>
-      <c r="D935" t="n">
-        <v>3.467</v>
-      </c>
-      <c r="E935" t="n">
-        <v>3.467</v>
-      </c>
-      <c r="F935" t="n">
-        <v>70086.10000000001</v>
-      </c>
-      <c r="G935" t="n">
-        <v>-18663623.15828045</v>
-      </c>
-      <c r="H935" t="n">
-        <v>1</v>
-      </c>
-      <c r="I935" t="n">
-        <v>3.481</v>
-      </c>
-      <c r="J935" t="n">
-        <v>3.459</v>
-      </c>
-      <c r="K935" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L935" t="n">
-        <v>1</v>
-      </c>
-      <c r="M935" t="inlineStr"/>
-    </row>
-    <row r="936">
-      <c r="A936" s="1" t="n">
-        <v>934</v>
-      </c>
-      <c r="B936" t="n">
-        <v>3.462</v>
-      </c>
-      <c r="C936" t="n">
-        <v>3.462</v>
-      </c>
-      <c r="D936" t="n">
-        <v>3.462</v>
-      </c>
-      <c r="E936" t="n">
-        <v>3.462</v>
-      </c>
-      <c r="F936" t="n">
-        <v>28050</v>
-      </c>
-      <c r="G936" t="n">
-        <v>-18691673.15828045</v>
-      </c>
-      <c r="H936" t="n">
-        <v>1</v>
-      </c>
-      <c r="I936" t="n">
-        <v>3.467</v>
-      </c>
-      <c r="J936" t="n">
-        <v>3.459</v>
-      </c>
-      <c r="K936" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L936" t="n">
-        <v>1</v>
-      </c>
-      <c r="M936" t="inlineStr"/>
-    </row>
-    <row r="937">
-      <c r="A937" s="1" t="n">
-        <v>935</v>
-      </c>
-      <c r="B937" t="n">
-        <v>3.461</v>
-      </c>
-      <c r="C937" t="n">
-        <v>3.461</v>
-      </c>
-      <c r="D937" t="n">
-        <v>3.461</v>
-      </c>
-      <c r="E937" t="n">
-        <v>3.461</v>
-      </c>
-      <c r="F937" t="n">
-        <v>600.103</v>
-      </c>
-      <c r="G937" t="n">
-        <v>-18692273.26128045</v>
-      </c>
-      <c r="H937" t="n">
-        <v>1</v>
-      </c>
-      <c r="I937" t="n">
-        <v>3.462</v>
-      </c>
-      <c r="J937" t="n">
-        <v>3.459</v>
-      </c>
-      <c r="K937" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L937" t="n">
-        <v>1</v>
-      </c>
-      <c r="M937" t="inlineStr"/>
-    </row>
-    <row r="938">
-      <c r="A938" s="1" t="n">
-        <v>936</v>
-      </c>
-      <c r="B938" t="n">
-        <v>3.462</v>
-      </c>
-      <c r="C938" t="n">
-        <v>3.462</v>
-      </c>
-      <c r="D938" t="n">
-        <v>3.462</v>
-      </c>
-      <c r="E938" t="n">
-        <v>3.462</v>
-      </c>
-      <c r="F938" t="n">
-        <v>28812.8609</v>
-      </c>
-      <c r="G938" t="n">
-        <v>-18663460.40038045</v>
-      </c>
-      <c r="H938" t="n">
-        <v>1</v>
-      </c>
-      <c r="I938" t="n">
-        <v>3.461</v>
-      </c>
-      <c r="J938" t="n">
-        <v>3.459</v>
-      </c>
-      <c r="K938" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L938" t="n">
-        <v>1</v>
-      </c>
-      <c r="M938" t="inlineStr"/>
-    </row>
-    <row r="939">
-      <c r="A939" s="1" t="n">
-        <v>937</v>
-      </c>
-      <c r="B939" t="n">
-        <v>3.472</v>
-      </c>
-      <c r="C939" t="n">
-        <v>3.461</v>
-      </c>
-      <c r="D939" t="n">
-        <v>3.472</v>
-      </c>
-      <c r="E939" t="n">
-        <v>3.461</v>
-      </c>
-      <c r="F939" t="n">
-        <v>80362.6298</v>
-      </c>
-      <c r="G939" t="n">
-        <v>-18743823.03018045</v>
-      </c>
-      <c r="H939" t="n">
-        <v>1</v>
-      </c>
-      <c r="I939" t="n">
-        <v>3.462</v>
-      </c>
-      <c r="J939" t="n">
-        <v>3.459</v>
-      </c>
-      <c r="K939" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -31771,7 +31471,7 @@
         <v>3.461</v>
       </c>
       <c r="J940" t="n">
-        <v>3.459</v>
+        <v>3.462</v>
       </c>
       <c r="K940" t="inlineStr">
         <is>
@@ -31812,7 +31512,7 @@
         <v>3.47</v>
       </c>
       <c r="J941" t="n">
-        <v>3.459</v>
+        <v>3.462</v>
       </c>
       <c r="K941" t="inlineStr">
         <is>
@@ -31853,7 +31553,7 @@
         <v>3.469</v>
       </c>
       <c r="J942" t="n">
-        <v>3.459</v>
+        <v>3.462</v>
       </c>
       <c r="K942" t="inlineStr">
         <is>
@@ -31894,7 +31594,7 @@
         <v>3.475</v>
       </c>
       <c r="J943" t="n">
-        <v>3.459</v>
+        <v>3.462</v>
       </c>
       <c r="K943" t="inlineStr">
         <is>
@@ -31935,7 +31635,7 @@
         <v>3.47</v>
       </c>
       <c r="J944" t="n">
-        <v>3.459</v>
+        <v>3.462</v>
       </c>
       <c r="K944" t="inlineStr">
         <is>
@@ -31976,7 +31676,7 @@
         <v>3.48</v>
       </c>
       <c r="J945" t="n">
-        <v>3.459</v>
+        <v>3.462</v>
       </c>
       <c r="K945" t="inlineStr">
         <is>
@@ -32017,7 +31717,7 @@
         <v>3.463</v>
       </c>
       <c r="J946" t="n">
-        <v>3.459</v>
+        <v>3.462</v>
       </c>
       <c r="K946" t="inlineStr">
         <is>
@@ -32052,13 +31752,11 @@
         <v>-18789042.58218046</v>
       </c>
       <c r="H947" t="n">
-        <v>1</v>
-      </c>
-      <c r="I947" t="n">
-        <v>3.477</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I947" t="inlineStr"/>
       <c r="J947" t="n">
-        <v>3.459</v>
+        <v>3.462</v>
       </c>
       <c r="K947" t="inlineStr">
         <is>
@@ -32099,7 +31797,7 @@
         <v>3.466</v>
       </c>
       <c r="J948" t="n">
-        <v>3.459</v>
+        <v>3.462</v>
       </c>
       <c r="K948" t="inlineStr">
         <is>
@@ -32140,7 +31838,7 @@
         <v>3.462</v>
       </c>
       <c r="J949" t="n">
-        <v>3.459</v>
+        <v>3.462</v>
       </c>
       <c r="K949" t="inlineStr">
         <is>
@@ -32181,7 +31879,7 @@
         <v>3.473</v>
       </c>
       <c r="J950" t="n">
-        <v>3.459</v>
+        <v>3.462</v>
       </c>
       <c r="K950" t="inlineStr">
         <is>
@@ -32216,11 +31914,13 @@
         <v>-18902181.57218045</v>
       </c>
       <c r="H951" t="n">
-        <v>0</v>
-      </c>
-      <c r="I951" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I951" t="n">
+        <v>3.471</v>
+      </c>
       <c r="J951" t="n">
-        <v>3.459</v>
+        <v>3.462</v>
       </c>
       <c r="K951" t="inlineStr">
         <is>
@@ -32255,11 +31955,13 @@
         <v>-18845111.46218045</v>
       </c>
       <c r="H952" t="n">
-        <v>0</v>
-      </c>
-      <c r="I952" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I952" t="n">
+        <v>3.468</v>
+      </c>
       <c r="J952" t="n">
-        <v>3.459</v>
+        <v>3.462</v>
       </c>
       <c r="K952" t="inlineStr">
         <is>
@@ -32300,7 +32002,7 @@
         <v>3.481</v>
       </c>
       <c r="J953" t="n">
-        <v>3.459</v>
+        <v>3.462</v>
       </c>
       <c r="K953" t="inlineStr">
         <is>
@@ -32339,7 +32041,7 @@
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="n">
-        <v>3.459</v>
+        <v>3.462</v>
       </c>
       <c r="K954" t="inlineStr">
         <is>
@@ -32378,7 +32080,7 @@
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="n">
-        <v>3.459</v>
+        <v>3.462</v>
       </c>
       <c r="K955" t="inlineStr">
         <is>
@@ -32413,11 +32115,13 @@
         <v>-19030883.68118045</v>
       </c>
       <c r="H956" t="n">
-        <v>0</v>
-      </c>
-      <c r="I956" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I956" t="n">
+        <v>3.477</v>
+      </c>
       <c r="J956" t="n">
-        <v>3.459</v>
+        <v>3.462</v>
       </c>
       <c r="K956" t="inlineStr">
         <is>
@@ -32452,13 +32156,11 @@
         <v>-18986328.94618046</v>
       </c>
       <c r="H957" t="n">
-        <v>1</v>
-      </c>
-      <c r="I957" t="n">
-        <v>3.472</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I957" t="inlineStr"/>
       <c r="J957" t="n">
-        <v>3.459</v>
+        <v>3.462</v>
       </c>
       <c r="K957" t="inlineStr">
         <is>
@@ -32493,13 +32195,11 @@
         <v>-18931761.91118046</v>
       </c>
       <c r="H958" t="n">
-        <v>1</v>
-      </c>
-      <c r="I958" t="n">
-        <v>3.474</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I958" t="inlineStr"/>
       <c r="J958" t="n">
-        <v>3.459</v>
+        <v>3.462</v>
       </c>
       <c r="K958" t="inlineStr">
         <is>
@@ -32534,13 +32234,11 @@
         <v>-19040895.98118046</v>
       </c>
       <c r="H959" t="n">
-        <v>1</v>
-      </c>
-      <c r="I959" t="n">
-        <v>3.485</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I959" t="inlineStr"/>
       <c r="J959" t="n">
-        <v>3.459</v>
+        <v>3.462</v>
       </c>
       <c r="K959" t="inlineStr">
         <is>
@@ -32581,7 +32279,7 @@
         <v>3.478</v>
       </c>
       <c r="J960" t="n">
-        <v>3.459</v>
+        <v>3.462</v>
       </c>
       <c r="K960" t="inlineStr">
         <is>
@@ -32620,7 +32318,7 @@
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="n">
-        <v>3.459</v>
+        <v>3.462</v>
       </c>
       <c r="K961" t="inlineStr">
         <is>
@@ -32659,7 +32357,7 @@
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="n">
-        <v>3.459</v>
+        <v>3.462</v>
       </c>
       <c r="K962" t="inlineStr">
         <is>
@@ -32698,7 +32396,7 @@
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="n">
-        <v>3.459</v>
+        <v>3.462</v>
       </c>
       <c r="K963" t="inlineStr">
         <is>
@@ -32733,23 +32431,23 @@
         <v>-18989332.63618046</v>
       </c>
       <c r="H964" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="n">
-        <v>3.459</v>
+        <v>3.462</v>
       </c>
       <c r="K964" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L964" t="n">
-        <v>1</v>
+        <v>1.005687463893703</v>
       </c>
       <c r="M964" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest CON.xlsx
+++ b/BackTest/2020-01-11 BackTest CON.xlsx
@@ -781,7 +781,7 @@
         <v>-3354538.395565898</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-3286454.755565898</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-3472182.920565898</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-3396089.440565898</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-3363781.750565898</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-3438874.000565898</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-3491939.190565898</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-3491939.190565898</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-3545004.380565898</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-3352267.605565898</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-3397823.570565898</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-3497077.502565897</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-3560655.607565897</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-3623733.097565897</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-3590692.507565897</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-3693799.172565897</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-3773396.957565897</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-3632724.142565897</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-3671772.112565897</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-3600684.782565897</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-3690326.192465897</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-3662291.752465897</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-3627248.702465897</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-3627771.202565897</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-3414366.174685003</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-3489854.911685003</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-3443297.716685004</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-3504372.746685003</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-3428279.266685003</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-3396740.521685003</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-3538915.181685003</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-3474335.846685003</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-3529904.111685004</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-3589477.296685004</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-3529904.111685004</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-3475837.691685004</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-3429732.011685004</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-3485800.891685004</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-3536363.006685004</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-3498816.881685004</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-3433236.316685004</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-3381172.356685004</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-3430733.241685004</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-3549378.996685004</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-3479793.511685004</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-3430825.354685004</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-3463865.944685004</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-3545966.804685004</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-3466369.019685003</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-3527944.664685003</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-3338712.194685003</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-3395281.689685003</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-3384668.447685003</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-3377659.837685003</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-3425218.262685003</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-3284201.024685003</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-3344274.824685003</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-3431381.834685003</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-3489953.789685003</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-3425875.069685003</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-3464422.424685003</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-3541517.134685003</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-3593080.479685003</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-3518633.021685003</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-3581209.896685003</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-3516129.946685003</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-3589219.736685003</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-3648292.306685003</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-3752420.226685002</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-3806486.646685002</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-3738903.621685002</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-3687240.153685003</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-3727289.353685003</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-3660707.558685003</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-3630170.043685003</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-3596628.838685003</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-3631171.273685003</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-3594125.763685003</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-3637178.653685003</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-3565090.093685003</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-3613149.133685003</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-3691745.688685003</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-3800879.758685003</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-3740366.824685003</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-3695311.474685003</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-3807358.896285003</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-3754794.321285003</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-3816870.581285003</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-3782828.761285003</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-3885955.451285003</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-3841901.331285003</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-3841317.834285003</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-3901892.249285003</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-4050574.904285002</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-4004017.709285003</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-4065092.739285002</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-3816031.029785003</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-3847569.774785003</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-3904139.269785003</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-3959707.534785003</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-4019280.719785003</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-3959707.534785003</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-4013773.954785003</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-4065766.291285004</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-4121835.171285003</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-5362005.183585003</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-5113634.183085006</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-5113634.183085006</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-5113634.183085006</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-5125534.489985006</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-5197122.434985006</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-5154570.159985006</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-5154570.159985006</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-5441561.896685005</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-5401450.725685005</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-5014167.948585006</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-4777700.936985006</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-4722132.671985006</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-4662559.486985006</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-4715624.676985007</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-4701751.157785007</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-4774340.332785007</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-4741680.209785007</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-5390271.368385007</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>-5312175.428385006</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>-5365741.233385006</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-5398281.208385006</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-5405672.153585006</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-5342094.048585005</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-5279016.558585005</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-5344597.123585005</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-5292233.163585005</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-5341794.048585005</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-5383845.708585005</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-5307251.613585006</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-5237666.128585005</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-5189106.473585005</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-5222147.063585005</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-5272208.563585005</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-5272208.563585005</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-5272208.563585005</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-5192610.778585005</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>-5192610.778585005</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-5271707.948585005</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-5310755.918585004</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-5239668.588585004</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-5296238.083585004</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-5255187.653585005</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-5295737.468585005</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-5420961.165185005</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-5420961.165185005</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>-5385417.500185005</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>-5633619.882185006</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-5735456.700385005</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-5678386.590385005</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-5678386.590385005</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-5298347.799785005</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-5229262.929785005</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-5306858.254785005</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-5306858.254785005</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-5306858.254785005</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-5246784.454785005</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-5246215.755785005</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-5342333.835785005</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-5342333.835785005</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-5294775.410785005</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-5353347.365785006</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-5284275.621385005</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>-5245728.266385005</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>-5168633.556385005</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>-5168633.556385005</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>-5168104.112385005</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-5230680.987385005</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>-5230680.987385005</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-5230680.987385005</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-5289753.557385005</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>-5243696.977385005</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>-5243696.977385005</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>-5306774.467385005</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-5251706.817385005</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-5251706.817385005</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>-5302769.547385005</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>-5196138.552385005</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>-5196138.552385005</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>-5196138.552385005</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>-5230680.987385005</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>-5231473.961385005</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-5194428.451385005</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-5237481.341385005</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-5078786.386385005</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-5118334.971385005</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-5049750.716385005</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-4963494.395985005</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-5021065.120985005</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-4976009.770985005</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-5017560.815985005</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-4964996.240985005</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-4964996.240985005</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-5068074.871985005</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-5068074.871985005</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-5024020.751985005</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-5084595.166985005</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-5010504.146985006</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>-4524069.214285005</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>-4459741.023179858</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>-4577886.163179858</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>-4649173.493179858</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>-4776830.318179859</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>-4742287.883179859</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>-4633353.813179859</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>-4701437.453179859</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>-4637358.733179859</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>-4675906.088179859</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18865,7 +18865,7 @@
         <v>-4730773.738179859</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -18898,7 +18898,7 @@
         <v>-4793350.613179859</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -19030,7 +19030,7 @@
         <v>-4596108.303179858</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19096,7 +19096,7 @@
         <v>-4550051.723179858</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>-4581089.853179858</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>-4446022.203179858</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19261,7 +19261,7 @@
         <v>-4497084.933179858</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19294,7 +19294,7 @@
         <v>-4497084.933179858</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
         <v>-4448622.448179858</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -23617,7 +23617,7 @@
         <v>-5700925.625279863</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -23650,7 +23650,7 @@
         <v>-5633689.649779864</v>
       </c>
       <c r="H705" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -23848,7 +23848,7 @@
         <v>-5449463.329779864</v>
       </c>
       <c r="H711" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -23881,7 +23881,7 @@
         <v>-5515544.509779864</v>
       </c>
       <c r="H712" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -23914,7 +23914,7 @@
         <v>-5514973.742779864</v>
       </c>
       <c r="H713" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -23947,7 +23947,7 @@
         <v>-5569040.162779864</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -24079,7 +24079,7 @@
         <v>-5649639.177779865</v>
       </c>
       <c r="H718" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -24112,7 +24112,7 @@
         <v>-5697179.152779864</v>
       </c>
       <c r="H719" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -24145,7 +24145,7 @@
         <v>-5847257.257779865</v>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -24178,7 +24178,7 @@
         <v>-5755349.767779864</v>
       </c>
       <c r="H721" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -24211,7 +24211,7 @@
         <v>-5689769.202779864</v>
       </c>
       <c r="H722" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -24244,7 +24244,7 @@
         <v>-5781540.633679864</v>
       </c>
       <c r="H723" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -24277,7 +24277,7 @@
         <v>-5731979.748679864</v>
       </c>
       <c r="H724" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -24310,7 +24310,7 @@
         <v>-5774031.408679864</v>
       </c>
       <c r="H725" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -24343,7 +24343,7 @@
         <v>-5697437.313679865</v>
       </c>
       <c r="H726" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -24376,7 +24376,7 @@
         <v>-5767022.798679865</v>
       </c>
       <c r="H727" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -24409,7 +24409,7 @@
         <v>-5595422.553679865</v>
       </c>
       <c r="H728" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -24442,7 +24442,7 @@
         <v>-5645484.053679865</v>
       </c>
       <c r="H729" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -24475,7 +24475,7 @@
         <v>-5683530.793679865</v>
       </c>
       <c r="H730" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -24508,7 +24508,7 @@
         <v>-5763616.893679865</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -24574,7 +24574,7 @@
         <v>-5684379.551679865</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -24607,7 +24607,7 @@
         <v>-5622803.906679865</v>
       </c>
       <c r="H734" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -24640,7 +24640,7 @@
         <v>-5701901.076679865</v>
       </c>
       <c r="H735" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -24673,7 +24673,7 @@
         <v>-5812036.376679865</v>
       </c>
       <c r="H736" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -24706,7 +24706,7 @@
         <v>-5868605.871679865</v>
       </c>
       <c r="H737" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -24739,7 +24739,7 @@
         <v>-5909656.301679865</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -24772,7 +24772,7 @@
         <v>-5869106.486679864</v>
       </c>
       <c r="H739" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -24805,7 +24805,7 @@
         <v>-5754966.266679864</v>
       </c>
       <c r="H740" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -24838,7 +24838,7 @@
         <v>-5719422.601679864</v>
       </c>
       <c r="H741" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -24871,7 +24871,7 @@
         <v>-5755967.496679864</v>
       </c>
       <c r="H742" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -24904,7 +24904,7 @@
         <v>-5755967.496679864</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -24937,7 +24937,7 @@
         <v>-5813430.088679864</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -24970,7 +24970,7 @@
         <v>-5849474.368679864</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -25003,7 +25003,7 @@
         <v>-5925067.233679865</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -25036,7 +25036,7 @@
         <v>-5925067.233679865</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -25069,7 +25069,7 @@
         <v>-5844166.178279865</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -25102,7 +25102,7 @@
         <v>-5844166.178279865</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -25135,7 +25135,7 @@
         <v>-5784092.378279865</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -25168,7 +25168,7 @@
         <v>-5735032.108279865</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -25201,7 +25201,7 @@
         <v>-5782089.918279865</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -25234,7 +25234,7 @@
         <v>-5819636.043279865</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -25267,7 +25267,7 @@
         <v>-5772077.618279865</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -25300,7 +25300,7 @@
         <v>-5830649.573279865</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -25333,7 +25333,7 @@
         <v>-5830649.573279865</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -25366,7 +25366,7 @@
         <v>-5830649.573279865</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -25399,7 +25399,7 @@
         <v>-5907744.283279865</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -25432,7 +25432,7 @@
         <v>-5907744.283279865</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -25465,7 +25465,7 @@
         <v>-5997278.388279865</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -25498,7 +25498,7 @@
         <v>-5997278.388279865</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -25531,7 +25531,7 @@
         <v>-6081085.059279866</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -25564,7 +25564,7 @@
         <v>-6081085.059279866</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -25597,7 +25597,7 @@
         <v>-6361125.970379866</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -25630,7 +25630,7 @@
         <v>-6296046.020379866</v>
       </c>
       <c r="H765" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -25663,7 +25663,7 @@
         <v>-6296046.020379866</v>
       </c>
       <c r="H766" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -25696,7 +25696,7 @@
         <v>-6355118.590379866</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -25729,7 +25729,7 @@
         <v>-6309062.010379866</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -25762,7 +25762,7 @@
         <v>-6250990.670379866</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -25795,7 +25795,7 @@
         <v>-6283030.030379866</v>
       </c>
       <c r="H770" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -25828,7 +25828,7 @@
         <v>-6251991.900379866</v>
       </c>
       <c r="H771" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -25861,7 +25861,7 @@
         <v>-6251991.900379866</v>
       </c>
       <c r="H772" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -25894,7 +25894,7 @@
         <v>-6319574.925379867</v>
       </c>
       <c r="H773" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -25927,7 +25927,7 @@
         <v>-6268512.195379866</v>
       </c>
       <c r="H774" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -25960,7 +25960,7 @@
         <v>-6227710.070379866</v>
       </c>
       <c r="H775" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -25993,7 +25993,7 @@
         <v>-6355145.389579866</v>
       </c>
       <c r="H776" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -26026,7 +26026,7 @@
         <v>-6388686.594579866</v>
       </c>
       <c r="H777" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -26059,7 +26059,7 @@
         <v>-6354144.159579867</v>
       </c>
       <c r="H778" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -26092,7 +26092,7 @@
         <v>-6391189.669579866</v>
       </c>
       <c r="H779" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -26125,7 +26125,7 @@
         <v>-6434242.559579866</v>
       </c>
       <c r="H780" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -26158,7 +26158,7 @@
         <v>-6344291.415579866</v>
       </c>
       <c r="H781" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -26191,7 +26191,7 @@
         <v>-6296232.375579866</v>
       </c>
       <c r="H782" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -26224,7 +26224,7 @@
         <v>-6296232.375579866</v>
       </c>
       <c r="H783" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -26257,7 +26257,7 @@
         <v>-6216133.975579865</v>
       </c>
       <c r="H784" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -26290,7 +26290,7 @@
         <v>-6255682.560579865</v>
       </c>
       <c r="H785" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -26323,7 +26323,7 @@
         <v>-6324266.815579865</v>
       </c>
       <c r="H786" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -26356,7 +26356,7 @@
         <v>-6266696.090579866</v>
       </c>
       <c r="H787" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -26389,7 +26389,7 @@
         <v>-6311751.440579865</v>
       </c>
       <c r="H788" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -26422,7 +26422,7 @@
         <v>-6353743.026579865</v>
       </c>
       <c r="H789" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -26455,7 +26455,7 @@
         <v>-6301178.451579865</v>
       </c>
       <c r="H790" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -26488,7 +26488,7 @@
         <v>-6239102.191579865</v>
       </c>
       <c r="H791" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -26521,7 +26521,7 @@
         <v>-6464102.439079865</v>
       </c>
       <c r="H792" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -26554,7 +26554,7 @@
         <v>-6361976.979079865</v>
       </c>
       <c r="H793" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -26587,7 +26587,7 @@
         <v>-6326933.929079865</v>
       </c>
       <c r="H794" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -26620,7 +26620,7 @@
         <v>-6370988.049079865</v>
       </c>
       <c r="H795" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -26653,7 +26653,7 @@
         <v>-6446562.464079865</v>
       </c>
       <c r="H796" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -26686,7 +26686,7 @@
         <v>-6372471.444079866</v>
       </c>
       <c r="H797" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -26719,7 +26719,7 @@
         <v>-6453327.601479866</v>
       </c>
       <c r="H798" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -26752,7 +26752,7 @@
         <v>-6499884.796479866</v>
       </c>
       <c r="H799" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -26785,7 +26785,7 @@
         <v>-6723055.697779866</v>
       </c>
       <c r="H800" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -26818,7 +26818,7 @@
         <v>-6661980.667779866</v>
       </c>
       <c r="H801" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -26851,7 +26851,7 @@
         <v>-6738074.147779866</v>
       </c>
       <c r="H802" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -26884,7 +26884,7 @@
         <v>-6706535.402779866</v>
       </c>
       <c r="H803" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -26917,7 +26917,7 @@
         <v>-6631443.152779866</v>
       </c>
       <c r="H804" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -26950,7 +26950,7 @@
         <v>-6564360.742779866</v>
       </c>
       <c r="H805" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -26983,7 +26983,7 @@
         <v>-6499781.407779866</v>
       </c>
       <c r="H806" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -27016,7 +27016,7 @@
         <v>-6555349.672779866</v>
       </c>
       <c r="H807" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -27049,7 +27049,7 @@
         <v>-6502284.482779865</v>
       </c>
       <c r="H808" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -27082,7 +27082,7 @@
         <v>-6574873.657779865</v>
       </c>
       <c r="H809" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -27115,7 +27115,7 @@
         <v>-6640954.837779865</v>
       </c>
       <c r="H810" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -27148,7 +27148,7 @@
         <v>-6586888.417779865</v>
       </c>
       <c r="H811" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -27181,7 +27181,7 @@
         <v>-6633349.494779864</v>
       </c>
       <c r="H812" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -27214,7 +27214,7 @@
         <v>-6631952.846735172</v>
       </c>
       <c r="H813" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -27247,7 +27247,7 @@
         <v>-6688021.726735172</v>
       </c>
       <c r="H814" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -27280,7 +27280,7 @@
         <v>-6637459.611735172</v>
       </c>
       <c r="H815" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -27313,7 +27313,7 @@
         <v>-6715555.551735172</v>
       </c>
       <c r="H816" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -27346,7 +27346,7 @@
         <v>-6769121.356735172</v>
       </c>
       <c r="H817" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -27379,7 +27379,7 @@
         <v>-6673003.276735172</v>
       </c>
       <c r="H818" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -27412,7 +27412,7 @@
         <v>-6607132.490645786</v>
       </c>
       <c r="H819" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -27445,7 +27445,7 @@
         <v>-7283506.521235172</v>
       </c>
       <c r="H820" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -27478,7 +27478,7 @@
         <v>-7584265.241935172</v>
       </c>
       <c r="H821" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -27511,7 +27511,7 @@
         <v>-7875163.534835172</v>
       </c>
       <c r="H822" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -27544,7 +27544,7 @@
         <v>-6771114.966835172</v>
       </c>
       <c r="H823" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -27577,7 +27577,7 @@
         <v>-6636202.126835172</v>
       </c>
       <c r="H824" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -27610,7 +27610,7 @@
         <v>-6797193.839135172</v>
       </c>
       <c r="H825" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -27643,7 +27643,7 @@
         <v>-6943935.84883146</v>
       </c>
       <c r="H826" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -27676,7 +27676,7 @@
         <v>-6895376.19383146</v>
       </c>
       <c r="H827" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -27709,7 +27709,7 @@
         <v>-7463647.019131459</v>
       </c>
       <c r="H828" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -27742,7 +27742,7 @@
         <v>-7413585.519131459</v>
       </c>
       <c r="H829" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -27775,7 +27775,7 @@
         <v>-7523270.08033146</v>
       </c>
       <c r="H830" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -27808,7 +27808,7 @@
         <v>-7842765.107331459</v>
       </c>
       <c r="H831" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -30349,10 +30349,14 @@
         <v>-18462406.37978046</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
-      </c>
-      <c r="I908" t="inlineStr"/>
-      <c r="J908" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I908" t="n">
+        <v>3.456</v>
+      </c>
+      <c r="J908" t="n">
+        <v>3.456</v>
+      </c>
       <c r="K908" t="inlineStr"/>
       <c r="L908" t="n">
         <v>1</v>
@@ -30382,11 +30386,19 @@
         <v>-18387314.12978046</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
-      </c>
-      <c r="I909" t="inlineStr"/>
-      <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I909" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="J909" t="n">
+        <v>3.456</v>
+      </c>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -30415,11 +30427,19 @@
         <v>-18262561.71978046</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
-      </c>
-      <c r="I910" t="inlineStr"/>
-      <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I910" t="n">
+        <v>3.466</v>
+      </c>
+      <c r="J910" t="n">
+        <v>3.456</v>
+      </c>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -30448,10 +30468,14 @@
         <v>-18327141.05478046</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
-      </c>
-      <c r="I911" t="inlineStr"/>
-      <c r="J911" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I911" t="n">
+        <v>3.475</v>
+      </c>
+      <c r="J911" t="n">
+        <v>3.475</v>
+      </c>
       <c r="K911" t="inlineStr"/>
       <c r="L911" t="n">
         <v>1</v>
@@ -30481,11 +30505,19 @@
         <v>-18327141.05478046</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
-      </c>
-      <c r="I912" t="inlineStr"/>
-      <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I912" t="n">
+        <v>3.467</v>
+      </c>
+      <c r="J912" t="n">
+        <v>3.475</v>
+      </c>
+      <c r="K912" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -30514,11 +30546,19 @@
         <v>-18327141.05478046</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
-      </c>
-      <c r="I913" t="inlineStr"/>
-      <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I913" t="n">
+        <v>3.467</v>
+      </c>
+      <c r="J913" t="n">
+        <v>3.475</v>
+      </c>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -30547,10 +30587,14 @@
         <v>-18380206.24478046</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
-      </c>
-      <c r="I914" t="inlineStr"/>
-      <c r="J914" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I914" t="n">
+        <v>3.467</v>
+      </c>
+      <c r="J914" t="n">
+        <v>3.467</v>
+      </c>
       <c r="K914" t="inlineStr"/>
       <c r="L914" t="n">
         <v>1</v>
@@ -30580,11 +30624,19 @@
         <v>-18307617.06978046</v>
       </c>
       <c r="H915" t="n">
-        <v>0</v>
-      </c>
-      <c r="I915" t="inlineStr"/>
-      <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I915" t="n">
+        <v>3.463</v>
+      </c>
+      <c r="J915" t="n">
+        <v>3.467</v>
+      </c>
+      <c r="K915" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -30613,11 +30665,19 @@
         <v>-18374186.84978046</v>
       </c>
       <c r="H916" t="n">
-        <v>0</v>
-      </c>
-      <c r="I916" t="inlineStr"/>
-      <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I916" t="n">
+        <v>3.469</v>
+      </c>
+      <c r="J916" t="n">
+        <v>3.467</v>
+      </c>
+      <c r="K916" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -30649,8 +30709,14 @@
         <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
-      <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr"/>
+      <c r="J917" t="n">
+        <v>3.467</v>
+      </c>
+      <c r="K917" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -30682,8 +30748,14 @@
         <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
-      <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr"/>
+      <c r="J918" t="n">
+        <v>3.467</v>
+      </c>
+      <c r="K918" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -30715,8 +30787,14 @@
         <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
-      <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr"/>
+      <c r="J919" t="n">
+        <v>3.467</v>
+      </c>
+      <c r="K919" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -30748,8 +30826,14 @@
         <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
-      <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr"/>
+      <c r="J920" t="n">
+        <v>3.467</v>
+      </c>
+      <c r="K920" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -30781,8 +30865,14 @@
         <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
-      <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr"/>
+      <c r="J921" t="n">
+        <v>3.467</v>
+      </c>
+      <c r="K921" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -30811,11 +30901,19 @@
         <v>-18446275.40978046</v>
       </c>
       <c r="H922" t="n">
-        <v>0</v>
-      </c>
-      <c r="I922" t="inlineStr"/>
-      <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I922" t="n">
+        <v>3.464</v>
+      </c>
+      <c r="J922" t="n">
+        <v>3.467</v>
+      </c>
+      <c r="K922" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -30844,11 +30942,19 @@
         <v>-18413735.43478046</v>
       </c>
       <c r="H923" t="n">
-        <v>0</v>
-      </c>
-      <c r="I923" t="inlineStr"/>
-      <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I923" t="n">
+        <v>3.468</v>
+      </c>
+      <c r="J923" t="n">
+        <v>3.467</v>
+      </c>
+      <c r="K923" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -30877,11 +30983,19 @@
         <v>-18350157.32978046</v>
       </c>
       <c r="H924" t="n">
-        <v>0</v>
-      </c>
-      <c r="I924" t="inlineStr"/>
-      <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I924" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="J924" t="n">
+        <v>3.467</v>
+      </c>
+      <c r="K924" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -30910,11 +31024,19 @@
         <v>-18287079.83978046</v>
       </c>
       <c r="H925" t="n">
-        <v>0</v>
-      </c>
-      <c r="I925" t="inlineStr"/>
-      <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I925" t="n">
+        <v>3.472</v>
+      </c>
+      <c r="J925" t="n">
+        <v>3.467</v>
+      </c>
+      <c r="K925" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -30943,11 +31065,19 @@
         <v>-18353573.52678046</v>
       </c>
       <c r="H926" t="n">
-        <v>0</v>
-      </c>
-      <c r="I926" t="inlineStr"/>
-      <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I926" t="n">
+        <v>3.476</v>
+      </c>
+      <c r="J926" t="n">
+        <v>3.467</v>
+      </c>
+      <c r="K926" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -30979,8 +31109,14 @@
         <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
-      <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr"/>
+      <c r="J927" t="n">
+        <v>3.467</v>
+      </c>
+      <c r="K927" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -31012,8 +31148,14 @@
         <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
-      <c r="J928" t="inlineStr"/>
-      <c r="K928" t="inlineStr"/>
+      <c r="J928" t="n">
+        <v>3.467</v>
+      </c>
+      <c r="K928" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -31042,11 +31184,19 @@
         <v>-18559712.46678045</v>
       </c>
       <c r="H929" t="n">
-        <v>0</v>
-      </c>
-      <c r="I929" t="inlineStr"/>
-      <c r="J929" t="inlineStr"/>
-      <c r="K929" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I929" t="n">
+        <v>3.461</v>
+      </c>
+      <c r="J929" t="n">
+        <v>3.467</v>
+      </c>
+      <c r="K929" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -31075,11 +31225,19 @@
         <v>-18677857.60678045</v>
       </c>
       <c r="H930" t="n">
-        <v>0</v>
-      </c>
-      <c r="I930" t="inlineStr"/>
-      <c r="J930" t="inlineStr"/>
-      <c r="K930" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I930" t="n">
+        <v>3.455</v>
+      </c>
+      <c r="J930" t="n">
+        <v>3.467</v>
+      </c>
+      <c r="K930" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -31114,9 +31272,13 @@
         <v>3.453</v>
       </c>
       <c r="J931" t="n">
-        <v>3.453</v>
-      </c>
-      <c r="K931" t="inlineStr"/>
+        <v>3.467</v>
+      </c>
+      <c r="K931" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -31151,11 +31313,11 @@
         <v>3.455</v>
       </c>
       <c r="J932" t="n">
-        <v>3.453</v>
+        <v>3.467</v>
       </c>
       <c r="K932" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L932" t="n">
@@ -31192,11 +31354,11 @@
         <v>3.461</v>
       </c>
       <c r="J933" t="n">
-        <v>3.453</v>
+        <v>3.467</v>
       </c>
       <c r="K933" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L933" t="n">
@@ -31233,9 +31395,13 @@
         <v>3.484</v>
       </c>
       <c r="J934" t="n">
-        <v>3.484</v>
-      </c>
-      <c r="K934" t="inlineStr"/>
+        <v>3.467</v>
+      </c>
+      <c r="K934" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -31270,11 +31436,11 @@
         <v>3.481</v>
       </c>
       <c r="J935" t="n">
-        <v>3.484</v>
+        <v>3.467</v>
       </c>
       <c r="K935" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L935" t="n">
@@ -31311,11 +31477,11 @@
         <v>3.467</v>
       </c>
       <c r="J936" t="n">
-        <v>3.484</v>
+        <v>3.467</v>
       </c>
       <c r="K936" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L936" t="n">
@@ -31352,9 +31518,13 @@
         <v>3.462</v>
       </c>
       <c r="J937" t="n">
-        <v>3.462</v>
-      </c>
-      <c r="K937" t="inlineStr"/>
+        <v>3.467</v>
+      </c>
+      <c r="K937" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -31389,11 +31559,11 @@
         <v>3.461</v>
       </c>
       <c r="J938" t="n">
-        <v>3.462</v>
+        <v>3.467</v>
       </c>
       <c r="K938" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L938" t="n">
@@ -31430,11 +31600,11 @@
         <v>3.462</v>
       </c>
       <c r="J939" t="n">
-        <v>3.462</v>
+        <v>3.467</v>
       </c>
       <c r="K939" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L939" t="n">
@@ -31471,7 +31641,7 @@
         <v>3.461</v>
       </c>
       <c r="J940" t="n">
-        <v>3.462</v>
+        <v>3.467</v>
       </c>
       <c r="K940" t="inlineStr">
         <is>
@@ -31512,7 +31682,7 @@
         <v>3.47</v>
       </c>
       <c r="J941" t="n">
-        <v>3.462</v>
+        <v>3.467</v>
       </c>
       <c r="K941" t="inlineStr">
         <is>
@@ -31553,7 +31723,7 @@
         <v>3.469</v>
       </c>
       <c r="J942" t="n">
-        <v>3.462</v>
+        <v>3.467</v>
       </c>
       <c r="K942" t="inlineStr">
         <is>
@@ -31594,7 +31764,7 @@
         <v>3.475</v>
       </c>
       <c r="J943" t="n">
-        <v>3.462</v>
+        <v>3.467</v>
       </c>
       <c r="K943" t="inlineStr">
         <is>
@@ -31635,7 +31805,7 @@
         <v>3.47</v>
       </c>
       <c r="J944" t="n">
-        <v>3.462</v>
+        <v>3.467</v>
       </c>
       <c r="K944" t="inlineStr">
         <is>
@@ -31676,7 +31846,7 @@
         <v>3.48</v>
       </c>
       <c r="J945" t="n">
-        <v>3.462</v>
+        <v>3.467</v>
       </c>
       <c r="K945" t="inlineStr">
         <is>
@@ -31717,7 +31887,7 @@
         <v>3.463</v>
       </c>
       <c r="J946" t="n">
-        <v>3.462</v>
+        <v>3.467</v>
       </c>
       <c r="K946" t="inlineStr">
         <is>
@@ -31752,11 +31922,13 @@
         <v>-18789042.58218046</v>
       </c>
       <c r="H947" t="n">
-        <v>0</v>
-      </c>
-      <c r="I947" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I947" t="n">
+        <v>3.477</v>
+      </c>
       <c r="J947" t="n">
-        <v>3.462</v>
+        <v>3.467</v>
       </c>
       <c r="K947" t="inlineStr">
         <is>
@@ -31797,7 +31969,7 @@
         <v>3.466</v>
       </c>
       <c r="J948" t="n">
-        <v>3.462</v>
+        <v>3.467</v>
       </c>
       <c r="K948" t="inlineStr">
         <is>
@@ -31838,7 +32010,7 @@
         <v>3.462</v>
       </c>
       <c r="J949" t="n">
-        <v>3.462</v>
+        <v>3.467</v>
       </c>
       <c r="K949" t="inlineStr">
         <is>
@@ -31879,7 +32051,7 @@
         <v>3.473</v>
       </c>
       <c r="J950" t="n">
-        <v>3.462</v>
+        <v>3.467</v>
       </c>
       <c r="K950" t="inlineStr">
         <is>
@@ -31920,7 +32092,7 @@
         <v>3.471</v>
       </c>
       <c r="J951" t="n">
-        <v>3.462</v>
+        <v>3.467</v>
       </c>
       <c r="K951" t="inlineStr">
         <is>
@@ -31961,7 +32133,7 @@
         <v>3.468</v>
       </c>
       <c r="J952" t="n">
-        <v>3.462</v>
+        <v>3.467</v>
       </c>
       <c r="K952" t="inlineStr">
         <is>
@@ -32002,7 +32174,7 @@
         <v>3.481</v>
       </c>
       <c r="J953" t="n">
-        <v>3.462</v>
+        <v>3.467</v>
       </c>
       <c r="K953" t="inlineStr">
         <is>
@@ -32037,11 +32209,13 @@
         <v>-18884203.48618045</v>
       </c>
       <c r="H954" t="n">
-        <v>0</v>
-      </c>
-      <c r="I954" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I954" t="n">
+        <v>3.489</v>
+      </c>
       <c r="J954" t="n">
-        <v>3.462</v>
+        <v>3.467</v>
       </c>
       <c r="K954" t="inlineStr">
         <is>
@@ -32076,11 +32250,13 @@
         <v>-18953288.35618046</v>
       </c>
       <c r="H955" t="n">
-        <v>0</v>
-      </c>
-      <c r="I955" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I955" t="n">
+        <v>3.481</v>
+      </c>
       <c r="J955" t="n">
-        <v>3.462</v>
+        <v>3.467</v>
       </c>
       <c r="K955" t="inlineStr">
         <is>
@@ -32121,7 +32297,7 @@
         <v>3.477</v>
       </c>
       <c r="J956" t="n">
-        <v>3.462</v>
+        <v>3.467</v>
       </c>
       <c r="K956" t="inlineStr">
         <is>
@@ -32156,11 +32332,13 @@
         <v>-18986328.94618046</v>
       </c>
       <c r="H957" t="n">
-        <v>0</v>
-      </c>
-      <c r="I957" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I957" t="n">
+        <v>3.472</v>
+      </c>
       <c r="J957" t="n">
-        <v>3.462</v>
+        <v>3.467</v>
       </c>
       <c r="K957" t="inlineStr">
         <is>
@@ -32195,11 +32373,13 @@
         <v>-18931761.91118046</v>
       </c>
       <c r="H958" t="n">
-        <v>0</v>
-      </c>
-      <c r="I958" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I958" t="n">
+        <v>3.474</v>
+      </c>
       <c r="J958" t="n">
-        <v>3.462</v>
+        <v>3.467</v>
       </c>
       <c r="K958" t="inlineStr">
         <is>
@@ -32234,11 +32414,13 @@
         <v>-19040895.98118046</v>
       </c>
       <c r="H959" t="n">
-        <v>0</v>
-      </c>
-      <c r="I959" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I959" t="n">
+        <v>3.485</v>
+      </c>
       <c r="J959" t="n">
-        <v>3.462</v>
+        <v>3.467</v>
       </c>
       <c r="K959" t="inlineStr">
         <is>
@@ -32279,7 +32461,7 @@
         <v>3.478</v>
       </c>
       <c r="J960" t="n">
-        <v>3.462</v>
+        <v>3.467</v>
       </c>
       <c r="K960" t="inlineStr">
         <is>
@@ -32318,7 +32500,7 @@
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="n">
-        <v>3.462</v>
+        <v>3.467</v>
       </c>
       <c r="K961" t="inlineStr">
         <is>
@@ -32357,7 +32539,7 @@
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="n">
-        <v>3.462</v>
+        <v>3.467</v>
       </c>
       <c r="K962" t="inlineStr">
         <is>
@@ -32396,7 +32578,7 @@
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="n">
-        <v>3.462</v>
+        <v>3.467</v>
       </c>
       <c r="K963" t="inlineStr">
         <is>
@@ -32431,19 +32613,19 @@
         <v>-18989332.63618046</v>
       </c>
       <c r="H964" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="n">
-        <v>3.462</v>
+        <v>3.467</v>
       </c>
       <c r="K964" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L964" t="n">
-        <v>1.005687463893703</v>
+        <v>1</v>
       </c>
       <c r="M964" t="inlineStr"/>
     </row>
